--- a/mappings/package_F04/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F04/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="1100">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDArc.1</t>
+    <t>2.1.1-TDAbeta.1</t>
   </si>
   <si>
     <r>
@@ -3452,28 +3452,6 @@
     <t>Award criteria</t>
   </si>
   <si>
-    <t>II.2.5.1.2.1</t>
-  </si>
-  <si>
-    <t>The criteria described below (Criterion:)</t>
-  </si>
-  <si>
-    <t>BT-543</t>
-  </si>
-  <si>
-    <t>Award Criterion complicated</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_CRITERION
-OBJECT_CONTRACT/OBJECT_DESCR/AC_CRITERION</t>
-  </si>
-  <si>
-    <t>epo:AwardCriterion / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this cccev:description ?value .</t>
-  </si>
-  <si>
     <t>II.2.5.1</t>
   </si>
   <si>
@@ -3490,6 +3468,35 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY</t>
   </si>
   <si>
+    <t xml:space="preserve">epo:Lot / epo:AwardCriterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
     <t>epo:AwardCriterion / at-voc:award-criterion-type</t>
   </si>
   <si>
@@ -3547,6 +3554,9 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_CRITERION</t>
   </si>
   <si>
+    <t>epo:AwardCriterion / rdf:langString</t>
+  </si>
+  <si>
     <t>?this cccev:name ?value .</t>
   </si>
   <si>
@@ -3554,6 +3564,12 @@
   </si>
   <si>
     <t>Weighting</t>
+  </si>
+  <si>
+    <t>BT-543</t>
+  </si>
+  <si>
+    <t>Award Criterion complicated</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_WEIGHTING
@@ -3576,6 +3592,32 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>?</t>
@@ -3638,6 +3680,32 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>?</t>
@@ -3690,6 +3758,32 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_PROCUREMENT_DOC</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
     <t>II.2.6</t>
   </si>
   <si>
@@ -3865,15 +3959,18 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm /</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator ?value .</t>
+    <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator true .</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_RENEWAL</t>
   </si>
   <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator false .</t>
+  </si>
+  <si>
     <t>II.2.7.6</t>
   </si>
   <si>
@@ -3913,18 +4010,61 @@
     <t>Variants</t>
   </si>
   <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS
-</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS</t>
   </si>
   <si>
     <t>epo:Lot / epo:SubmissionTerm / at-voc:permission</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission ?value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS
-</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/not-allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>II.2.11</t>
@@ -3942,12 +4082,15 @@
     <t>BT-53</t>
   </si>
   <si>
+    <t>II.2.11.1.1</t>
+  </si>
+  <si>
+    <t>Options (checked / yes)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -3982,6 +4125,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.11.1.2</t>
+  </si>
+  <si>
+    <t>Options (unchecked / no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_OPTIONS</t>
   </si>
   <si>
@@ -4043,6 +4192,12 @@
   </si>
   <si>
     <t>EU Funds</t>
+  </si>
+  <si>
+    <t>II.2.13.1.1</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (yes)</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED</t>
@@ -4077,6 +4232,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.13.1.2</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
   </si>
   <si>
@@ -4227,98 +4388,200 @@
     <t>Suitability to pursue the professional activity, including requirements relating to enrolment on professional or trade registers</t>
   </si>
   <si>
+    <t>LEFTI/SUITABILITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Lot / epo:SelectionCriterion / at-voc:selection-criterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/sui-act</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
     <t>III.1.1.1</t>
   </si>
   <si>
     <t>List and brief description of conditions, indication of information and documentation required</t>
   </si>
   <si>
+    <t>BT-750</t>
+  </si>
+  <si>
+    <t>Selection Criteria Description</t>
+  </si>
+  <si>
+    <t>LEFTI/SUITABILITY/P</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
+  </si>
+  <si>
+    <t>III.1.2</t>
+  </si>
+  <si>
+    <t>Economic and financial standing</t>
+  </si>
+  <si>
+    <t>BT-747</t>
+  </si>
+  <si>
+    <t>Selection Criteria Type</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_CRITERIA_DOC
+LEFTI/ECONOMIC_FINANCIAL_INFO
+LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/ef-stand</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>III.1.2.1</t>
+  </si>
+  <si>
+    <t>Selection criteria as stated in the procurement documents</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_CRITERIA_DOC</t>
+  </si>
+  <si>
+    <t>III.1.2.2</t>
+  </si>
+  <si>
+    <t>List and brief description of selection criteria, indication of information and documentation required:</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_FINANCIAL_INFO</t>
+  </si>
+  <si>
+    <t>III.1.2.3</t>
+  </si>
+  <si>
+    <t>Minimum level(s) of standards possibly required:</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SelectionCriterion / cccev:Constraint / cccev:InformationConcept / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / epo:hasConstraint / cccev:constrains / epo:hasDescription ?value .</t>
+  </si>
+  <si>
+    <t>III.1.3</t>
+  </si>
+  <si>
+    <t>Technical and professional ability</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_CRITERIA_DOC
+LEFTI/TECHNICAL_PROFESSIONAL_INFO
+LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/tp-abil</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>III.1.3.1</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_CRITERIA_DOC</t>
+  </si>
+  <si>
+    <t>III.1.3.2</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_PROFESSIONAL_INFO</t>
+  </si>
+  <si>
+    <t>III.1.3.3</t>
+  </si>
+  <si>
+    <t>Minimum level(s) of standards possibly required</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <t>III.1.4</t>
+  </si>
+  <si>
+    <t>Objective rules and criteria for participation</t>
+  </si>
+  <si>
+    <t>III.1.4.1</t>
+  </si>
+  <si>
+    <t>List and brief description of rules and criteria</t>
+  </si>
+  <si>
     <t>BT-749; BT-750</t>
-  </si>
-  <si>
-    <t>Selection Criteria Name; 
-Selection Criteria Description</t>
-  </si>
-  <si>
-    <t>LEFTI/SUITABILITY/P/FT</t>
-  </si>
-  <si>
-    <t>III.1.2</t>
-  </si>
-  <si>
-    <t>Economic and financial standing</t>
-  </si>
-  <si>
-    <t>III.1.2.1</t>
-  </si>
-  <si>
-    <t>Selection criteria as stated in the procurement documents</t>
-  </si>
-  <si>
-    <t>BT-747</t>
-  </si>
-  <si>
-    <t>Selection Criteria Type</t>
-  </si>
-  <si>
-    <t>LEFTI/ECONOMIC_CRITERIA_DOC</t>
-  </si>
-  <si>
-    <t>III.1.2.2</t>
-  </si>
-  <si>
-    <t>List and brief description of selection criteria, indication of information and documentation required:</t>
-  </si>
-  <si>
-    <t>LEFTI/ECONOMIC_FINANCIAL_INFO</t>
-  </si>
-  <si>
-    <t>III.1.2.3</t>
-  </si>
-  <si>
-    <t>Minimum level(s) of standards possibly required:</t>
-  </si>
-  <si>
-    <t>LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
-  </si>
-  <si>
-    <t>III.1.3</t>
-  </si>
-  <si>
-    <t>Technical and professional ability</t>
-  </si>
-  <si>
-    <t>III.1.3.1</t>
-  </si>
-  <si>
-    <t>LEFTI/TECHNICAL_CRITERIA_DOC</t>
-  </si>
-  <si>
-    <t>III.1.3.2</t>
-  </si>
-  <si>
-    <t>LEFTI/TECHNICAL_PROFESSIONAL_INFO</t>
-  </si>
-  <si>
-    <t>III.1.3.3</t>
-  </si>
-  <si>
-    <t>Minimum level(s) of standards possibly required</t>
-  </si>
-  <si>
-    <t>LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
-  </si>
-  <si>
-    <t>III.1.4</t>
-  </si>
-  <si>
-    <t>Objective rules and criteria for participation</t>
-  </si>
-  <si>
-    <t>III.1.4.1</t>
-  </si>
-  <si>
-    <t>List and brief description of rules and criteria</t>
   </si>
   <si>
     <t>LEFTI/RULES_CRITERIA</t>
@@ -4556,7 +4819,7 @@
     <t>IV.1.3.1.1</t>
   </si>
   <si>
-    <t>Framework agreement with single operators</t>
+    <t>Framework agreement with single operator</t>
   </si>
   <si>
     <t>BT-778</t>
@@ -4580,7 +4843,7 @@
     <t>IV.1.3.1.3</t>
   </si>
   <si>
-    <t>Envisaged maximum number of participants to the framework</t>
+    <t>Envisaged maximum number of participants to the framework agreement</t>
   </si>
   <si>
     <t>BT-113</t>
@@ -4613,19 +4876,61 @@
     <t>PROCEDURE/DPS</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:DynamicPurchaseSystemTechniqueUsage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:usesTechnique ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.3.2.1</t>
+  </si>
+  <si>
+    <t>The dynamic purchasing system might be used by additional purchasers</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+  </si>
+  <si>
     <t>epo:DynamicPurchaseSystemTechniqueUsage / at-voc:dps-usage</t>
   </si>
   <si>
-    <t>?this epo:hasDPSScope ?value .</t>
-  </si>
-  <si>
-    <t>IV.1.3.2.1</t>
-  </si>
-  <si>
-    <t>The dynamic purchasing system might be used by additional purchasers</t>
-  </si>
-  <si>
-    <t>PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:hasDPSScope &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/dps-usage/dps-nlist</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>In the case of framework agreements, provide justification for any duration exceeding 8 years</t>
@@ -4716,6 +5021,12 @@
     <t>GPA Coverage</t>
   </si>
   <si>
+    <t>IV.1.8.1</t>
+  </si>
+  <si>
+    <t>The procurement is covered by the Government Procurement Agreement (yes)</t>
+  </si>
+  <si>
     <t>PROCEDURE/CONTRACT_COVERED_GPA</t>
   </si>
   <si>
@@ -4754,6 +5065,12 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>IV.1.8.2</t>
+  </si>
+  <si>
+    <t>The procurement is covered by the Government Procurement Agreement (no)</t>
   </si>
   <si>
     <t>PROCEDURE/NO_CONTRACT_COVERED_GPA</t>
@@ -5231,7 +5548,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5239,14 +5555,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
@@ -5254,14 +5568,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5279,7 +5591,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5287,14 +5598,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
@@ -5302,14 +5611,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5324,7 +5631,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5332,14 +5638,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -5347,14 +5651,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5527,7 +5829,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5535,14 +5836,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
@@ -5550,14 +5849,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5572,7 +5869,6 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5580,14 +5876,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
@@ -5595,14 +5889,12 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
-        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5822,6 +6114,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5829,12 +6122,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
@@ -5842,12 +6137,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -6540,7 +6837,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -6635,17 +6932,27 @@
     </font>
     <font>
       <b/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -6711,7 +7018,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6782,6 +7089,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -6881,7 +7194,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7171,10 +7484,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7189,13 +7499,28 @@
     <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7208,34 +7533,28 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="19" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -7246,13 +7565,10 @@
     <xf borderId="0" fillId="12" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7270,29 +7586,23 @@
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="5" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -7300,32 +7610,32 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7349,13 +7659,13 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7367,23 +7677,23 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -14436,10 +14746,10 @@
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="99" t="s">
+      <c r="A119" s="51" t="s">
         <v>493</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="52" t="s">
         <v>494</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -14448,44 +14758,42 @@
       <c r="D119" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="E119" s="40" t="s">
+      <c r="E119" s="35" t="s">
         <v>497</v>
       </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="35" t="s">
+      <c r="F119" s="36"/>
+      <c r="G119" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" s="97" t="s">
         <v>499</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="51" t="s">
-        <v>500</v>
-      </c>
-      <c r="B120" s="52" t="s">
-        <v>501</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>503</v>
+      <c r="A120" s="78" t="s">
+        <v>493</v>
+      </c>
+      <c r="B120" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="C120" s="99" t="s">
+        <v>495</v>
+      </c>
+      <c r="D120" s="99" t="s">
+        <v>496</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F120" s="47"/>
       <c r="G120" s="4" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H120" s="100" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -14493,26 +14801,26 @@
     </row>
     <row r="121">
       <c r="A121" s="69" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B121" s="70" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C121" s="57" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D121" s="57" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F121" s="47"/>
       <c r="G121" s="4" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H121" s="35" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I121" s="7" t="s">
         <v>71</v>
@@ -14522,26 +14830,26 @@
     </row>
     <row r="122">
       <c r="A122" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="B122" s="70" t="s">
+        <v>510</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="D122" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="E122" s="35" t="s">
         <v>513</v>
-      </c>
-      <c r="B122" s="70" t="s">
-        <v>514</v>
-      </c>
-      <c r="C122" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="D122" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="E122" s="35" t="s">
-        <v>515</v>
       </c>
       <c r="F122" s="47"/>
       <c r="G122" s="4" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H122" s="35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I122" s="7" t="s">
         <v>71</v>
@@ -14551,82 +14859,80 @@
     </row>
     <row r="123">
       <c r="A123" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="B123" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E123" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="B123" s="52" t="s">
+      <c r="F123" s="36"/>
+      <c r="G123" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="H123" s="97" t="s">
         <v>518</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E123" s="40" t="s">
-        <v>519</v>
-      </c>
-      <c r="F123" s="47"/>
-      <c r="G123" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H123" s="100" t="s">
-        <v>520</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="69" t="s">
-        <v>521</v>
-      </c>
-      <c r="B124" s="70" t="s">
-        <v>508</v>
-      </c>
-      <c r="C124" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>510</v>
-      </c>
-      <c r="E124" s="35" t="s">
-        <v>522</v>
+      <c r="A124" s="78" t="s">
+        <v>515</v>
+      </c>
+      <c r="B124" s="79" t="s">
+        <v>516</v>
+      </c>
+      <c r="C124" s="99" t="s">
+        <v>495</v>
+      </c>
+      <c r="D124" s="99" t="s">
+        <v>496</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>517</v>
       </c>
       <c r="F124" s="47"/>
       <c r="G124" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="H124" s="35" t="s">
-        <v>512</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="H124" s="100" t="s">
+        <v>519</v>
+      </c>
+      <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
       <c r="A125" s="69" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B125" s="70" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C125" s="57" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="D125" s="57" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F125" s="47"/>
       <c r="G125" s="4" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="H125" s="35" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I125" s="7" t="s">
         <v>71</v>
@@ -14635,155 +14941,165 @@
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="51" t="s">
-        <v>525</v>
-      </c>
-      <c r="B126" s="52" t="s">
-        <v>526</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="E126" s="93" t="s">
-        <v>527</v>
+      <c r="A126" s="69" t="s">
+        <v>522</v>
+      </c>
+      <c r="B126" s="70" t="s">
+        <v>510</v>
+      </c>
+      <c r="C126" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="D126" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="E126" s="72" t="s">
+        <v>523</v>
       </c>
       <c r="F126" s="57"/>
       <c r="G126" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H126" s="101" t="s">
-        <v>528</v>
-      </c>
-      <c r="I126" s="7"/>
+        <v>507</v>
+      </c>
+      <c r="H126" s="72" t="s">
+        <v>514</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="69" t="s">
-        <v>529</v>
-      </c>
-      <c r="B127" s="70" t="s">
-        <v>514</v>
-      </c>
-      <c r="C127" s="57" t="s">
+      <c r="A127" s="51" t="s">
+        <v>524</v>
+      </c>
+      <c r="B127" s="52" t="s">
+        <v>525</v>
+      </c>
+      <c r="C127" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D127" s="57" t="s">
+      <c r="D127" s="7" t="s">
         <v>496</v>
       </c>
       <c r="E127" s="72" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F127" s="56"/>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="36" t="s">
         <v>498</v>
       </c>
-      <c r="H127" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="H127" s="97" t="s">
+        <v>527</v>
+      </c>
+      <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="102" t="s">
-        <v>531</v>
-      </c>
-      <c r="B128" s="103" t="s">
-        <v>532</v>
-      </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="104" t="s">
-        <v>533</v>
-      </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
+      <c r="A128" s="78" t="s">
+        <v>524</v>
+      </c>
+      <c r="B128" s="79" t="s">
+        <v>525</v>
+      </c>
+      <c r="C128" s="99" t="s">
+        <v>495</v>
+      </c>
+      <c r="D128" s="99" t="s">
+        <v>496</v>
+      </c>
+      <c r="E128" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="F128" s="47"/>
+      <c r="G128" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H128" s="100" t="s">
+        <v>528</v>
+      </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="45" t="s">
-        <v>534</v>
-      </c>
-      <c r="B129" s="46" t="s">
-        <v>535</v>
-      </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="7"/>
+      <c r="A129" s="69" t="s">
+        <v>529</v>
+      </c>
+      <c r="B129" s="70" t="s">
+        <v>510</v>
+      </c>
+      <c r="C129" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="D129" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="E129" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="F129" s="36"/>
+      <c r="G129" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="H129" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="51" t="s">
-        <v>536</v>
-      </c>
-      <c r="B130" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>538</v>
+      <c r="A130" s="101" t="s">
+        <v>531</v>
+      </c>
+      <c r="B130" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="103" t="s">
+        <v>533</v>
       </c>
       <c r="F130" s="4"/>
-      <c r="G130" s="77" t="s">
-        <v>539</v>
-      </c>
-      <c r="H130" s="61" t="s">
-        <v>540</v>
+      <c r="G130" s="104" t="s">
+        <v>498</v>
+      </c>
+      <c r="H130" s="105" t="s">
+        <v>534</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="51" t="s">
-        <v>541</v>
-      </c>
-      <c r="B131" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="A131" s="101" t="s">
+        <v>531</v>
+      </c>
+      <c r="B131" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="C131" s="7"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="7" t="s">
-        <v>542</v>
+      <c r="E131" s="106" t="s">
+        <v>533</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="82" t="s">
-        <v>543</v>
-      </c>
-      <c r="H131" s="82" t="s">
-        <v>544</v>
-      </c>
+      <c r="G131" s="107"/>
+      <c r="H131" s="107"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="45" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="B132" s="46" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -14797,449 +15113,439 @@
     </row>
     <row r="133">
       <c r="A133" s="51" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B133" s="52" t="s">
-        <v>548</v>
-      </c>
-      <c r="C133" s="105" t="s">
-        <v>549</v>
+        <v>402</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>550</v>
+        <v>404</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="F133" s="4"/>
-      <c r="G133" s="35" t="s">
-        <v>552</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>553</v>
+      <c r="G133" s="77" t="s">
+        <v>540</v>
+      </c>
+      <c r="H133" s="61" t="s">
+        <v>541</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="105"/>
+      <c r="A134" s="51" t="s">
+        <v>542</v>
+      </c>
+      <c r="B134" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="D134" s="7"/>
       <c r="E134" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="G134" s="35" t="s">
-        <v>557</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>558</v>
+        <v>543</v>
+      </c>
+      <c r="F134" s="4"/>
+      <c r="G134" s="61" t="s">
+        <v>544</v>
+      </c>
+      <c r="H134" s="61" t="s">
+        <v>545</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="69" t="s">
-        <v>559</v>
-      </c>
-      <c r="B135" s="70"/>
-      <c r="C135" s="105"/>
+      <c r="A135" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="B135" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="C135" s="7"/>
       <c r="D135" s="7"/>
-      <c r="E135" s="40" t="s">
-        <v>555</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="G135" s="35" t="s">
-        <v>557</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>561</v>
-      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="51" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="B136" s="52" t="s">
-        <v>563</v>
-      </c>
-      <c r="C136" s="105" t="s">
-        <v>564</v>
+        <v>549</v>
+      </c>
+      <c r="C136" s="108" t="s">
+        <v>550</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F136" s="4"/>
       <c r="G136" s="35" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="51" t="s">
-        <v>569</v>
-      </c>
-      <c r="B137" s="52" t="s">
-        <v>570</v>
-      </c>
-      <c r="C137" s="105" t="s">
-        <v>571</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>572</v>
-      </c>
+      <c r="A137" s="69" t="s">
+        <v>555</v>
+      </c>
+      <c r="B137" s="70"/>
+      <c r="C137" s="108"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F137" s="4"/>
+        <v>556</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>557</v>
+      </c>
       <c r="G137" s="35" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="102" t="s">
-        <v>575</v>
-      </c>
-      <c r="B138" s="103" t="s">
-        <v>576</v>
-      </c>
-      <c r="C138" s="106" t="s">
-        <v>577</v>
-      </c>
-      <c r="D138" s="106" t="s">
-        <v>578</v>
-      </c>
-      <c r="E138" s="107" t="s">
-        <v>579</v>
-      </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="108" t="s">
-        <v>580</v>
-      </c>
-      <c r="H138" s="108" t="s">
-        <v>581</v>
+      <c r="A138" s="69" t="s">
+        <v>560</v>
+      </c>
+      <c r="B138" s="70"/>
+      <c r="C138" s="108"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="G138" s="35" t="s">
+        <v>558</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>562</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="102" t="s">
-        <v>575</v>
-      </c>
-      <c r="B139" s="103" t="s">
-        <v>576</v>
-      </c>
-      <c r="C139" s="106" t="s">
-        <v>577</v>
-      </c>
-      <c r="D139" s="106" t="s">
-        <v>578</v>
-      </c>
-      <c r="E139" s="107" t="s">
-        <v>582</v>
+      <c r="A139" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="B139" s="52" t="s">
+        <v>564</v>
+      </c>
+      <c r="C139" s="108" t="s">
+        <v>565</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>567</v>
       </c>
       <c r="F139" s="4"/>
-      <c r="G139" s="108" t="s">
-        <v>580</v>
-      </c>
-      <c r="H139" s="108" t="s">
-        <v>581</v>
+      <c r="G139" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="102" t="s">
-        <v>583</v>
-      </c>
-      <c r="B140" s="103" t="s">
-        <v>584</v>
-      </c>
-      <c r="C140" s="106" t="s">
-        <v>585</v>
-      </c>
-      <c r="D140" s="106" t="s">
-        <v>586</v>
-      </c>
-      <c r="E140" s="107" t="s">
-        <v>587</v>
+      <c r="A140" s="51" t="s">
+        <v>570</v>
+      </c>
+      <c r="B140" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="C140" s="108" t="s">
+        <v>572</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>574</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="G140" s="108" t="s">
-        <v>588</v>
-      </c>
-      <c r="H140" s="108" t="s">
-        <v>589</v>
+      <c r="G140" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="109" t="s">
-        <v>590</v>
-      </c>
-      <c r="B141" s="110" t="s">
-        <v>591</v>
-      </c>
-      <c r="C141" s="36"/>
-      <c r="D141" s="56"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="36"/>
-      <c r="G141" s="36"/>
-      <c r="H141" s="36"/>
+      <c r="A141" s="101" t="s">
+        <v>576</v>
+      </c>
+      <c r="B141" s="102" t="s">
+        <v>577</v>
+      </c>
+      <c r="C141" s="109" t="s">
+        <v>578</v>
+      </c>
+      <c r="D141" s="110" t="s">
+        <v>579</v>
+      </c>
+      <c r="E141" s="104" t="s">
+        <v>580</v>
+      </c>
+      <c r="F141" s="4"/>
+      <c r="G141" s="111" t="s">
+        <v>581</v>
+      </c>
+      <c r="H141" s="111" t="s">
+        <v>582</v>
+      </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="102" t="s">
-        <v>592</v>
-      </c>
-      <c r="B142" s="103" t="s">
-        <v>593</v>
-      </c>
-      <c r="C142" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="D142" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="E142" s="111" t="s">
-        <v>596</v>
-      </c>
-      <c r="F142" s="56"/>
-      <c r="G142" s="36" t="s">
-        <v>597</v>
-      </c>
-      <c r="H142" s="36" t="s">
-        <v>598</v>
+      <c r="A142" s="101" t="s">
+        <v>576</v>
+      </c>
+      <c r="B142" s="102" t="s">
+        <v>577</v>
+      </c>
+      <c r="C142" s="110" t="s">
+        <v>578</v>
+      </c>
+      <c r="D142" s="110" t="s">
+        <v>579</v>
+      </c>
+      <c r="E142" s="104" t="s">
+        <v>583</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="111" t="s">
+        <v>581</v>
+      </c>
+      <c r="H142" s="111" t="s">
+        <v>584</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="102" t="s">
-        <v>592</v>
-      </c>
-      <c r="B143" s="103" t="s">
-        <v>593</v>
-      </c>
-      <c r="C143" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="D143" s="56" t="s">
-        <v>595</v>
-      </c>
-      <c r="E143" s="111" t="s">
-        <v>599</v>
-      </c>
-      <c r="F143" s="36"/>
-      <c r="G143" s="36" t="s">
-        <v>597</v>
-      </c>
-      <c r="H143" s="36" t="s">
-        <v>598</v>
+      <c r="A143" s="101" t="s">
+        <v>585</v>
+      </c>
+      <c r="B143" s="102" t="s">
+        <v>586</v>
+      </c>
+      <c r="C143" s="112" t="s">
+        <v>587</v>
+      </c>
+      <c r="D143" s="112" t="s">
+        <v>588</v>
+      </c>
+      <c r="E143" s="104" t="s">
+        <v>589</v>
+      </c>
+      <c r="F143" s="4"/>
+      <c r="G143" s="111" t="s">
+        <v>590</v>
+      </c>
+      <c r="H143" s="111" t="s">
+        <v>591</v>
       </c>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="45" t="s">
-        <v>600</v>
-      </c>
-      <c r="B144" s="46" t="s">
-        <v>601</v>
-      </c>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="35"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="36"/>
+      <c r="A144" s="113" t="s">
+        <v>592</v>
+      </c>
+      <c r="B144" s="114" t="s">
+        <v>593</v>
+      </c>
+      <c r="C144" s="115"/>
+      <c r="D144" s="115"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="104"/>
+      <c r="G144" s="104"/>
       <c r="H144" s="36"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="51" t="s">
-        <v>602</v>
-      </c>
-      <c r="B145" s="52" t="s">
-        <v>603</v>
-      </c>
-      <c r="C145" s="57" t="s">
-        <v>604</v>
-      </c>
-      <c r="D145" s="57" t="s">
-        <v>603</v>
-      </c>
-      <c r="E145" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="F145" s="35"/>
-      <c r="G145" s="36" t="s">
-        <v>606</v>
-      </c>
-      <c r="H145" s="97" t="s">
-        <v>607</v>
+      <c r="A145" s="101" t="s">
+        <v>594</v>
+      </c>
+      <c r="B145" s="102" t="s">
+        <v>595</v>
+      </c>
+      <c r="C145" s="115" t="s">
+        <v>596</v>
+      </c>
+      <c r="D145" s="115" t="s">
+        <v>597</v>
+      </c>
+      <c r="E145" s="104" t="s">
+        <v>598</v>
+      </c>
+      <c r="F145" s="104"/>
+      <c r="G145" s="104" t="s">
+        <v>599</v>
+      </c>
+      <c r="H145" s="116" t="s">
+        <v>600</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="78" t="s">
+      <c r="A146" s="101" t="s">
+        <v>594</v>
+      </c>
+      <c r="B146" s="102" t="s">
+        <v>595</v>
+      </c>
+      <c r="C146" s="115" t="s">
+        <v>596</v>
+      </c>
+      <c r="D146" s="115" t="s">
+        <v>597</v>
+      </c>
+      <c r="E146" s="104" t="s">
+        <v>601</v>
+      </c>
+      <c r="F146" s="104"/>
+      <c r="G146" s="104" t="s">
+        <v>599</v>
+      </c>
+      <c r="H146" s="116" t="s">
         <v>602</v>
-      </c>
-      <c r="B146" s="79" t="s">
-        <v>603</v>
-      </c>
-      <c r="C146" s="112" t="s">
-        <v>604</v>
-      </c>
-      <c r="D146" s="112" t="s">
-        <v>603</v>
-      </c>
-      <c r="E146" s="47" t="s">
-        <v>608</v>
-      </c>
-      <c r="F146" s="35"/>
-      <c r="G146" s="36" t="s">
-        <v>606</v>
-      </c>
-      <c r="H146" s="47" t="s">
-        <v>609</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="51" t="s">
-        <v>610</v>
-      </c>
-      <c r="B147" s="52" t="s">
-        <v>611</v>
-      </c>
-      <c r="C147" s="57" t="s">
-        <v>612</v>
-      </c>
-      <c r="D147" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="E147" s="47" t="s">
-        <v>614</v>
-      </c>
+      <c r="A147" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="B147" s="46" t="s">
+        <v>604</v>
+      </c>
+      <c r="C147" s="57"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="35"/>
       <c r="F147" s="47"/>
-      <c r="G147" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="H147" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="45" t="s">
-        <v>616</v>
-      </c>
-      <c r="B148" s="46" t="s">
-        <v>617</v>
-      </c>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
+      <c r="A148" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="B148" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="C148" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="D148" s="57" t="s">
+        <v>606</v>
+      </c>
+      <c r="E148" s="47"/>
+      <c r="F148" s="35"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="51" t="s">
-        <v>618</v>
-      </c>
-      <c r="B149" s="52" t="s">
-        <v>619</v>
+      <c r="A149" s="69" t="s">
+        <v>608</v>
+      </c>
+      <c r="B149" s="70" t="s">
+        <v>609</v>
       </c>
       <c r="C149" s="57" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="D149" s="57" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="E149" s="47" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="F149" s="35"/>
-      <c r="G149" s="47" t="s">
-        <v>623</v>
-      </c>
-      <c r="H149" s="113" t="s">
-        <v>624</v>
+      <c r="G149" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="H149" s="97" t="s">
+        <v>611</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="64" t="s">
-        <v>618</v>
-      </c>
-      <c r="B150" s="65" t="s">
-        <v>619</v>
-      </c>
-      <c r="C150" s="114" t="s">
-        <v>620</v>
-      </c>
-      <c r="D150" s="115" t="s">
-        <v>621</v>
+      <c r="A150" s="69" t="s">
+        <v>612</v>
+      </c>
+      <c r="B150" s="70" t="s">
+        <v>613</v>
+      </c>
+      <c r="C150" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="D150" s="56" t="s">
+        <v>606</v>
       </c>
       <c r="E150" s="47" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F150" s="35"/>
-      <c r="G150" s="47" t="s">
-        <v>623</v>
-      </c>
-      <c r="H150" s="113" t="s">
-        <v>626</v>
+      <c r="G150" s="36" t="s">
+        <v>581</v>
+      </c>
+      <c r="H150" s="47" t="s">
+        <v>615</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -15247,26 +15553,26 @@
     </row>
     <row r="151">
       <c r="A151" s="51" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="B151" s="52" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C151" s="57" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D151" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E151" s="40" t="s">
-        <v>622</v>
+        <v>619</v>
+      </c>
+      <c r="E151" s="47" t="s">
+        <v>620</v>
       </c>
       <c r="F151" s="47"/>
       <c r="G151" s="47" t="s">
-        <v>631</v>
-      </c>
-      <c r="H151" s="113" t="s">
-        <v>632</v>
+        <v>590</v>
+      </c>
+      <c r="H151" s="47" t="s">
+        <v>621</v>
       </c>
       <c r="I151" s="7" t="s">
         <v>71</v>
@@ -15276,522 +15582,576 @@
     </row>
     <row r="152">
       <c r="A152" s="45" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="B152" s="46" t="s">
-        <v>634</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>637</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="4"/>
       <c r="F152" s="4"/>
-      <c r="G152" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="H152" s="116" t="s">
-        <v>638</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="38" t="s">
-        <v>639</v>
-      </c>
-      <c r="B153" s="39" t="s">
-        <v>640</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="35" t="s">
-        <v>643</v>
-      </c>
-      <c r="H153" s="4" t="s">
-        <v>644</v>
-      </c>
+      <c r="A153" s="51" t="s">
+        <v>624</v>
+      </c>
+      <c r="B153" s="52" t="s">
+        <v>625</v>
+      </c>
+      <c r="C153" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="D153" s="57" t="s">
+        <v>627</v>
+      </c>
+      <c r="E153" s="47"/>
+      <c r="F153" s="35"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="36"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-      <c r="K153" s="7" t="s">
-        <v>645</v>
-      </c>
+      <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="33" t="s">
-        <v>646</v>
-      </c>
-      <c r="B154" s="89" t="s">
-        <v>647</v>
-      </c>
-      <c r="C154" s="56"/>
-      <c r="D154" s="56"/>
-      <c r="E154" s="47"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
+      <c r="A154" s="69" t="s">
+        <v>628</v>
+      </c>
+      <c r="B154" s="70" t="s">
+        <v>629</v>
+      </c>
+      <c r="C154" s="57" t="s">
+        <v>626</v>
+      </c>
+      <c r="D154" s="57" t="s">
+        <v>627</v>
+      </c>
+      <c r="E154" s="47" t="s">
+        <v>630</v>
+      </c>
+      <c r="F154" s="35"/>
+      <c r="G154" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="H154" s="117" t="s">
+        <v>632</v>
+      </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="38" t="s">
-        <v>648</v>
-      </c>
-      <c r="B155" s="39" t="s">
-        <v>649</v>
-      </c>
-      <c r="C155" s="56"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="47"/>
-      <c r="F155" s="36"/>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
+      <c r="A155" s="69" t="s">
+        <v>633</v>
+      </c>
+      <c r="B155" s="70" t="s">
+        <v>634</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E155" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="F155" s="35"/>
+      <c r="G155" s="47" t="s">
+        <v>631</v>
+      </c>
+      <c r="H155" s="117" t="s">
+        <v>636</v>
+      </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="109" t="s">
+      <c r="A156" s="51" t="s">
+        <v>637</v>
+      </c>
+      <c r="B156" s="52" t="s">
+        <v>638</v>
+      </c>
+      <c r="C156" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="D156" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="E156" s="93" t="s">
+        <v>630</v>
+      </c>
+      <c r="F156" s="57"/>
+      <c r="G156" s="47" t="s">
+        <v>641</v>
+      </c>
+      <c r="H156" s="117" t="s">
+        <v>642</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="45" t="s">
+        <v>643</v>
+      </c>
+      <c r="B157" s="46" t="s">
+        <v>644</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H157" s="118" t="s">
+        <v>648</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="B158" s="39" t="s">
         <v>650</v>
       </c>
-      <c r="B156" s="110" t="s">
+      <c r="C158" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="C156" s="56"/>
-      <c r="D156" s="56"/>
-      <c r="E156" s="117"/>
-      <c r="F156" s="56"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
-      <c r="I156" s="56"/>
-      <c r="J156" s="56"/>
-      <c r="K156" s="56"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="102" t="s">
+      <c r="D158" s="7"/>
+      <c r="E158" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="B157" s="103" t="s">
+      <c r="F158" s="4"/>
+      <c r="G158" s="35" t="s">
         <v>653</v>
       </c>
-      <c r="C157" s="118" t="s">
+      <c r="H158" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="D157" s="106" t="s">
-        <v>655</v>
-      </c>
-      <c r="E157" s="107" t="s">
-        <v>656</v>
-      </c>
-      <c r="F157" s="36"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
-      <c r="I157" s="56"/>
-      <c r="J157" s="56"/>
-      <c r="K157" s="56"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="109" t="s">
-        <v>657</v>
-      </c>
-      <c r="B158" s="110" t="s">
-        <v>658</v>
-      </c>
-      <c r="C158" s="118"/>
-      <c r="D158" s="118"/>
-      <c r="E158" s="107"/>
-      <c r="F158" s="107"/>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
-      <c r="K158" s="7"/>
+      <c r="K158" s="7" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="102" t="s">
-        <v>659</v>
-      </c>
-      <c r="B159" s="103" t="s">
-        <v>660</v>
-      </c>
-      <c r="C159" s="118" t="s">
-        <v>661</v>
-      </c>
-      <c r="D159" s="118" t="s">
-        <v>662</v>
-      </c>
-      <c r="E159" s="107" t="s">
-        <v>663</v>
-      </c>
-      <c r="F159" s="107"/>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
+      <c r="A159" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="B159" s="89" t="s">
+        <v>657</v>
+      </c>
+      <c r="C159" s="56"/>
+      <c r="D159" s="56"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="47"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="102" t="s">
-        <v>664</v>
-      </c>
-      <c r="B160" s="103" t="s">
-        <v>665</v>
-      </c>
-      <c r="C160" s="118" t="s">
-        <v>654</v>
-      </c>
-      <c r="D160" s="106" t="s">
-        <v>655</v>
-      </c>
-      <c r="E160" s="107" t="s">
-        <v>666</v>
-      </c>
-      <c r="F160" s="107"/>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
+      <c r="A160" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="B160" s="39" t="s">
+        <v>659</v>
+      </c>
+      <c r="C160" s="56"/>
+      <c r="D160" s="56"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="47"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="102" t="s">
+      <c r="A161" s="113" t="s">
+        <v>660</v>
+      </c>
+      <c r="B161" s="114" t="s">
+        <v>661</v>
+      </c>
+      <c r="C161" s="56"/>
+      <c r="D161" s="56"/>
+      <c r="E161" s="104" t="s">
+        <v>662</v>
+      </c>
+      <c r="F161" s="36"/>
+      <c r="G161" s="104" t="s">
+        <v>663</v>
+      </c>
+      <c r="H161" s="116" t="s">
+        <v>664</v>
+      </c>
+      <c r="I161" s="56"/>
+      <c r="J161" s="56"/>
+      <c r="K161" s="56"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="101" t="s">
+        <v>665</v>
+      </c>
+      <c r="B162" s="102" t="s">
+        <v>666</v>
+      </c>
+      <c r="C162" s="115" t="s">
         <v>667</v>
       </c>
-      <c r="B161" s="103" t="s">
+      <c r="D162" s="112" t="s">
         <v>668</v>
       </c>
-      <c r="C161" s="118" t="s">
-        <v>654</v>
-      </c>
-      <c r="D161" s="106" t="s">
-        <v>655</v>
-      </c>
-      <c r="E161" s="107" t="s">
+      <c r="E162" s="104" t="s">
         <v>669</v>
       </c>
-      <c r="F161" s="107"/>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="109" t="s">
+      <c r="F162" s="36"/>
+      <c r="G162" s="104" t="s">
         <v>670</v>
       </c>
-      <c r="B162" s="110" t="s">
+      <c r="H162" s="104" t="s">
         <v>671</v>
       </c>
-      <c r="C162" s="56"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="47"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="47"/>
-      <c r="H162" s="47"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
+      <c r="I162" s="56"/>
+      <c r="J162" s="56"/>
+      <c r="K162" s="56"/>
     </row>
     <row r="163">
-      <c r="A163" s="102" t="s">
+      <c r="A163" s="113" t="s">
         <v>672</v>
       </c>
-      <c r="B163" s="103" t="s">
-        <v>660</v>
-      </c>
-      <c r="C163" s="118" t="s">
-        <v>661</v>
-      </c>
-      <c r="D163" s="118" t="s">
-        <v>662</v>
-      </c>
-      <c r="E163" s="118" t="s">
+      <c r="B163" s="114" t="s">
         <v>673</v>
       </c>
+      <c r="C163" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="D163" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="E163" s="115" t="s">
+        <v>676</v>
+      </c>
       <c r="F163" s="56"/>
-      <c r="G163" s="57"/>
-      <c r="H163" s="57"/>
+      <c r="G163" s="115" t="s">
+        <v>663</v>
+      </c>
+      <c r="H163" s="119" t="s">
+        <v>677</v>
+      </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="102" t="s">
-        <v>674</v>
-      </c>
-      <c r="B164" s="103" t="s">
-        <v>665</v>
-      </c>
-      <c r="C164" s="118" t="s">
-        <v>654</v>
-      </c>
-      <c r="D164" s="106" t="s">
-        <v>655</v>
-      </c>
-      <c r="E164" s="107" t="s">
-        <v>675</v>
+      <c r="A164" s="101" t="s">
+        <v>678</v>
+      </c>
+      <c r="B164" s="102" t="s">
+        <v>679</v>
+      </c>
+      <c r="C164" s="107"/>
+      <c r="D164" s="107"/>
+      <c r="E164" s="104" t="s">
+        <v>680</v>
       </c>
       <c r="F164" s="36"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="47"/>
+      <c r="G164" s="109"/>
+      <c r="H164" s="109"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7"/>
     </row>
     <row r="165">
-      <c r="A165" s="102" t="s">
-        <v>676</v>
-      </c>
-      <c r="B165" s="103" t="s">
-        <v>677</v>
-      </c>
-      <c r="C165" s="118" t="s">
-        <v>654</v>
-      </c>
-      <c r="D165" s="106" t="s">
-        <v>655</v>
-      </c>
-      <c r="E165" s="118" t="s">
-        <v>678</v>
+      <c r="A165" s="101" t="s">
+        <v>681</v>
+      </c>
+      <c r="B165" s="102" t="s">
+        <v>682</v>
+      </c>
+      <c r="C165" s="115" t="s">
+        <v>667</v>
+      </c>
+      <c r="D165" s="112" t="s">
+        <v>668</v>
+      </c>
+      <c r="E165" s="115" t="s">
+        <v>683</v>
       </c>
       <c r="F165" s="56"/>
-      <c r="G165" s="57"/>
-      <c r="H165" s="57"/>
+      <c r="G165" s="115" t="s">
+        <v>670</v>
+      </c>
+      <c r="H165" s="115" t="s">
+        <v>671</v>
+      </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="45" t="s">
-        <v>679</v>
-      </c>
-      <c r="B166" s="46" t="s">
-        <v>680</v>
-      </c>
-      <c r="C166" s="36"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="47"/>
+      <c r="A166" s="101" t="s">
+        <v>684</v>
+      </c>
+      <c r="B166" s="102" t="s">
+        <v>685</v>
+      </c>
+      <c r="C166" s="109" t="s">
+        <v>667</v>
+      </c>
+      <c r="D166" s="109" t="s">
+        <v>668</v>
+      </c>
+      <c r="E166" s="104" t="s">
+        <v>686</v>
+      </c>
       <c r="F166" s="36"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="47"/>
+      <c r="G166" s="109" t="s">
+        <v>687</v>
+      </c>
+      <c r="H166" s="109" t="s">
+        <v>688</v>
+      </c>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="B167" s="52" t="s">
-        <v>682</v>
-      </c>
-      <c r="C167" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="D167" s="56"/>
-      <c r="E167" s="47" t="s">
-        <v>683</v>
+      <c r="A167" s="113" t="s">
+        <v>689</v>
+      </c>
+      <c r="B167" s="114" t="s">
+        <v>690</v>
+      </c>
+      <c r="C167" s="115" t="s">
+        <v>674</v>
+      </c>
+      <c r="D167" s="115" t="s">
+        <v>675</v>
+      </c>
+      <c r="E167" s="104" t="s">
+        <v>691</v>
       </c>
       <c r="F167" s="36"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="G167" s="104" t="s">
+        <v>663</v>
+      </c>
+      <c r="H167" s="116" t="s">
+        <v>692</v>
+      </c>
+      <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-      <c r="K167" s="7" t="s">
-        <v>684</v>
-      </c>
+      <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="45" t="s">
-        <v>685</v>
-      </c>
-      <c r="B168" s="46" t="s">
-        <v>686</v>
-      </c>
-      <c r="C168" s="56"/>
-      <c r="D168" s="56"/>
-      <c r="E168" s="119"/>
-      <c r="F168" s="120"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="47"/>
+      <c r="A168" s="101" t="s">
+        <v>693</v>
+      </c>
+      <c r="B168" s="102" t="s">
+        <v>679</v>
+      </c>
+      <c r="C168" s="107"/>
+      <c r="D168" s="107"/>
+      <c r="E168" s="120" t="s">
+        <v>694</v>
+      </c>
+      <c r="F168" s="121"/>
+      <c r="G168" s="109"/>
+      <c r="H168" s="109"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
       <c r="K168" s="7"/>
     </row>
     <row r="169">
-      <c r="A169" s="51" t="s">
-        <v>687</v>
-      </c>
-      <c r="B169" s="52" t="s">
-        <v>688</v>
-      </c>
-      <c r="C169" s="56" t="s">
-        <v>689</v>
-      </c>
-      <c r="D169" s="57"/>
-      <c r="E169" s="119" t="s">
-        <v>690</v>
-      </c>
-      <c r="F169" s="120"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="47"/>
+      <c r="A169" s="101" t="s">
+        <v>695</v>
+      </c>
+      <c r="B169" s="102" t="s">
+        <v>682</v>
+      </c>
+      <c r="C169" s="115" t="s">
+        <v>667</v>
+      </c>
+      <c r="D169" s="112" t="s">
+        <v>668</v>
+      </c>
+      <c r="E169" s="120" t="s">
+        <v>696</v>
+      </c>
+      <c r="F169" s="121"/>
+      <c r="G169" s="104" t="s">
+        <v>670</v>
+      </c>
+      <c r="H169" s="104" t="s">
+        <v>671</v>
+      </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
-      <c r="K169" s="7" t="s">
-        <v>684</v>
-      </c>
+      <c r="K169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="51" t="s">
-        <v>691</v>
-      </c>
-      <c r="B170" s="52" t="s">
-        <v>692</v>
-      </c>
-      <c r="C170" s="56" t="s">
-        <v>693</v>
-      </c>
-      <c r="D170" s="56"/>
-      <c r="E170" s="119" t="s">
-        <v>694</v>
-      </c>
-      <c r="F170" s="120"/>
-      <c r="G170" s="57"/>
-      <c r="H170" s="57"/>
+      <c r="A170" s="101" t="s">
+        <v>697</v>
+      </c>
+      <c r="B170" s="102" t="s">
+        <v>698</v>
+      </c>
+      <c r="C170" s="110" t="s">
+        <v>667</v>
+      </c>
+      <c r="D170" s="110" t="s">
+        <v>668</v>
+      </c>
+      <c r="E170" s="120" t="s">
+        <v>699</v>
+      </c>
+      <c r="F170" s="121"/>
+      <c r="G170" s="110" t="s">
+        <v>687</v>
+      </c>
+      <c r="H170" s="110" t="s">
+        <v>688</v>
+      </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
-      <c r="K170" s="7" t="s">
-        <v>684</v>
-      </c>
+      <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="38" t="s">
-        <v>695</v>
-      </c>
-      <c r="B171" s="39" t="s">
-        <v>696</v>
-      </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
+      <c r="A171" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="B171" s="46" t="s">
+        <v>701</v>
+      </c>
+      <c r="C171" s="56"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="122"/>
+      <c r="F171" s="121"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="47"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
       <c r="K171" s="7"/>
     </row>
     <row r="172">
-      <c r="A172" s="45" t="s">
-        <v>697</v>
-      </c>
-      <c r="B172" s="46" t="s">
-        <v>698</v>
-      </c>
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="7"/>
+      <c r="A172" s="51" t="s">
+        <v>702</v>
+      </c>
+      <c r="B172" s="52" t="s">
+        <v>703</v>
+      </c>
+      <c r="C172" s="56" t="s">
+        <v>704</v>
+      </c>
+      <c r="D172" s="56"/>
+      <c r="E172" s="122" t="s">
+        <v>705</v>
+      </c>
+      <c r="F172" s="121"/>
+      <c r="G172" s="57"/>
       <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
+      <c r="I172" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
+      <c r="K172" s="7" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="51" t="s">
-        <v>699</v>
-      </c>
-      <c r="B173" s="52" t="s">
-        <v>700</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="D173" s="7"/>
-      <c r="E173" s="18" t="s">
-        <v>701</v>
-      </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
+      <c r="A173" s="45" t="s">
+        <v>707</v>
+      </c>
+      <c r="B173" s="46" t="s">
+        <v>708</v>
+      </c>
+      <c r="C173" s="56"/>
+      <c r="D173" s="56"/>
+      <c r="E173" s="122"/>
+      <c r="F173" s="121"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="47"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-      <c r="K173" s="7" t="s">
-        <v>684</v>
-      </c>
+      <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="102" t="s">
-        <v>702</v>
+      <c r="A174" s="51" t="s">
+        <v>709</v>
       </c>
       <c r="B174" s="52" t="s">
-        <v>703</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="D174" s="7"/>
-      <c r="E174" s="18" t="s">
-        <v>705</v>
-      </c>
-      <c r="F174" s="18"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="C174" s="56" t="s">
+        <v>711</v>
+      </c>
+      <c r="D174" s="57"/>
+      <c r="E174" s="122" t="s">
+        <v>712</v>
+      </c>
+      <c r="F174" s="121"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="47"/>
+      <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="45" t="s">
-        <v>706</v>
-      </c>
-      <c r="B175" s="46" t="s">
-        <v>707</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="D175" s="7"/>
-      <c r="E175" s="18" t="s">
-        <v>709</v>
-      </c>
-      <c r="F175" s="18"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
+      <c r="A175" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="B175" s="52" t="s">
+        <v>714</v>
+      </c>
+      <c r="C175" s="56" t="s">
+        <v>715</v>
+      </c>
+      <c r="D175" s="56"/>
+      <c r="E175" s="122" t="s">
+        <v>716</v>
+      </c>
+      <c r="F175" s="121"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="47"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="45" t="s">
-        <v>710</v>
-      </c>
-      <c r="B176" s="46" t="s">
-        <v>711</v>
+      <c r="A176" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="B176" s="39" t="s">
+        <v>718</v>
       </c>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
@@ -15804,403 +16164,381 @@
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="51" t="s">
-        <v>712</v>
-      </c>
-      <c r="B177" s="52" t="s">
-        <v>713</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>714</v>
-      </c>
+      <c r="A177" s="45" t="s">
+        <v>719</v>
+      </c>
+      <c r="B177" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="C177" s="7"/>
       <c r="D177" s="7"/>
-      <c r="E177" s="18" t="s">
-        <v>715</v>
-      </c>
+      <c r="E177" s="18"/>
       <c r="F177" s="18"/>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-      <c r="K177" s="7" t="s">
-        <v>684</v>
-      </c>
+      <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="B178" s="89" t="s">
-        <v>717</v>
-      </c>
-      <c r="C178" s="7"/>
+      <c r="A178" s="51" t="s">
+        <v>721</v>
+      </c>
+      <c r="B178" s="52" t="s">
+        <v>722</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>674</v>
+      </c>
       <c r="D178" s="7"/>
-      <c r="E178" s="84" t="s">
-        <v>718</v>
+      <c r="E178" s="18" t="s">
+        <v>723</v>
       </c>
       <c r="F178" s="18"/>
-      <c r="G178" s="61"/>
-      <c r="H178" s="61"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
-      <c r="K178" s="7"/>
+      <c r="K178" s="7" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="179">
-      <c r="A179" s="38" t="s">
-        <v>719</v>
-      </c>
-      <c r="B179" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="4"/>
+      <c r="A179" s="101" t="s">
+        <v>724</v>
+      </c>
+      <c r="B179" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>726</v>
+      </c>
       <c r="D179" s="7"/>
-      <c r="E179" s="18"/>
+      <c r="E179" s="18" t="s">
+        <v>727</v>
+      </c>
       <c r="F179" s="18"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
-      <c r="I179" s="7"/>
+      <c r="I179" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J179" s="7"/>
-      <c r="K179" s="7"/>
+      <c r="K179" s="7" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="45" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="B180" s="46" t="s">
-        <v>721</v>
-      </c>
-      <c r="C180" s="7"/>
+        <v>729</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>730</v>
+      </c>
       <c r="D180" s="7"/>
-      <c r="E180" s="4"/>
+      <c r="E180" s="4" t="s">
+        <v>731</v>
+      </c>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
+      <c r="K180" s="7" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="181">
-      <c r="A181" s="51" t="s">
-        <v>722</v>
-      </c>
-      <c r="B181" s="52" t="s">
-        <v>723</v>
-      </c>
-      <c r="C181" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="D181" s="56" t="s">
-        <v>725</v>
-      </c>
-      <c r="E181" s="47" t="s">
-        <v>726</v>
-      </c>
-      <c r="F181" s="47"/>
-      <c r="G181" s="36" t="s">
-        <v>727</v>
-      </c>
-      <c r="H181" s="97" t="s">
-        <v>728</v>
-      </c>
+      <c r="A181" s="45" t="s">
+        <v>732</v>
+      </c>
+      <c r="B181" s="46" t="s">
+        <v>733</v>
+      </c>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182">
       <c r="A182" s="51" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>730</v>
-      </c>
-      <c r="C182" s="56" t="s">
-        <v>724</v>
-      </c>
-      <c r="D182" s="56" t="s">
-        <v>725</v>
-      </c>
-      <c r="E182" s="61" t="s">
-        <v>731</v>
-      </c>
-      <c r="F182" s="61"/>
-      <c r="G182" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="H182" s="61" t="s">
-        <v>732</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
+      <c r="K182" s="7" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="183">
-      <c r="A183" s="45" t="s">
-        <v>733</v>
-      </c>
-      <c r="B183" s="46" t="s">
-        <v>734</v>
-      </c>
-      <c r="C183" s="121" t="s">
-        <v>735</v>
-      </c>
+      <c r="A183" s="33" t="s">
+        <v>738</v>
+      </c>
+      <c r="B183" s="89" t="s">
+        <v>739</v>
+      </c>
+      <c r="C183" s="7"/>
       <c r="D183" s="7"/>
-      <c r="E183" s="4"/>
+      <c r="E183" s="35" t="s">
+        <v>740</v>
+      </c>
       <c r="F183" s="7"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="4"/>
+      <c r="G183" s="61"/>
+      <c r="H183" s="61"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="51" t="s">
-        <v>736</v>
-      </c>
-      <c r="B184" s="52" t="s">
-        <v>737</v>
-      </c>
-      <c r="C184" s="56" t="s">
-        <v>738</v>
-      </c>
-      <c r="D184" s="56" t="s">
-        <v>739</v>
-      </c>
-      <c r="E184" s="47" t="s">
-        <v>740</v>
-      </c>
-      <c r="F184" s="47"/>
-      <c r="G184" s="36" t="s">
+      <c r="A184" s="38" t="s">
         <v>741</v>
       </c>
-      <c r="H184" s="36" t="s">
-        <v>742</v>
-      </c>
+      <c r="B184" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="122" t="s">
+      <c r="A185" s="45" t="s">
+        <v>742</v>
+      </c>
+      <c r="B185" s="46" t="s">
         <v>743</v>
       </c>
-      <c r="B185" s="123" t="s">
-        <v>744</v>
-      </c>
-      <c r="C185" s="106" t="s">
-        <v>745</v>
-      </c>
-      <c r="D185" s="56" t="s">
-        <v>746</v>
-      </c>
-      <c r="E185" s="108" t="s">
-        <v>747</v>
-      </c>
-      <c r="F185" s="108"/>
-      <c r="G185" s="108"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
       <c r="H185" s="4"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="122" t="s">
+      <c r="A186" s="51" t="s">
+        <v>744</v>
+      </c>
+      <c r="B186" s="52" t="s">
+        <v>745</v>
+      </c>
+      <c r="C186" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="D186" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="E186" s="47" t="s">
         <v>748</v>
       </c>
-      <c r="B186" s="123" t="s">
+      <c r="F186" s="47"/>
+      <c r="G186" s="36" t="s">
         <v>749</v>
       </c>
-      <c r="C186" s="106" t="s">
-        <v>745</v>
-      </c>
-      <c r="D186" s="56" t="s">
-        <v>746</v>
-      </c>
-      <c r="E186" s="108" t="s">
+      <c r="H186" s="97" t="s">
         <v>750</v>
       </c>
-      <c r="F186" s="108"/>
-      <c r="G186" s="108"/>
-      <c r="H186" s="4"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="122" t="s">
+      <c r="A187" s="51" t="s">
         <v>751</v>
       </c>
-      <c r="B187" s="123" t="s">
+      <c r="B187" s="52" t="s">
         <v>752</v>
       </c>
-      <c r="C187" s="106" t="s">
+      <c r="C187" s="56" t="s">
+        <v>746</v>
+      </c>
+      <c r="D187" s="56" t="s">
+        <v>747</v>
+      </c>
+      <c r="E187" s="61" t="s">
         <v>753</v>
       </c>
-      <c r="D187" s="106" t="s">
+      <c r="F187" s="61"/>
+      <c r="G187" s="61" t="s">
+        <v>749</v>
+      </c>
+      <c r="H187" s="61" t="s">
         <v>754</v>
-      </c>
-      <c r="E187" s="108" t="s">
-        <v>755</v>
-      </c>
-      <c r="F187" s="108"/>
-      <c r="G187" s="108" t="s">
-        <v>756</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>757</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="51" t="s">
-        <v>758</v>
-      </c>
-      <c r="B188" s="52" t="s">
-        <v>759</v>
-      </c>
-      <c r="C188" s="106" t="s">
-        <v>760</v>
-      </c>
-      <c r="D188" s="106" t="s">
-        <v>761</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>762</v>
-      </c>
+      <c r="A188" s="45" t="s">
+        <v>755</v>
+      </c>
+      <c r="B188" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="C188" s="123" t="s">
+        <v>757</v>
+      </c>
+      <c r="D188" s="7"/>
+      <c r="E188" s="4"/>
       <c r="F188" s="4"/>
-      <c r="G188" s="108" t="s">
-        <v>763</v>
-      </c>
-      <c r="H188" s="108" t="s">
-        <v>764</v>
-      </c>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="122" t="s">
-        <v>765</v>
-      </c>
-      <c r="B189" s="123" t="s">
-        <v>766</v>
-      </c>
-      <c r="C189" s="108" t="s">
+      <c r="A189" s="51" t="s">
+        <v>758</v>
+      </c>
+      <c r="B189" s="52" t="s">
+        <v>759</v>
+      </c>
+      <c r="C189" s="36" t="s">
         <v>760</v>
       </c>
-      <c r="D189" s="106" t="s">
+      <c r="D189" s="56" t="s">
         <v>761</v>
       </c>
-      <c r="E189" s="108" t="s">
-        <v>767</v>
-      </c>
-      <c r="F189" s="4"/>
-      <c r="G189" s="108" t="s">
+      <c r="E189" s="47" t="s">
+        <v>762</v>
+      </c>
+      <c r="F189" s="47"/>
+      <c r="G189" s="36" t="s">
         <v>763</v>
       </c>
-      <c r="H189" s="108" t="s">
+      <c r="H189" s="36" t="s">
         <v>764</v>
       </c>
-      <c r="I189" s="106"/>
+      <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="51" t="s">
-        <v>758</v>
-      </c>
-      <c r="B190" s="52" t="s">
+      <c r="A190" s="124" t="s">
+        <v>765</v>
+      </c>
+      <c r="B190" s="125" t="s">
+        <v>766</v>
+      </c>
+      <c r="C190" s="110" t="s">
+        <v>767</v>
+      </c>
+      <c r="D190" s="110" t="s">
         <v>768</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="E190" s="111" t="s">
         <v>769</v>
       </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="F190" s="4"/>
-      <c r="G190" s="4" t="s">
-        <v>771</v>
-      </c>
-      <c r="H190" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="I190" s="7" t="s">
-        <v>773</v>
-      </c>
+      <c r="F190" s="111"/>
+      <c r="G190" s="109"/>
+      <c r="H190" s="109"/>
+      <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="45" t="s">
-        <v>774</v>
-      </c>
-      <c r="B191" s="46" t="s">
-        <v>775</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="D191" s="56"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
+      <c r="A191" s="124" t="s">
+        <v>770</v>
+      </c>
+      <c r="B191" s="125" t="s">
+        <v>771</v>
+      </c>
+      <c r="C191" s="110" t="s">
+        <v>767</v>
+      </c>
+      <c r="D191" s="110" t="s">
+        <v>768</v>
+      </c>
+      <c r="E191" s="111" t="s">
+        <v>772</v>
+      </c>
+      <c r="F191" s="111"/>
+      <c r="G191" s="109"/>
+      <c r="H191" s="109"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="51" t="s">
+      <c r="A192" s="124" t="s">
+        <v>773</v>
+      </c>
+      <c r="B192" s="125" t="s">
+        <v>774</v>
+      </c>
+      <c r="C192" s="112" t="s">
+        <v>775</v>
+      </c>
+      <c r="D192" s="112" t="s">
         <v>776</v>
       </c>
-      <c r="B192" s="52" t="s">
+      <c r="E192" s="111" t="s">
         <v>777</v>
       </c>
-      <c r="C192" s="56" t="s">
+      <c r="F192" s="111"/>
+      <c r="G192" s="111" t="s">
         <v>778</v>
       </c>
-      <c r="D192" s="56" t="s">
+      <c r="H192" s="111" t="s">
         <v>779</v>
-      </c>
-      <c r="E192" s="47" t="s">
-        <v>780</v>
-      </c>
-      <c r="F192" s="47"/>
-      <c r="G192" s="36" t="s">
-        <v>781</v>
-      </c>
-      <c r="H192" s="97" t="s">
-        <v>782</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="45" t="s">
+      <c r="A193" s="51" t="s">
+        <v>780</v>
+      </c>
+      <c r="B193" s="52" t="s">
+        <v>781</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="D193" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="B193" s="46" t="s">
+      <c r="E193" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="C193" s="56" t="s">
+      <c r="F193" s="4"/>
+      <c r="G193" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="D193" s="56" t="s">
+      <c r="H193" s="98" t="s">
         <v>786</v>
-      </c>
-      <c r="E193" s="47" t="s">
-        <v>787</v>
-      </c>
-      <c r="F193" s="36"/>
-      <c r="G193" s="36" t="s">
-        <v>788</v>
-      </c>
-      <c r="H193" s="97" t="s">
-        <v>789</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -16208,95 +16546,99 @@
     </row>
     <row r="194">
       <c r="A194" s="124" t="s">
+        <v>787</v>
+      </c>
+      <c r="B194" s="125" t="s">
+        <v>788</v>
+      </c>
+      <c r="C194" s="112" t="s">
+        <v>782</v>
+      </c>
+      <c r="D194" s="112" t="s">
         <v>783</v>
       </c>
-      <c r="B194" s="125" t="s">
-        <v>784</v>
-      </c>
-      <c r="C194" s="115" t="s">
-        <v>785</v>
-      </c>
-      <c r="D194" s="115" t="s">
-        <v>786</v>
-      </c>
-      <c r="E194" s="47" t="s">
+      <c r="E194" s="111" t="s">
+        <v>789</v>
+      </c>
+      <c r="F194" s="7"/>
+      <c r="G194" s="111" t="s">
         <v>790</v>
       </c>
-      <c r="F194" s="56"/>
-      <c r="G194" s="36" t="s">
-        <v>788</v>
-      </c>
-      <c r="H194" s="97" t="s">
+      <c r="H194" s="126" t="s">
         <v>791</v>
       </c>
-      <c r="I194" s="7"/>
+      <c r="I194" s="112"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="38" t="s">
+      <c r="A195" s="51" t="s">
+        <v>780</v>
+      </c>
+      <c r="B195" s="52" t="s">
         <v>792</v>
       </c>
-      <c r="B195" s="39" t="s">
+      <c r="C195" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="C195" s="7"/>
       <c r="D195" s="7"/>
-      <c r="E195" s="4"/>
+      <c r="E195" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="4"/>
-      <c r="I195" s="7"/>
+      <c r="G195" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="H195" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="I195" s="7" t="s">
+        <v>797</v>
+      </c>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
       <c r="A196" s="45" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B196" s="46" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="D196" s="7"/>
-      <c r="E196" s="40" t="s">
-        <v>796</v>
-      </c>
-      <c r="F196" s="4"/>
-      <c r="G196" s="35" t="s">
-        <v>797</v>
-      </c>
-      <c r="H196" s="35" t="s">
-        <v>798</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="D196" s="56"/>
+      <c r="E196" s="36"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="36"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
-      <c r="K196" s="72" t="s">
-        <v>799</v>
-      </c>
+      <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="45" t="s">
+      <c r="A197" s="51" t="s">
         <v>800</v>
       </c>
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="52" t="s">
         <v>801</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C197" s="56" t="s">
         <v>802</v>
       </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="35" t="s">
+      <c r="D197" s="56" t="s">
         <v>803</v>
       </c>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4" t="s">
+      <c r="E197" s="47" t="s">
         <v>804</v>
       </c>
-      <c r="H197" s="35" t="s">
+      <c r="F197" s="47"/>
+      <c r="G197" s="36" t="s">
         <v>805</v>
+      </c>
+      <c r="H197" s="97" t="s">
+        <v>806</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -16304,180 +16646,182 @@
     </row>
     <row r="198">
       <c r="A198" s="45" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B198" s="46" t="s">
-        <v>807</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="D198" s="7"/>
-      <c r="E198" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="F198" s="4"/>
-      <c r="G198" s="35"/>
-      <c r="H198" s="4"/>
+      <c r="C198" s="56" t="s">
+        <v>809</v>
+      </c>
+      <c r="D198" s="56" t="s">
+        <v>810</v>
+      </c>
+      <c r="E198" s="47"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="36"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-      <c r="K198" s="7" t="s">
-        <v>684</v>
-      </c>
+      <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="33" t="s">
+      <c r="A199" s="51" t="s">
+        <v>811</v>
+      </c>
+      <c r="B199" s="52" t="s">
+        <v>812</v>
+      </c>
+      <c r="C199" s="56" t="s">
         <v>809</v>
       </c>
-      <c r="B199" s="34" t="s">
+      <c r="D199" s="56" t="s">
         <v>810</v>
       </c>
-      <c r="C199" s="7"/>
-      <c r="D199" s="7"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
-      <c r="H199" s="4"/>
+      <c r="E199" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="H199" s="97" t="s">
+        <v>815</v>
+      </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="38" t="s">
-        <v>811</v>
-      </c>
-      <c r="B200" s="39" t="s">
-        <v>812</v>
-      </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="4"/>
-      <c r="H200" s="47"/>
+      <c r="A200" s="51" t="s">
+        <v>816</v>
+      </c>
+      <c r="B200" s="52" t="s">
+        <v>817</v>
+      </c>
+      <c r="C200" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="D200" s="56" t="s">
+        <v>810</v>
+      </c>
+      <c r="E200" s="122" t="s">
+        <v>818</v>
+      </c>
+      <c r="F200" s="121"/>
+      <c r="G200" s="36" t="s">
+        <v>814</v>
+      </c>
+      <c r="H200" s="97" t="s">
+        <v>819</v>
+      </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="45" t="s">
-        <v>813</v>
-      </c>
-      <c r="B201" s="46" t="s">
-        <v>814</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>815</v>
-      </c>
+      <c r="A201" s="38" t="s">
+        <v>820</v>
+      </c>
+      <c r="B201" s="39" t="s">
+        <v>821</v>
+      </c>
+      <c r="C201" s="7"/>
       <c r="D201" s="7"/>
-      <c r="E201" s="18" t="s">
-        <v>816</v>
-      </c>
+      <c r="E201" s="18"/>
       <c r="F201" s="18"/>
-      <c r="G201" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="H201" s="98" t="s">
-        <v>818</v>
-      </c>
+      <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
     <row r="202">
       <c r="A202" s="45" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B202" s="46" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>821</v>
+        <v>726</v>
       </c>
       <c r="D202" s="7"/>
-      <c r="E202" s="18" t="s">
-        <v>822</v>
+      <c r="E202" s="127" t="s">
+        <v>824</v>
       </c>
       <c r="F202" s="18"/>
-      <c r="G202" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="H202" s="98" t="s">
-        <v>823</v>
+      <c r="G202" s="35" t="s">
+        <v>825</v>
+      </c>
+      <c r="H202" s="35" t="s">
+        <v>826</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
-      <c r="K202" s="82" t="s">
-        <v>824</v>
+      <c r="K202" s="72" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="45" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B203" s="46" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D203" s="7"/>
-      <c r="E203" s="18" t="s">
-        <v>828</v>
+      <c r="E203" s="84" t="s">
+        <v>831</v>
       </c>
       <c r="F203" s="18"/>
       <c r="G203" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="H203" s="98" t="s">
-        <v>829</v>
+        <v>832</v>
+      </c>
+      <c r="H203" s="35" t="s">
+        <v>833</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="38" t="s">
-        <v>830</v>
-      </c>
-      <c r="B204" s="39" t="s">
-        <v>634</v>
-      </c>
-      <c r="C204" s="126" t="s">
-        <v>635</v>
-      </c>
-      <c r="D204" s="127" t="s">
-        <v>636</v>
-      </c>
-      <c r="E204" s="119" t="s">
-        <v>831</v>
-      </c>
-      <c r="F204" s="119"/>
-      <c r="G204" s="128" t="s">
-        <v>365</v>
-      </c>
-      <c r="H204" s="129" t="s">
-        <v>832</v>
-      </c>
-      <c r="I204" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="A204" s="45" t="s">
+        <v>834</v>
+      </c>
+      <c r="B204" s="46" t="s">
+        <v>835</v>
+      </c>
+      <c r="C204" s="128" t="s">
+        <v>726</v>
+      </c>
+      <c r="D204" s="128"/>
+      <c r="E204" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="F204" s="18"/>
+      <c r="G204" s="35"/>
+      <c r="H204" s="4"/>
+      <c r="I204" s="7"/>
       <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
+      <c r="K204" s="7" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="B205" s="39" t="s">
-        <v>834</v>
-      </c>
-      <c r="C205" s="130" t="s">
-        <v>735</v>
-      </c>
+      <c r="A205" s="33" t="s">
+        <v>837</v>
+      </c>
+      <c r="B205" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="C205" s="7"/>
       <c r="D205" s="7"/>
-      <c r="E205" s="120"/>
-      <c r="F205" s="120"/>
+      <c r="E205" s="18"/>
+      <c r="F205" s="18"/>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
@@ -16485,189 +16829,167 @@
       <c r="K205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="45" t="s">
-        <v>835</v>
-      </c>
-      <c r="B206" s="46" t="s">
-        <v>836</v>
-      </c>
-      <c r="C206" s="131" t="s">
-        <v>735</v>
-      </c>
+      <c r="A206" s="38" t="s">
+        <v>839</v>
+      </c>
+      <c r="B206" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="C206" s="7"/>
       <c r="D206" s="7"/>
-      <c r="E206" s="35" t="s">
-        <v>837</v>
-      </c>
-      <c r="F206" s="56"/>
-      <c r="G206" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="H206" s="56" t="s">
-        <v>61</v>
-      </c>
+      <c r="E206" s="18"/>
+      <c r="F206" s="18"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="57"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="51" t="s">
-        <v>838</v>
-      </c>
-      <c r="B207" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C207" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D207" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E207" s="36" t="s">
-        <v>839</v>
-      </c>
-      <c r="F207" s="36"/>
-      <c r="G207" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H207" s="35" t="s">
-        <v>840</v>
-      </c>
-      <c r="I207" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="A207" s="45" t="s">
+        <v>841</v>
+      </c>
+      <c r="B207" s="46" t="s">
+        <v>842</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="D207" s="7"/>
+      <c r="E207" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="F207" s="18"/>
+      <c r="G207" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="H207" s="98" t="s">
+        <v>846</v>
+      </c>
+      <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="51" t="s">
-        <v>841</v>
-      </c>
-      <c r="B208" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C208" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="D208" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E208" s="36" t="s">
-        <v>842</v>
-      </c>
-      <c r="F208" s="56"/>
-      <c r="G208" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H208" s="35" t="s">
-        <v>843</v>
+      <c r="A208" s="45" t="s">
+        <v>847</v>
+      </c>
+      <c r="B208" s="46" t="s">
+        <v>848</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="D208" s="7"/>
+      <c r="E208" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="F208" s="18"/>
+      <c r="G208" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="H208" s="98" t="s">
+        <v>851</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
-      <c r="K208" s="7"/>
+      <c r="K208" s="82" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="209">
-      <c r="A209" s="51" t="s">
-        <v>844</v>
-      </c>
-      <c r="B209" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C209" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="D209" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E209" s="36" t="s">
+      <c r="A209" s="45" t="s">
+        <v>853</v>
+      </c>
+      <c r="B209" s="46" t="s">
+        <v>854</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D209" s="7"/>
+      <c r="E209" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="F209" s="18"/>
+      <c r="G209" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="F209" s="56"/>
-      <c r="G209" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H209" s="35" t="s">
-        <v>846</v>
+      <c r="H209" s="98" t="s">
+        <v>857</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="51" t="s">
-        <v>847</v>
-      </c>
-      <c r="B210" s="52" t="s">
-        <v>102</v>
+      <c r="A210" s="38" t="s">
+        <v>858</v>
+      </c>
+      <c r="B210" s="39" t="s">
+        <v>644</v>
       </c>
       <c r="C210" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D210" s="57" t="s">
-        <v>848</v>
-      </c>
-      <c r="E210" s="120" t="s">
-        <v>849</v>
-      </c>
-      <c r="F210" s="120"/>
-      <c r="G210" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H210" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="I210" s="7"/>
+        <v>645</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="E210" s="122" t="s">
+        <v>859</v>
+      </c>
+      <c r="F210" s="122"/>
+      <c r="G210" s="129" t="s">
+        <v>365</v>
+      </c>
+      <c r="H210" s="130" t="s">
+        <v>860</v>
+      </c>
+      <c r="I210" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="51" t="s">
-        <v>851</v>
-      </c>
-      <c r="B211" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C211" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="D211" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="E211" s="120" t="s">
-        <v>852</v>
-      </c>
-      <c r="F211" s="120"/>
-      <c r="G211" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="H211" s="57" t="s">
-        <v>853</v>
-      </c>
+      <c r="A211" s="38" t="s">
+        <v>861</v>
+      </c>
+      <c r="B211" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="C211" s="131" t="s">
+        <v>757</v>
+      </c>
+      <c r="D211" s="7"/>
+      <c r="E211" s="121"/>
+      <c r="F211" s="121"/>
+      <c r="G211" s="7"/>
+      <c r="H211" s="7"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="51" t="s">
-        <v>854</v>
-      </c>
-      <c r="B212" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="C212" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D212" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E212" s="120" t="s">
-        <v>855</v>
-      </c>
-      <c r="F212" s="120"/>
-      <c r="G212" s="47" t="s">
-        <v>856</v>
-      </c>
-      <c r="H212" s="47" t="s">
-        <v>857</v>
+      <c r="A212" s="45" t="s">
+        <v>863</v>
+      </c>
+      <c r="B212" s="46" t="s">
+        <v>864</v>
+      </c>
+      <c r="C212" s="132" t="s">
+        <v>757</v>
+      </c>
+      <c r="D212" s="7"/>
+      <c r="E212" s="84" t="s">
+        <v>865</v>
+      </c>
+      <c r="F212" s="121"/>
+      <c r="G212" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H212" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -16675,53 +16997,55 @@
     </row>
     <row r="213">
       <c r="A213" s="51" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="B213" s="52" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C213" s="57" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="D213" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E213" s="120" t="s">
-        <v>859</v>
-      </c>
-      <c r="F213" s="120"/>
-      <c r="G213" s="47" t="s">
-        <v>860</v>
-      </c>
-      <c r="H213" s="47" t="s">
-        <v>861</v>
-      </c>
-      <c r="I213" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="E213" s="121" t="s">
+        <v>867</v>
+      </c>
+      <c r="F213" s="121"/>
+      <c r="G213" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H213" s="35" t="s">
+        <v>868</v>
+      </c>
+      <c r="I213" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="51" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="B214" s="52" t="s">
-        <v>863</v>
+        <v>81</v>
       </c>
       <c r="C214" s="57" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="D214" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="E214" s="120" t="s">
-        <v>864</v>
-      </c>
-      <c r="F214" s="120"/>
-      <c r="G214" s="44" t="s">
-        <v>856</v>
-      </c>
-      <c r="H214" s="44" t="s">
-        <v>865</v>
+        <v>83</v>
+      </c>
+      <c r="E214" s="121" t="s">
+        <v>870</v>
+      </c>
+      <c r="F214" s="121"/>
+      <c r="G214" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H214" s="35" t="s">
+        <v>871</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -16729,51 +17053,53 @@
     </row>
     <row r="215">
       <c r="A215" s="51" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="B215" s="52" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C215" s="57" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D215" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E215" s="120" t="s">
-        <v>867</v>
-      </c>
-      <c r="F215" s="120"/>
-      <c r="G215" s="47" t="s">
-        <v>860</v>
-      </c>
-      <c r="H215" s="132" t="s">
-        <v>868</v>
+        <v>90</v>
+      </c>
+      <c r="E215" s="121" t="s">
+        <v>873</v>
+      </c>
+      <c r="F215" s="121"/>
+      <c r="G215" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H215" s="133" t="s">
+        <v>874</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="45" t="s">
-        <v>869</v>
-      </c>
-      <c r="B216" s="46" t="s">
-        <v>870</v>
-      </c>
-      <c r="C216" s="131" t="s">
-        <v>735</v>
-      </c>
-      <c r="D216" s="133"/>
-      <c r="E216" s="84" t="s">
-        <v>871</v>
-      </c>
-      <c r="F216" s="119"/>
-      <c r="G216" s="36" t="s">
-        <v>872</v>
-      </c>
-      <c r="H216" s="134" t="s">
-        <v>61</v>
+      <c r="A216" s="51" t="s">
+        <v>875</v>
+      </c>
+      <c r="B216" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C216" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D216" s="57" t="s">
+        <v>876</v>
+      </c>
+      <c r="E216" s="121" t="s">
+        <v>877</v>
+      </c>
+      <c r="F216" s="121"/>
+      <c r="G216" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H216" s="133" t="s">
+        <v>878</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -16781,55 +17107,53 @@
     </row>
     <row r="217">
       <c r="A217" s="51" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="B217" s="52" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="C217" s="57" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D217" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E217" s="120" t="s">
-        <v>874</v>
-      </c>
-      <c r="F217" s="120"/>
-      <c r="G217" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H217" s="135" t="s">
-        <v>875</v>
-      </c>
-      <c r="I217" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E217" s="121" t="s">
+        <v>880</v>
+      </c>
+      <c r="F217" s="121"/>
+      <c r="G217" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H217" s="134" t="s">
+        <v>881</v>
+      </c>
+      <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
       <c r="A218" s="51" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="B218" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C218" s="57" t="s">
-        <v>82</v>
+        <v>129</v>
+      </c>
+      <c r="C218" s="56" t="s">
+        <v>130</v>
       </c>
       <c r="D218" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E218" s="120" t="s">
-        <v>877</v>
-      </c>
-      <c r="F218" s="120"/>
-      <c r="G218" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H218" s="135" t="s">
-        <v>878</v>
+        <v>131</v>
+      </c>
+      <c r="E218" s="121" t="s">
+        <v>883</v>
+      </c>
+      <c r="F218" s="121"/>
+      <c r="G218" s="47" t="s">
+        <v>884</v>
+      </c>
+      <c r="H218" s="134" t="s">
+        <v>885</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -16837,26 +17161,26 @@
     </row>
     <row r="219">
       <c r="A219" s="51" t="s">
-        <v>879</v>
+        <v>886</v>
       </c>
       <c r="B219" s="52" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C219" s="57" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="D219" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E219" s="120" t="s">
-        <v>880</v>
-      </c>
-      <c r="F219" s="120"/>
-      <c r="G219" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="H219" s="35" t="s">
-        <v>881</v>
+        <v>125</v>
+      </c>
+      <c r="E219" s="121" t="s">
+        <v>887</v>
+      </c>
+      <c r="F219" s="121"/>
+      <c r="G219" s="47" t="s">
+        <v>888</v>
+      </c>
+      <c r="H219" s="47" t="s">
+        <v>889</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -16864,26 +17188,26 @@
     </row>
     <row r="220">
       <c r="A220" s="51" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="B220" s="52" t="s">
-        <v>102</v>
+        <v>891</v>
       </c>
       <c r="C220" s="57" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D220" s="57" t="s">
-        <v>848</v>
+        <v>146</v>
       </c>
       <c r="E220" s="56" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="F220" s="56"/>
-      <c r="G220" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="H220" s="72" t="s">
+      <c r="G220" s="60" t="s">
         <v>884</v>
+      </c>
+      <c r="H220" s="60" t="s">
+        <v>893</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -16891,53 +17215,51 @@
     </row>
     <row r="221">
       <c r="A221" s="51" t="s">
-        <v>885</v>
-      </c>
-      <c r="B221" s="136" t="s">
-        <v>109</v>
+        <v>894</v>
+      </c>
+      <c r="B221" s="135" t="s">
+        <v>136</v>
       </c>
       <c r="C221" s="57" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="D221" s="57" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E221" s="36" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="F221" s="56"/>
-      <c r="G221" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H221" s="135" t="s">
-        <v>887</v>
+      <c r="G221" s="47" t="s">
+        <v>888</v>
+      </c>
+      <c r="H221" s="134" t="s">
+        <v>896</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="51" t="s">
-        <v>888</v>
-      </c>
-      <c r="B222" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="C222" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D222" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E222" s="36" t="s">
-        <v>889</v>
-      </c>
-      <c r="F222" s="56"/>
-      <c r="G222" s="47" t="s">
-        <v>856</v>
-      </c>
-      <c r="H222" s="132" t="s">
-        <v>857</v>
+      <c r="A222" s="45" t="s">
+        <v>897</v>
+      </c>
+      <c r="B222" s="62" t="s">
+        <v>898</v>
+      </c>
+      <c r="C222" s="132" t="s">
+        <v>757</v>
+      </c>
+      <c r="D222" s="136"/>
+      <c r="E222" s="35" t="s">
+        <v>899</v>
+      </c>
+      <c r="F222" s="57"/>
+      <c r="G222" s="36" t="s">
+        <v>900</v>
+      </c>
+      <c r="H222" s="137" t="s">
+        <v>61</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -16945,53 +17267,55 @@
     </row>
     <row r="223">
       <c r="A223" s="51" t="s">
-        <v>890</v>
-      </c>
-      <c r="B223" s="136" t="s">
-        <v>123</v>
+        <v>901</v>
+      </c>
+      <c r="B223" s="135" t="s">
+        <v>65</v>
       </c>
       <c r="C223" s="57" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="D223" s="57" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="E223" s="56" t="s">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="F223" s="56"/>
-      <c r="G223" s="57" t="s">
-        <v>860</v>
-      </c>
-      <c r="H223" s="137" t="s">
-        <v>861</v>
-      </c>
-      <c r="I223" s="7"/>
+      <c r="G223" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="H223" s="94" t="s">
+        <v>903</v>
+      </c>
+      <c r="I223" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J223" s="7"/>
       <c r="K223" s="7"/>
     </row>
     <row r="224">
       <c r="A224" s="51" t="s">
-        <v>892</v>
-      </c>
-      <c r="B224" s="136" t="s">
-        <v>863</v>
+        <v>904</v>
+      </c>
+      <c r="B224" s="135" t="s">
+        <v>81</v>
       </c>
       <c r="C224" s="57" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="D224" s="57" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="E224" s="36" t="s">
-        <v>893</v>
+        <v>905</v>
       </c>
       <c r="F224" s="56"/>
-      <c r="G224" s="44" t="s">
-        <v>856</v>
-      </c>
-      <c r="H224" s="138" t="s">
-        <v>894</v>
+      <c r="G224" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H224" s="133" t="s">
+        <v>906</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -16999,76 +17323,80 @@
     </row>
     <row r="225">
       <c r="A225" s="51" t="s">
-        <v>895</v>
-      </c>
-      <c r="B225" s="136" t="s">
-        <v>136</v>
+        <v>907</v>
+      </c>
+      <c r="B225" s="135" t="s">
+        <v>88</v>
       </c>
       <c r="C225" s="57" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D225" s="57" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="E225" s="56" t="s">
-        <v>896</v>
+        <v>908</v>
       </c>
       <c r="F225" s="56"/>
-      <c r="G225" s="57" t="s">
-        <v>860</v>
-      </c>
-      <c r="H225" s="137" t="s">
-        <v>868</v>
+      <c r="G225" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H225" s="94" t="s">
+        <v>909</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="45" t="s">
-        <v>897</v>
-      </c>
-      <c r="B226" s="62" t="s">
-        <v>898</v>
+      <c r="A226" s="51" t="s">
+        <v>910</v>
+      </c>
+      <c r="B226" s="135" t="s">
+        <v>102</v>
       </c>
       <c r="C226" s="57" t="s">
-        <v>899</v>
+        <v>103</v>
       </c>
       <c r="D226" s="57" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="E226" s="56" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="F226" s="56"/>
       <c r="G226" s="72" t="s">
-        <v>902</v>
-      </c>
-      <c r="H226" s="137" t="s">
-        <v>903</v>
+        <v>106</v>
+      </c>
+      <c r="H226" s="94" t="s">
+        <v>912</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="45" t="s">
-        <v>904</v>
-      </c>
-      <c r="B227" s="62" t="s">
-        <v>905</v>
-      </c>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="72" t="s">
-        <v>906</v>
-      </c>
-      <c r="F227" s="57"/>
-      <c r="G227" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="H227" s="139" t="s">
-        <v>61</v>
+      <c r="A227" s="51" t="s">
+        <v>913</v>
+      </c>
+      <c r="B227" s="135" t="s">
+        <v>109</v>
+      </c>
+      <c r="C227" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D227" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E227" s="56" t="s">
+        <v>914</v>
+      </c>
+      <c r="F227" s="56"/>
+      <c r="G227" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H227" s="94" t="s">
+        <v>915</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -17076,55 +17404,53 @@
     </row>
     <row r="228">
       <c r="A228" s="51" t="s">
-        <v>907</v>
-      </c>
-      <c r="B228" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="C228" s="57" t="s">
-        <v>66</v>
+        <v>916</v>
+      </c>
+      <c r="B228" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C228" s="56" t="s">
+        <v>130</v>
       </c>
       <c r="D228" s="57" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="E228" s="56" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="F228" s="56"/>
-      <c r="G228" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="H228" s="72" t="s">
-        <v>909</v>
-      </c>
-      <c r="I228" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="G228" s="57" t="s">
+        <v>884</v>
+      </c>
+      <c r="H228" s="57" t="s">
+        <v>885</v>
+      </c>
+      <c r="I228" s="7"/>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
     <row r="229">
       <c r="A229" s="51" t="s">
-        <v>910</v>
-      </c>
-      <c r="B229" s="136" t="s">
-        <v>81</v>
+        <v>918</v>
+      </c>
+      <c r="B229" s="135" t="s">
+        <v>123</v>
       </c>
       <c r="C229" s="57" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D229" s="57" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="E229" s="56" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="F229" s="56"/>
-      <c r="G229" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="H229" s="72" t="s">
-        <v>912</v>
+      <c r="G229" s="57" t="s">
+        <v>888</v>
+      </c>
+      <c r="H229" s="57" t="s">
+        <v>889</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -17132,26 +17458,26 @@
     </row>
     <row r="230">
       <c r="A230" s="51" t="s">
-        <v>913</v>
-      </c>
-      <c r="B230" s="136" t="s">
-        <v>88</v>
+        <v>920</v>
+      </c>
+      <c r="B230" s="135" t="s">
+        <v>891</v>
       </c>
       <c r="C230" s="57" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="D230" s="57" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="E230" s="56" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="F230" s="56"/>
-      <c r="G230" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="H230" s="94" t="s">
-        <v>915</v>
+      <c r="G230" s="60" t="s">
+        <v>884</v>
+      </c>
+      <c r="H230" s="138" t="s">
+        <v>922</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -17159,80 +17485,76 @@
     </row>
     <row r="231">
       <c r="A231" s="51" t="s">
-        <v>916</v>
-      </c>
-      <c r="B231" s="136" t="s">
-        <v>102</v>
+        <v>923</v>
+      </c>
+      <c r="B231" s="135" t="s">
+        <v>136</v>
       </c>
       <c r="C231" s="57" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D231" s="57" t="s">
-        <v>848</v>
+        <v>138</v>
       </c>
       <c r="E231" s="56" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="F231" s="56"/>
-      <c r="G231" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="H231" s="72" t="s">
-        <v>918</v>
+      <c r="G231" s="57" t="s">
+        <v>888</v>
+      </c>
+      <c r="H231" s="57" t="s">
+        <v>896</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="51" t="s">
-        <v>919</v>
-      </c>
-      <c r="B232" s="136" t="s">
-        <v>109</v>
+      <c r="A232" s="45" t="s">
+        <v>925</v>
+      </c>
+      <c r="B232" s="62" t="s">
+        <v>926</v>
       </c>
       <c r="C232" s="57" t="s">
-        <v>110</v>
+        <v>927</v>
       </c>
       <c r="D232" s="57" t="s">
-        <v>111</v>
+        <v>928</v>
       </c>
       <c r="E232" s="56" t="s">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="F232" s="56"/>
-      <c r="G232" s="57" t="s">
-        <v>113</v>
+      <c r="G232" s="72" t="s">
+        <v>930</v>
       </c>
       <c r="H232" s="57" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="51" t="s">
-        <v>922</v>
-      </c>
-      <c r="B233" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="C233" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D233" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E233" s="56" t="s">
-        <v>923</v>
-      </c>
-      <c r="F233" s="56"/>
-      <c r="G233" s="57" t="s">
-        <v>856</v>
-      </c>
-      <c r="H233" s="57" t="s">
-        <v>857</v>
+      <c r="A233" s="45" t="s">
+        <v>932</v>
+      </c>
+      <c r="B233" s="62" t="s">
+        <v>933</v>
+      </c>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="72" t="s">
+        <v>934</v>
+      </c>
+      <c r="F233" s="57"/>
+      <c r="G233" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H233" s="56" t="s">
+        <v>61</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -17240,53 +17562,55 @@
     </row>
     <row r="234">
       <c r="A234" s="51" t="s">
-        <v>924</v>
-      </c>
-      <c r="B234" s="136" t="s">
-        <v>123</v>
+        <v>935</v>
+      </c>
+      <c r="B234" s="135" t="s">
+        <v>65</v>
       </c>
       <c r="C234" s="57" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="D234" s="57" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="E234" s="56" t="s">
-        <v>925</v>
+        <v>936</v>
       </c>
       <c r="F234" s="56"/>
-      <c r="G234" s="57" t="s">
-        <v>860</v>
-      </c>
-      <c r="H234" s="57" t="s">
-        <v>861</v>
-      </c>
-      <c r="I234" s="7"/>
+      <c r="G234" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="H234" s="72" t="s">
+        <v>937</v>
+      </c>
+      <c r="I234" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J234" s="7"/>
       <c r="K234" s="7"/>
     </row>
     <row r="235">
       <c r="A235" s="51" t="s">
-        <v>926</v>
-      </c>
-      <c r="B235" s="136" t="s">
-        <v>863</v>
+        <v>938</v>
+      </c>
+      <c r="B235" s="135" t="s">
+        <v>81</v>
       </c>
       <c r="C235" s="57" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="D235" s="57" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="E235" s="56" t="s">
-        <v>927</v>
+        <v>939</v>
       </c>
       <c r="F235" s="56"/>
-      <c r="G235" s="60" t="s">
-        <v>856</v>
-      </c>
-      <c r="H235" s="60" t="s">
-        <v>928</v>
+      <c r="G235" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H235" s="72" t="s">
+        <v>940</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -17294,57 +17618,219 @@
     </row>
     <row r="236">
       <c r="A236" s="51" t="s">
-        <v>929</v>
-      </c>
-      <c r="B236" s="136" t="s">
-        <v>136</v>
+        <v>941</v>
+      </c>
+      <c r="B236" s="135" t="s">
+        <v>88</v>
       </c>
       <c r="C236" s="57" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="D236" s="57" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="E236" s="56" t="s">
-        <v>930</v>
+        <v>942</v>
       </c>
       <c r="F236" s="56"/>
-      <c r="G236" s="57" t="s">
-        <v>860</v>
-      </c>
-      <c r="H236" s="57" t="s">
-        <v>868</v>
+      <c r="G236" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="H236" s="72" t="s">
+        <v>943</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="38" t="s">
-        <v>931</v>
-      </c>
-      <c r="B237" s="140" t="s">
-        <v>932</v>
-      </c>
-      <c r="C237" s="141" t="s">
-        <v>933</v>
-      </c>
-      <c r="D237" s="141" t="s">
-        <v>934</v>
-      </c>
-      <c r="E237" s="142" t="s">
-        <v>935</v>
-      </c>
-      <c r="F237" s="142"/>
+      <c r="A237" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="B237" s="135" t="s">
+        <v>102</v>
+      </c>
+      <c r="C237" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D237" s="57" t="s">
+        <v>876</v>
+      </c>
+      <c r="E237" s="56" t="s">
+        <v>945</v>
+      </c>
+      <c r="F237" s="56"/>
       <c r="G237" s="72" t="s">
-        <v>936</v>
-      </c>
-      <c r="H237" s="105" t="s">
-        <v>937</v>
+        <v>106</v>
+      </c>
+      <c r="H237" s="72" t="s">
+        <v>946</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="51" t="s">
+        <v>947</v>
+      </c>
+      <c r="B238" s="135" t="s">
+        <v>109</v>
+      </c>
+      <c r="C238" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D238" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E238" s="56" t="s">
+        <v>948</v>
+      </c>
+      <c r="F238" s="56"/>
+      <c r="G238" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="H238" s="57" t="s">
+        <v>949</v>
+      </c>
+      <c r="I238" s="7"/>
+      <c r="J238" s="7"/>
+      <c r="K238" s="7"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="51" t="s">
+        <v>950</v>
+      </c>
+      <c r="B239" s="135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C239" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D239" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E239" s="56" t="s">
+        <v>951</v>
+      </c>
+      <c r="F239" s="56"/>
+      <c r="G239" s="57" t="s">
+        <v>884</v>
+      </c>
+      <c r="H239" s="57" t="s">
+        <v>885</v>
+      </c>
+      <c r="I239" s="7"/>
+      <c r="J239" s="7"/>
+      <c r="K239" s="7"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="51" t="s">
+        <v>952</v>
+      </c>
+      <c r="B240" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="C240" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D240" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E240" s="56" t="s">
+        <v>953</v>
+      </c>
+      <c r="F240" s="56"/>
+      <c r="G240" s="57" t="s">
+        <v>888</v>
+      </c>
+      <c r="H240" s="57" t="s">
+        <v>889</v>
+      </c>
+      <c r="I240" s="7"/>
+      <c r="J240" s="7"/>
+      <c r="K240" s="7"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="51" t="s">
+        <v>954</v>
+      </c>
+      <c r="B241" s="135" t="s">
+        <v>891</v>
+      </c>
+      <c r="C241" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D241" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E241" s="56" t="s">
+        <v>955</v>
+      </c>
+      <c r="F241" s="56"/>
+      <c r="G241" s="60" t="s">
+        <v>884</v>
+      </c>
+      <c r="H241" s="60" t="s">
+        <v>956</v>
+      </c>
+      <c r="I241" s="7"/>
+      <c r="J241" s="7"/>
+      <c r="K241" s="7"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="51" t="s">
+        <v>957</v>
+      </c>
+      <c r="B242" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C242" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D242" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E242" s="56" t="s">
+        <v>958</v>
+      </c>
+      <c r="F242" s="56"/>
+      <c r="G242" s="57" t="s">
+        <v>888</v>
+      </c>
+      <c r="H242" s="57" t="s">
+        <v>896</v>
+      </c>
+      <c r="I242" s="7"/>
+      <c r="J242" s="7"/>
+      <c r="K242" s="7"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="38" t="s">
+        <v>959</v>
+      </c>
+      <c r="B243" s="139" t="s">
+        <v>960</v>
+      </c>
+      <c r="C243" s="140" t="s">
+        <v>961</v>
+      </c>
+      <c r="D243" s="140" t="s">
+        <v>962</v>
+      </c>
+      <c r="E243" s="141" t="s">
+        <v>963</v>
+      </c>
+      <c r="F243" s="141"/>
+      <c r="G243" s="72" t="s">
+        <v>964</v>
+      </c>
+      <c r="H243" s="108" t="s">
+        <v>965</v>
+      </c>
+      <c r="I243" s="7"/>
+      <c r="J243" s="7"/>
+      <c r="K243" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17386,20 +17872,26 @@
     <hyperlink r:id="rId7" ref="H104"/>
     <hyperlink r:id="rId8" ref="H105"/>
     <hyperlink r:id="rId9" ref="H106"/>
-    <hyperlink r:id="rId10" ref="H215"/>
-    <hyperlink r:id="rId11" ref="H216"/>
-    <hyperlink r:id="rId12" ref="H217"/>
-    <hyperlink r:id="rId13" ref="H218"/>
-    <hyperlink r:id="rId14" ref="H221"/>
-    <hyperlink r:id="rId15" ref="H222"/>
-    <hyperlink r:id="rId16" ref="H223"/>
-    <hyperlink r:id="rId17" ref="H224"/>
-    <hyperlink r:id="rId18" ref="H225"/>
-    <hyperlink r:id="rId19" ref="H226"/>
-    <hyperlink r:id="rId20" ref="H227"/>
-    <hyperlink r:id="rId21" ref="H230"/>
+    <hyperlink r:id="rId10" ref="H145"/>
+    <hyperlink r:id="rId11" ref="H146"/>
+    <hyperlink r:id="rId12" ref="H161"/>
+    <hyperlink r:id="rId13" ref="H163"/>
+    <hyperlink r:id="rId14" ref="H167"/>
+    <hyperlink r:id="rId15" ref="H194"/>
+    <hyperlink r:id="rId16" ref="H215"/>
+    <hyperlink r:id="rId17" ref="H216"/>
+    <hyperlink r:id="rId18" ref="H217"/>
+    <hyperlink r:id="rId19" ref="H218"/>
+    <hyperlink r:id="rId20" ref="H221"/>
+    <hyperlink r:id="rId21" ref="H222"/>
+    <hyperlink r:id="rId22" ref="H223"/>
+    <hyperlink r:id="rId23" ref="H224"/>
+    <hyperlink r:id="rId24" ref="H225"/>
+    <hyperlink r:id="rId25" ref="H226"/>
+    <hyperlink r:id="rId26" ref="H227"/>
+    <hyperlink r:id="rId27" ref="H230"/>
   </hyperlinks>
-  <drawing r:id="rId22"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -17421,7 +17913,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -17457,7 +17949,7 @@
         <v>385</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3">
@@ -17468,14 +17960,14 @@
         <v>416</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="35" t="s">
-        <v>940</v>
+        <v>968</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>941</v>
+        <v>969</v>
       </c>
     </row>
     <row r="4">
@@ -17486,14 +17978,14 @@
         <v>416</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="35" t="s">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>943</v>
+        <v>971</v>
       </c>
     </row>
     <row r="5">
@@ -17513,211 +18005,211 @@
         <v>468</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>944</v>
-      </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
+        <v>972</v>
+      </c>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="143"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="143"/>
+      <c r="Z5" s="143"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>945</v>
+        <v>973</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>946</v>
+        <v>974</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>947</v>
+        <v>975</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>949</v>
+        <v>977</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
+      <c r="W6" s="143"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="143"/>
+      <c r="Z6" s="143"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>950</v>
+        <v>978</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>951</v>
+        <v>979</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="72" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="F8" s="72" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="82" t="s">
-        <v>960</v>
+        <v>988</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="D9" s="82"/>
       <c r="E9" s="82" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>964</v>
-      </c>
-      <c r="C10" s="145" t="s">
-        <v>965</v>
+        <v>992</v>
+      </c>
+      <c r="C10" s="144" t="s">
+        <v>993</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="72" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="F10" s="72" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="72" t="s">
-        <v>973</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="81" t="s">
-        <v>974</v>
+        <v>1002</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>975</v>
+        <v>1003</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D12" s="81" t="s">
         <v>404</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>976</v>
-      </c>
-      <c r="F12" s="146" t="s">
-        <v>977</v>
+        <v>1004</v>
+      </c>
+      <c r="F12" s="145" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>978</v>
+        <v>1006</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>979</v>
+        <v>1007</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="72" t="s">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="F13" s="94" t="s">
-        <v>981</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="119" t="s">
-        <v>982</v>
-      </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="122" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="57" t="s">
-        <v>983</v>
+        <v>1011</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="15">
@@ -21698,108 +22190,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="147" t="s">
-        <v>986</v>
-      </c>
-      <c r="B2" s="148" t="s">
-        <v>987</v>
+      <c r="A2" s="146" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="149" t="s">
-        <v>988</v>
-      </c>
-      <c r="B3" s="148" t="s">
-        <v>989</v>
+      <c r="A3" s="148" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="150" t="s">
-        <v>990</v>
+      <c r="A4" s="149" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="151" t="s">
-        <v>991</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>992</v>
+      <c r="A6" s="150" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B6" s="147" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="148" t="s">
-        <v>993</v>
+      <c r="B7" s="147" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="148"/>
+      <c r="B8" s="147"/>
     </row>
     <row r="9">
-      <c r="B9" s="148"/>
+      <c r="B9" s="147"/>
     </row>
     <row r="10">
-      <c r="A10" s="151" t="s">
-        <v>994</v>
+      <c r="A10" s="150" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="151" t="s">
-        <v>995</v>
-      </c>
-      <c r="B11" s="152" t="s">
-        <v>996</v>
+      <c r="A11" s="150" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B11" s="151" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="153" t="s">
-        <v>997</v>
+      <c r="B12" s="152" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="154"/>
-      <c r="B13" s="155" t="s">
-        <v>998</v>
+      <c r="A13" s="153"/>
+      <c r="B13" s="154" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="156" t="s">
-        <v>999</v>
+      <c r="B14" s="155" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="157" t="s">
-        <v>1000</v>
+      <c r="B15" s="156" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="158" t="s">
-        <v>1001</v>
+      <c r="B16" s="157" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="151"/>
+      <c r="A17" s="150"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="151" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B18" s="159" t="s">
-        <v>1003</v>
+      <c r="A18" s="150" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B18" s="158" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B19" s="160"/>
+        <v>1032</v>
+      </c>
+      <c r="B19" s="159"/>
     </row>
     <row r="21">
-      <c r="A21" s="151" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B21" s="161" t="s">
-        <v>1006</v>
+      <c r="A21" s="150" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B21" s="160" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -21824,48 +22316,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="151" t="s">
-        <v>1007</v>
+      <c r="A1" s="150" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="162" t="s">
-        <v>1008</v>
+      <c r="A2" s="161" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
-        <v>1009</v>
+      <c r="A3" s="147" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="162" t="s">
-        <v>1010</v>
+      <c r="A4" s="161" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="148" t="s">
-        <v>1011</v>
+      <c r="A5" s="147" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="148" t="s">
-        <v>1012</v>
+      <c r="A6" s="147" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="148" t="s">
-        <v>1013</v>
+      <c r="A7" s="147" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="162" t="s">
-        <v>1014</v>
+      <c r="A8" s="161" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="148" t="s">
-        <v>1015</v>
+      <c r="A9" s="147" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
@@ -21891,48 +22383,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B1" s="163" t="s">
-        <v>1016</v>
+        <v>1035</v>
+      </c>
+      <c r="B1" s="162" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="164" t="s">
-        <v>1017</v>
+      <c r="A2" s="163" t="s">
+        <v>1045</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -21951,7 +22443,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="152"/>
+      <c r="A1" s="151"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -21975,40 +22467,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="165" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C1" s="165" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E1" s="166" t="s">
+      <c r="A1" s="164" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1" s="164" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E1" s="165" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22018,13 +22510,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22034,287 +22526,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1039</v>
+        <v>1067</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1048</v>
+        <v>1076</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1049</v>
+        <v>1077</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>1050</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="167" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B9" s="168" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C9" s="168" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D9" s="168" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="168"/>
-      <c r="T9" s="168"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="168"/>
-      <c r="Z9" s="168"/>
+      <c r="A9" s="166" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B9" s="167" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C9" s="167" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D9" s="167" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
     </row>
     <row r="10">
-      <c r="A10" s="167" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B10" s="168" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C10" s="168" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D10" s="168" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="169"/>
-      <c r="U10" s="169"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="169"/>
-      <c r="Y10" s="169"/>
-      <c r="Z10" s="169"/>
+      <c r="A10" s="166" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B10" s="167" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C10" s="167" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D10" s="167" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
     </row>
     <row r="11">
-      <c r="A11" s="167" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B11" s="168" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C11" s="168" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D11" s="168" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
-      <c r="M11" s="169"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="169"/>
-      <c r="S11" s="169"/>
-      <c r="T11" s="169"/>
-      <c r="U11" s="169"/>
-      <c r="V11" s="169"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="169"/>
-      <c r="Y11" s="169"/>
-      <c r="Z11" s="169"/>
+      <c r="A11" s="166" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B11" s="167" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C11" s="167" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D11" s="167" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
     </row>
     <row r="12">
-      <c r="A12" s="167" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B12" s="168" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C12" s="168" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D12" s="168" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
-      <c r="M12" s="169"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="169"/>
-      <c r="T12" s="169"/>
-      <c r="U12" s="169"/>
-      <c r="V12" s="169"/>
-      <c r="W12" s="169"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="169"/>
+      <c r="A12" s="166" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B12" s="167" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C12" s="167" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D12" s="167" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
     </row>
     <row r="13">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="166" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B13" s="166" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C13" s="167" t="s">
         <v>1061</v>
       </c>
-      <c r="B13" s="167" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C13" s="168" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D13" s="168" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="169"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="169"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="169"/>
-      <c r="Z13" s="169"/>
+      <c r="D13" s="167" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
     </row>
     <row r="14">
-      <c r="A14" s="167" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B14" s="167" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C14" s="168" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D14" s="168" t="s">
+      <c r="A14" s="166" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B14" s="166" t="s">
         <v>1064</v>
       </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="169"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="169"/>
-      <c r="Z14" s="169"/>
+      <c r="C14" s="167" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D14" s="167" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22342,52 +22834,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="170" t="s">
-        <v>1025</v>
+      <c r="A1" s="169" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="151" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B2" s="151" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C2" s="151" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D2" s="151" t="s">
-        <v>1030</v>
+      <c r="A2" s="150" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D2" s="150" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B3" s="148" t="s">
-        <v>1066</v>
+      <c r="A3" s="147" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="148" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B4" s="148" t="s">
-        <v>1068</v>
+      <c r="A4" s="147" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B4" s="147" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="148" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C5" s="171" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D5" s="148" t="s">
-        <v>1071</v>
+      <c r="A5" s="147" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C5" s="170" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D5" s="147" t="s">
+        <v>1099</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F04/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F04/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDAbeta.1</t>
+    <t>2.1.2-alpha.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F04/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F04/transformation/conceptual_mappings.xlsx
@@ -4403,7 +4403,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -4450,7 +4450,7 @@
     <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
+    <t>?this epo:specifiesSelectionCriterion / cccev:description ?value .</t>
   </si>
   <si>
     <t>epo:ProfessionalSuitabilitySummary / rdf:langString</t>
@@ -4479,7 +4479,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -4560,7 +4560,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -7287,7 +7287,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7363,8 +7363,8 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -7374,9 +7374,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -11278,25 +11275,25 @@
       <c r="D2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="28"/>
@@ -11316,27 +11313,27 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>49</v>
       </c>
       <c r="L3" s="28"/>
@@ -11348,25 +11345,25 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="39" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="38" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="28"/>
@@ -11378,20 +11375,20 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -11402,20 +11399,20 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -11426,26 +11423,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -11456,26 +11453,26 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -11486,32 +11483,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -11522,32 +11519,32 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="36"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -11558,10 +11555,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -11570,18 +11567,18 @@
       <c r="D11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -11592,10 +11589,10 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -11604,18 +11601,18 @@
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -11626,32 +11623,32 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -11662,10 +11659,10 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -11674,18 +11671,18 @@
       <c r="D14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -11696,30 +11693,30 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -11730,32 +11727,32 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H16" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="I16" s="36" t="s">
+      <c r="I16" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -11766,10 +11763,10 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -11778,18 +11775,18 @@
       <c r="D17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -11800,10 +11797,10 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -11812,18 +11809,18 @@
       <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -11834,10 +11831,10 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -11846,18 +11843,18 @@
       <c r="D19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -11868,20 +11865,20 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -11892,30 +11889,30 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46" t="s">
+      <c r="F21" s="44"/>
+      <c r="G21" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -11926,10 +11923,10 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -11938,18 +11935,18 @@
       <c r="D22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H22" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -11960,103 +11957,103 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="57"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -12066,33 +12063,33 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="57"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="56"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -12102,10 +12099,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -12114,18 +12111,18 @@
       <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -12136,10 +12133,10 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -12148,18 +12145,18 @@
       <c r="D28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
+      <c r="F28" s="35"/>
+      <c r="G28" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -12170,54 +12167,54 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -12226,18 +12223,18 @@
       <c r="D30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
+      <c r="F30" s="35"/>
+      <c r="G30" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H30" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="7"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
@@ -12248,31 +12245,31 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="57"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="56"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
@@ -12282,10 +12279,10 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>116</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -12294,20 +12291,20 @@
       <c r="D32" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="36"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -12318,10 +12315,10 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -12330,18 +12327,18 @@
       <c r="D33" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="H33" s="50" t="s">
+      <c r="H33" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -12352,10 +12349,10 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -12364,18 +12361,18 @@
       <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -12386,10 +12383,10 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -12398,50 +12395,50 @@
       <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="58" t="s">
+      <c r="F35" s="35"/>
+      <c r="G35" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
     </row>
     <row r="36">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
       <c r="K36" s="7"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
@@ -12452,31 +12449,31 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62" t="s">
+      <c r="F37" s="60"/>
+      <c r="G37" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="62" t="s">
+      <c r="H37" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="I37" s="39"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="57"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="56"/>
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
@@ -12486,10 +12483,10 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -12498,17 +12495,17 @@
       <c r="D38" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H38" s="49" t="s">
+      <c r="H38" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="I38" s="39"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -12520,10 +12517,10 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>187</v>
       </c>
       <c r="C39" s="4"/>
@@ -12532,7 +12529,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="39"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -12544,67 +12541,67 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37" t="s">
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="44"/>
+      <c r="G40" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="I40" s="39"/>
+      <c r="I40" s="38"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
     </row>
     <row r="41">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37" t="s">
+      <c r="F41" s="36"/>
+      <c r="G41" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="49" t="s">
+      <c r="H41" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="38" t="s">
         <v>200</v>
       </c>
       <c r="J41" s="7"/>
@@ -12618,25 +12615,25 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46" t="s">
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="36" t="s">
+      <c r="F42" s="44"/>
+      <c r="G42" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="36" t="s">
+      <c r="H42" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="39"/>
+      <c r="I42" s="38"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
@@ -12648,24 +12645,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>207</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="62" t="s">
         <v>211</v>
       </c>
       <c r="I43" s="7"/>
@@ -12680,24 +12677,24 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49" t="s">
+      <c r="F44" s="48"/>
+      <c r="G44" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="48" t="s">
         <v>217</v>
       </c>
       <c r="I44" s="7"/>
@@ -12712,26 +12709,26 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="49" t="s">
+      <c r="H45" s="48" t="s">
         <v>224</v>
       </c>
       <c r="I45" s="7"/>
@@ -12746,24 +12743,24 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59" t="s">
+      <c r="D46" s="58"/>
+      <c r="E46" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59" t="s">
+      <c r="F46" s="58"/>
+      <c r="G46" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="H46" s="65" t="s">
+      <c r="H46" s="64" t="s">
         <v>228</v>
       </c>
       <c r="I46" s="7"/>
@@ -12778,26 +12775,26 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="42" t="s">
+      <c r="D47" s="48"/>
+      <c r="E47" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="H47" s="49" t="s">
+      <c r="H47" s="48" t="s">
         <v>233</v>
       </c>
       <c r="I47" s="4"/>
@@ -12812,16 +12809,16 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -12836,10 +12833,10 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="53" t="s">
         <v>237</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -12850,50 +12847,50 @@
         <v>239</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="63" t="s">
+      <c r="G49" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="63" t="s">
+      <c r="H49" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
     </row>
     <row r="50">
-      <c r="A50" s="66" t="s">
+      <c r="A50" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="67" t="s">
         <v>238</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69" t="s">
+      <c r="D50" s="67"/>
+      <c r="E50" s="68" t="s">
         <v>239</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="62" t="s">
         <v>241</v>
       </c>
       <c r="I50" s="7"/>
@@ -12908,10 +12905,10 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="53" t="s">
+      <c r="A51" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="53" t="s">
         <v>243</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -12922,15 +12919,15 @@
         <v>244</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="70" t="s">
+      <c r="G51" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="70" t="s">
+      <c r="H51" s="69" t="s">
         <v>61</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="57"/>
+      <c r="K51" s="56"/>
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
@@ -12940,10 +12937,10 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="71" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -12956,13 +12953,13 @@
         <v>246</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="70" t="s">
+      <c r="G52" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="73" t="s">
+      <c r="H52" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J52" s="7"/>
@@ -12976,29 +12973,29 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="71" t="s">
+      <c r="A53" s="70" t="s">
         <v>248</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="70" t="s">
+      <c r="F53" s="48"/>
+      <c r="G53" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="H53" s="73" t="s">
+      <c r="H53" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="I53" s="39" t="s">
+      <c r="I53" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J53" s="7"/>
@@ -13012,10 +13009,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="71" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -13028,10 +13025,10 @@
         <v>252</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="74" t="s">
+      <c r="G54" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="75" t="s">
+      <c r="H54" s="74" t="s">
         <v>253</v>
       </c>
       <c r="I54" s="7"/>
@@ -13046,10 +13043,10 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="71" t="s">
+      <c r="A55" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="71" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -13062,10 +13059,10 @@
         <v>255</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="74" t="s">
+      <c r="G55" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="75" t="s">
+      <c r="H55" s="74" t="s">
         <v>256</v>
       </c>
       <c r="I55" s="7"/>
@@ -13080,28 +13077,28 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="G56" s="70" t="s">
+      <c r="G56" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="H56" s="73" t="s">
+      <c r="H56" s="72" t="s">
         <v>260</v>
       </c>
       <c r="I56" s="7"/>
@@ -13116,10 +13113,10 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="71" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -13132,10 +13129,10 @@
         <v>262</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="70" t="s">
+      <c r="G57" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H57" s="73" t="s">
+      <c r="H57" s="72" t="s">
         <v>263</v>
       </c>
       <c r="I57" s="7"/>
@@ -13150,10 +13147,10 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="71" t="s">
+      <c r="A58" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="71" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -13166,10 +13163,10 @@
         <v>265</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="70" t="s">
+      <c r="G58" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="H58" s="73" t="s">
+      <c r="H58" s="72" t="s">
         <v>266</v>
       </c>
       <c r="I58" s="7"/>
@@ -13184,10 +13181,10 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="70" t="s">
         <v>267</v>
       </c>
-      <c r="B59" s="72" t="s">
+      <c r="B59" s="71" t="s">
         <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -13200,13 +13197,13 @@
         <v>268</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="70" t="s">
+      <c r="G59" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H59" s="73" t="s">
+      <c r="H59" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J59" s="7"/>
@@ -13220,10 +13217,10 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="71" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -13236,10 +13233,10 @@
         <v>271</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="70" t="s">
+      <c r="G60" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="72" t="s">
         <v>272</v>
       </c>
       <c r="I60" s="7"/>
@@ -13254,10 +13251,10 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="71" t="s">
+      <c r="A61" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="71" t="s">
         <v>128</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -13270,10 +13267,10 @@
         <v>274</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="70" t="s">
+      <c r="G61" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="H61" s="73" t="s">
+      <c r="H61" s="72" t="s">
         <v>275</v>
       </c>
       <c r="I61" s="7"/>
@@ -13288,10 +13285,10 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="71" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="7" t="s">
@@ -13304,10 +13301,10 @@
         <v>277</v>
       </c>
       <c r="F62" s="7"/>
-      <c r="G62" s="70" t="s">
+      <c r="G62" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="H62" s="73" t="s">
+      <c r="H62" s="72" t="s">
         <v>278</v>
       </c>
       <c r="I62" s="7"/>
@@ -13322,10 +13319,10 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="71" t="s">
+      <c r="A63" s="70" t="s">
         <v>279</v>
       </c>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C63" s="4"/>
@@ -13346,31 +13343,31 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="76" t="s">
+      <c r="A64" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="B64" s="45" t="s">
+      <c r="B64" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="78" t="s">
+      <c r="F64" s="76"/>
+      <c r="G64" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H64" s="78" t="s">
+      <c r="H64" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
@@ -13380,10 +13377,10 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="47" t="s">
+      <c r="A65" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="47" t="s">
         <v>284</v>
       </c>
       <c r="C65" s="4"/>
@@ -13404,24 +13401,24 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="53" t="s">
         <v>286</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>287</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="63" t="s">
+      <c r="E66" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="F66" s="79"/>
-      <c r="G66" s="63" t="s">
+      <c r="F66" s="78"/>
+      <c r="G66" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="H66" s="63" t="s">
+      <c r="H66" s="62" t="s">
         <v>290</v>
       </c>
       <c r="I66" s="7"/>
@@ -13436,24 +13433,24 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="B67" s="54" t="s">
+      <c r="B67" s="53" t="s">
         <v>292</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="63" t="s">
+      <c r="E67" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="F67" s="79"/>
-      <c r="G67" s="63" t="s">
+      <c r="F67" s="78"/>
+      <c r="G67" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="63" t="s">
+      <c r="H67" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I67" s="7"/>
@@ -13468,27 +13465,27 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="80" t="s">
         <v>292</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="82" t="s">
+      <c r="E68" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="F68" s="83"/>
-      <c r="G68" s="84" t="s">
+      <c r="F68" s="82"/>
+      <c r="G68" s="83" t="s">
         <v>240</v>
       </c>
-      <c r="H68" s="84" t="s">
+      <c r="H68" s="83" t="s">
         <v>241</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-      <c r="K68" s="39" t="s">
+      <c r="K68" s="38" t="s">
         <v>295</v>
       </c>
       <c r="L68" s="28"/>
@@ -13500,24 +13497,24 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="B69" s="54" t="s">
+      <c r="B69" s="53" t="s">
         <v>297</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>293</v>
       </c>
       <c r="D69" s="4"/>
-      <c r="E69" s="63" t="s">
+      <c r="E69" s="62" t="s">
         <v>298</v>
       </c>
-      <c r="F69" s="79"/>
-      <c r="G69" s="63" t="s">
+      <c r="F69" s="78"/>
+      <c r="G69" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="63" t="s">
+      <c r="H69" s="62" t="s">
         <v>61</v>
       </c>
       <c r="I69" s="7"/>
@@ -13532,29 +13529,29 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="71" t="s">
+      <c r="A70" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E70" s="63" t="s">
+      <c r="E70" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="F70" s="79"/>
-      <c r="G70" s="63" t="s">
+      <c r="F70" s="78"/>
+      <c r="G70" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="H70" s="63" t="s">
+      <c r="H70" s="62" t="s">
         <v>301</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="I70" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J70" s="7"/>
@@ -13568,29 +13565,29 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="71" t="s">
+      <c r="A71" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="62" t="s">
         <v>303</v>
       </c>
-      <c r="F71" s="79"/>
-      <c r="G71" s="63" t="s">
+      <c r="F71" s="78"/>
+      <c r="G71" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="63" t="s">
+      <c r="H71" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="I71" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J71" s="7"/>
@@ -13604,26 +13601,26 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="71" t="s">
+      <c r="A72" s="70" t="s">
         <v>305</v>
       </c>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="63" t="s">
+      <c r="E72" s="62" t="s">
         <v>306</v>
       </c>
-      <c r="F72" s="83"/>
-      <c r="G72" s="63" t="s">
+      <c r="F72" s="82"/>
+      <c r="G72" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H72" s="63" t="s">
+      <c r="H72" s="62" t="s">
         <v>307</v>
       </c>
       <c r="I72" s="7"/>
@@ -13638,26 +13635,26 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="71" t="s">
+      <c r="A73" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="B73" s="72" t="s">
+      <c r="B73" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="F73" s="83"/>
-      <c r="G73" s="63" t="s">
+      <c r="F73" s="82"/>
+      <c r="G73" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="H73" s="85" t="s">
+      <c r="H73" s="84" t="s">
         <v>310</v>
       </c>
       <c r="I73" s="7"/>
@@ -13672,28 +13669,28 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="71" t="s">
+      <c r="A74" s="70" t="s">
         <v>311</v>
       </c>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="F74" s="63" t="s">
+      <c r="F74" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="G74" s="63" t="s">
+      <c r="G74" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="85" t="s">
+      <c r="H74" s="84" t="s">
         <v>314</v>
       </c>
       <c r="I74" s="7"/>
@@ -13708,26 +13705,26 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="63" t="s">
+      <c r="F75" s="78"/>
+      <c r="G75" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="63" t="s">
+      <c r="H75" s="62" t="s">
         <v>317</v>
       </c>
       <c r="I75" s="7"/>
@@ -13742,26 +13739,26 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="71" t="s">
+      <c r="A76" s="70" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="63" t="s">
+      <c r="E76" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="F76" s="79"/>
-      <c r="G76" s="63" t="s">
+      <c r="F76" s="78"/>
+      <c r="G76" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="H76" s="85" t="s">
+      <c r="H76" s="84" t="s">
         <v>320</v>
       </c>
       <c r="I76" s="7"/>
@@ -13776,29 +13773,29 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="71" t="s">
+      <c r="A77" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="B77" s="72" t="s">
+      <c r="B77" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="F77" s="83"/>
-      <c r="G77" s="63" t="s">
+      <c r="F77" s="82"/>
+      <c r="G77" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H77" s="85" t="s">
+      <c r="H77" s="84" t="s">
         <v>323</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J77" s="7"/>
@@ -13812,26 +13809,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B78" s="72" t="s">
+      <c r="B78" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="62" t="s">
         <v>325</v>
       </c>
-      <c r="F78" s="79"/>
-      <c r="G78" s="63" t="s">
+      <c r="F78" s="78"/>
+      <c r="G78" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H78" s="85" t="s">
+      <c r="H78" s="84" t="s">
         <v>326</v>
       </c>
       <c r="I78" s="7"/>
@@ -13846,26 +13843,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="71" t="s">
+      <c r="A79" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E79" s="63" t="s">
+      <c r="E79" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="F79" s="79"/>
-      <c r="G79" s="63" t="s">
+      <c r="F79" s="78"/>
+      <c r="G79" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H79" s="63" t="s">
+      <c r="H79" s="62" t="s">
         <v>329</v>
       </c>
       <c r="I79" s="7"/>
@@ -13880,26 +13877,26 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="71" t="s">
+      <c r="A80" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="B80" s="72" t="s">
+      <c r="B80" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="D80" s="36" t="s">
+      <c r="D80" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="63" t="s">
+      <c r="E80" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="F80" s="79"/>
-      <c r="G80" s="63" t="s">
+      <c r="F80" s="78"/>
+      <c r="G80" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="H80" s="63" t="s">
+      <c r="H80" s="62" t="s">
         <v>332</v>
       </c>
       <c r="I80" s="7"/>
@@ -13914,18 +13911,18 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="B81" s="72" t="s">
+      <c r="B81" s="71" t="s">
         <v>141</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="63"/>
-      <c r="H81" s="63"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
@@ -13938,26 +13935,26 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="86" t="s">
+      <c r="A82" s="85" t="s">
         <v>334</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B82" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="E82" s="63" t="s">
+      <c r="E82" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="F82" s="79"/>
-      <c r="G82" s="63" t="s">
+      <c r="F82" s="78"/>
+      <c r="G82" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H82" s="63" t="s">
+      <c r="H82" s="62" t="s">
         <v>336</v>
       </c>
       <c r="I82" s="7"/>
@@ -13972,24 +13969,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="B83" s="48" t="s">
+      <c r="B83" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="C83" s="49" t="s">
+      <c r="C83" s="48" t="s">
         <v>339</v>
       </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49" t="s">
+      <c r="D83" s="48"/>
+      <c r="E83" s="48" t="s">
         <v>340</v>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="49" t="s">
+      <c r="F83" s="58"/>
+      <c r="G83" s="48" t="s">
         <v>341</v>
       </c>
-      <c r="H83" s="49" t="s">
+      <c r="H83" s="48" t="s">
         <v>342</v>
       </c>
       <c r="I83" s="7"/>
@@ -14004,24 +14001,24 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="87" t="s">
+      <c r="A84" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="87" t="s">
         <v>338</v>
       </c>
-      <c r="C84" s="89" t="s">
+      <c r="C84" s="88" t="s">
         <v>339</v>
       </c>
-      <c r="D84" s="89"/>
-      <c r="E84" s="90" t="s">
+      <c r="D84" s="88"/>
+      <c r="E84" s="89" t="s">
         <v>340</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="89" t="s">
+      <c r="F84" s="36"/>
+      <c r="G84" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="H84" s="89" t="s">
+      <c r="H84" s="88" t="s">
         <v>344</v>
       </c>
       <c r="I84" s="7"/>
@@ -14036,16 +14033,16 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="40" t="s">
+      <c r="A85" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="D85" s="36" t="s">
+      <c r="D85" s="35" t="s">
         <v>348</v>
       </c>
       <c r="E85" s="4" t="s">
@@ -14055,7 +14052,7 @@
       <c r="G85" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="H85" s="35" t="s">
         <v>351</v>
       </c>
       <c r="I85" s="7"/>
@@ -14070,10 +14067,10 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="39" t="s">
         <v>345</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="40" t="s">
         <v>352</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -14082,18 +14079,18 @@
       <c r="D86" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E86" s="42" t="s">
+      <c r="E86" s="41" t="s">
         <v>349</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="H86" s="36" t="s">
+      <c r="H86" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
       <c r="K86" s="7"/>
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
@@ -14104,31 +14101,31 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="B87" s="48"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="38" t="s">
         <v>355</v>
       </c>
       <c r="F87" s="7"/>
-      <c r="G87" s="39" t="s">
+      <c r="G87" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="I87" s="39"/>
-      <c r="J87" s="39"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
       <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="34" t="s">
+      <c r="A88" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="90" t="s">
         <v>359</v>
       </c>
       <c r="C88" s="4"/>
@@ -14142,27 +14139,27 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="40" t="s">
         <v>361</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="B90" s="48" t="s">
+      <c r="B90" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C90" s="4" t="s">
@@ -14171,56 +14168,56 @@
       <c r="D90" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="F90" s="36"/>
-      <c r="G90" s="36" t="s">
+      <c r="F90" s="35"/>
+      <c r="G90" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="H90" s="36" t="s">
+      <c r="H90" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="I90" s="39" t="s">
+      <c r="I90" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
     </row>
     <row r="91">
-      <c r="A91" s="51" t="s">
+      <c r="A91" s="50" t="s">
         <v>367</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="C91" s="62" t="s">
+      <c r="C91" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="61" t="s">
         <v>370</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E91" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="F91" s="62"/>
-      <c r="G91" s="46" t="s">
+      <c r="F91" s="61"/>
+      <c r="G91" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="H91" s="46" t="s">
+      <c r="H91" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="I91" s="61" t="s">
+      <c r="I91" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="J91" s="57"/>
+      <c r="J91" s="56"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="B92" s="48" t="s">
+      <c r="B92" s="47" t="s">
         <v>375</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -14229,14 +14226,14 @@
       <c r="D92" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="E92" s="39" t="s">
+      <c r="E92" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39" t="s">
+      <c r="F92" s="38"/>
+      <c r="G92" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="H92" s="84" t="s">
+      <c r="H92" s="83" t="s">
         <v>380</v>
       </c>
       <c r="I92" s="7"/>
@@ -14244,10 +14241,10 @@
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="53" t="s">
+      <c r="A93" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="B93" s="54" t="s">
+      <c r="B93" s="53" t="s">
         <v>382</v>
       </c>
       <c r="C93" s="7" t="s">
@@ -14256,23 +14253,23 @@
       <c r="D93" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E93" s="39" t="s">
+      <c r="E93" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-      <c r="K93" s="39" t="s">
+      <c r="K93" s="38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="47" t="s">
+      <c r="A94" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B94" s="48" t="s">
+      <c r="B94" s="47" t="s">
         <v>388</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -14281,14 +14278,14 @@
       <c r="D94" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="E94" s="36" t="s">
+      <c r="E94" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36" t="s">
+      <c r="F94" s="35"/>
+      <c r="G94" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="H94" s="36" t="s">
+      <c r="H94" s="35" t="s">
         <v>393</v>
       </c>
       <c r="I94" s="7"/>
@@ -14296,39 +14293,39 @@
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="37" t="s">
+      <c r="E95" s="36" t="s">
         <v>397</v>
       </c>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37" t="s">
+      <c r="F95" s="36"/>
+      <c r="G95" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="H95" s="49" t="s">
+      <c r="H95" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="I95" s="39" t="s">
+      <c r="I95" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J95" s="7"/>
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B96" s="47" t="s">
         <v>400</v>
       </c>
       <c r="C96" s="4"/>
@@ -14342,10 +14339,10 @@
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="53" t="s">
         <v>402</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -14369,13 +14366,13 @@
       <c r="K97" s="7"/>
     </row>
     <row r="98">
-      <c r="A98" s="53" t="s">
+      <c r="A98" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="B98" s="54" t="s">
+      <c r="B98" s="53" t="s">
         <v>409</v>
       </c>
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="35" t="s">
         <v>238</v>
       </c>
       <c r="D98" s="4"/>
@@ -14383,10 +14380,10 @@
         <v>410</v>
       </c>
       <c r="F98" s="4"/>
-      <c r="G98" s="36" t="s">
+      <c r="G98" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="H98" s="36" t="s">
+      <c r="H98" s="35" t="s">
         <v>412</v>
       </c>
       <c r="I98" s="7"/>
@@ -14394,16 +14391,16 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="B99" s="48" t="s">
+      <c r="B99" s="47" t="s">
         <v>414</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="7"/>
@@ -14411,10 +14408,10 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="B100" s="54" t="s">
+      <c r="B100" s="53" t="s">
         <v>416</v>
       </c>
       <c r="C100" s="4"/>
@@ -14425,22 +14422,22 @@
       <c r="H100" s="4"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-      <c r="K100" s="59" t="s">
+      <c r="K100" s="58" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="71" t="s">
+      <c r="A101" s="70" t="s">
         <v>418</v>
       </c>
-      <c r="B101" s="72" t="s">
+      <c r="B101" s="71" t="s">
         <v>419</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E101" s="92" t="s">
+      <c r="E101" s="91" t="s">
         <v>421</v>
       </c>
       <c r="F101" s="4"/>
@@ -14455,14 +14452,14 @@
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="71" t="s">
+      <c r="A102" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="B102" s="72" t="s">
+      <c r="B102" s="71" t="s">
         <v>425</v>
       </c>
       <c r="C102" s="4"/>
-      <c r="D102" s="93" t="s">
+      <c r="D102" s="92" t="s">
         <v>426</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -14480,10 +14477,10 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="71" t="s">
+      <c r="A103" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="B103" s="72" t="s">
+      <c r="B103" s="71" t="s">
         <v>431</v>
       </c>
       <c r="C103" s="4"/>
@@ -14497,7 +14494,7 @@
       <c r="G103" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="H103" s="94" t="s">
+      <c r="H103" s="93" t="s">
         <v>433</v>
       </c>
       <c r="I103" s="7"/>
@@ -14505,10 +14502,10 @@
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="53" t="s">
+      <c r="A104" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B104" s="53" t="s">
         <v>435</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -14522,7 +14519,7 @@
       <c r="G104" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H104" s="94" t="s">
+      <c r="H104" s="93" t="s">
         <v>438</v>
       </c>
       <c r="I104" s="7"/>
@@ -14530,10 +14527,10 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="53" t="s">
+      <c r="A105" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="B105" s="54" t="s">
+      <c r="B105" s="53" t="s">
         <v>440</v>
       </c>
       <c r="C105" s="4" t="s">
@@ -14547,7 +14544,7 @@
       <c r="G105" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="H105" s="94" t="s">
+      <c r="H105" s="93" t="s">
         <v>443</v>
       </c>
       <c r="I105" s="7"/>
@@ -14555,41 +14552,41 @@
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="40" t="s">
+      <c r="A106" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="95" t="s">
+      <c r="E106" s="94" t="s">
         <v>445</v>
       </c>
       <c r="F106" s="7"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="96" t="s">
+      <c r="A107" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="B107" s="97" t="s">
+      <c r="B107" s="96" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
-      <c r="E107" s="42" t="s">
+      <c r="E107" s="41" t="s">
         <v>445</v>
       </c>
       <c r="F107" s="4"/>
-      <c r="G107" s="63" t="s">
+      <c r="G107" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H107" s="63" t="s">
+      <c r="H107" s="62" t="s">
         <v>447</v>
       </c>
       <c r="I107" s="7"/>
@@ -14597,68 +14594,68 @@
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="B108" s="48" t="s">
+      <c r="B108" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="48" t="s">
         <v>363</v>
       </c>
-      <c r="D108" s="49" t="s">
+      <c r="D108" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E108" s="49" t="s">
+      <c r="E108" s="48" t="s">
         <v>449</v>
       </c>
-      <c r="F108" s="49"/>
-      <c r="G108" s="37" t="s">
+      <c r="F108" s="48"/>
+      <c r="G108" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="H108" s="49" t="s">
+      <c r="H108" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="I108" s="39" t="s">
+      <c r="I108" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="53" t="s">
+      <c r="A109" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="B109" s="54" t="s">
+      <c r="B109" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="48" t="s">
         <v>454</v>
       </c>
-      <c r="D109" s="59" t="s">
+      <c r="D109" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="E109" s="59" t="s">
+      <c r="E109" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="58" t="s">
+      <c r="F109" s="58"/>
+      <c r="G109" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="H109" s="59" t="s">
+      <c r="H109" s="58" t="s">
         <v>458</v>
       </c>
-      <c r="I109" s="39" t="s">
+      <c r="I109" s="38" t="s">
         <v>79</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="47" t="s">
+      <c r="A110" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="B110" s="48" t="s">
+      <c r="B110" s="47" t="s">
         <v>460</v>
       </c>
       <c r="C110" s="4"/>
@@ -14672,10 +14669,10 @@
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="53" t="s">
         <v>375</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -14684,14 +14681,14 @@
       <c r="D111" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36" t="s">
+      <c r="F111" s="35"/>
+      <c r="G111" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="H111" s="36" t="s">
+      <c r="H111" s="35" t="s">
         <v>464</v>
       </c>
       <c r="I111" s="7"/>
@@ -14699,10 +14696,10 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="53" t="s">
+      <c r="A112" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="B112" s="54" t="s">
+      <c r="B112" s="53" t="s">
         <v>382</v>
       </c>
       <c r="C112" s="7" t="s">
@@ -14711,23 +14708,23 @@
       <c r="D112" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="E112" s="39" t="s">
+      <c r="E112" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="F112" s="39"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-      <c r="K112" s="39" t="s">
+      <c r="K112" s="38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="47" t="s">
+      <c r="A113" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="B113" s="48" t="s">
+      <c r="B113" s="47" t="s">
         <v>468</v>
       </c>
       <c r="C113" s="4"/>
@@ -14741,10 +14738,10 @@
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="53" t="s">
+      <c r="A114" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="B114" s="54" t="s">
+      <c r="B114" s="53" t="s">
         <v>94</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -14753,16 +14750,16 @@
       <c r="D114" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="E114" s="36" t="s">
+      <c r="E114" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="F114" s="36" t="s">
+      <c r="F114" s="35" t="s">
         <v>473</v>
       </c>
-      <c r="G114" s="37" t="s">
+      <c r="G114" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="H114" s="98" t="s">
+      <c r="H114" s="97" t="s">
         <v>475</v>
       </c>
       <c r="I114" s="7"/>
@@ -14770,114 +14767,114 @@
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="53" t="s">
+      <c r="A115" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="53" t="s">
         <v>477</v>
       </c>
-      <c r="C115" s="49" t="s">
+      <c r="C115" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="D115" s="49" t="s">
+      <c r="D115" s="48" t="s">
         <v>479</v>
       </c>
-      <c r="E115" s="36" t="s">
+      <c r="E115" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="F115" s="36"/>
-      <c r="G115" s="37" t="s">
+      <c r="F115" s="35"/>
+      <c r="G115" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="H115" s="37" t="s">
+      <c r="H115" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="I115" s="39" t="s">
+      <c r="I115" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="C116" s="59" t="s">
+      <c r="C116" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="D116" s="59" t="s">
+      <c r="D116" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="39" t="s">
+      <c r="E116" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="F116" s="39"/>
-      <c r="G116" s="36" t="s">
+      <c r="F116" s="38"/>
+      <c r="G116" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="H116" s="33" t="s">
+      <c r="H116" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="I116" s="39" t="s">
+      <c r="I116" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="B117" s="48" t="s">
+      <c r="B117" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="C117" s="49" t="s">
+      <c r="C117" s="48" t="s">
         <v>396</v>
       </c>
-      <c r="D117" s="49" t="s">
+      <c r="D117" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E117" s="42" t="s">
+      <c r="E117" s="41" t="s">
         <v>485</v>
       </c>
-      <c r="F117" s="36"/>
-      <c r="G117" s="36" t="s">
+      <c r="F117" s="35"/>
+      <c r="G117" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="H117" s="99" t="s">
+      <c r="H117" s="98" t="s">
         <v>488</v>
       </c>
-      <c r="I117" s="39" t="s">
+      <c r="I117" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="B118" s="48" t="s">
+      <c r="B118" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="58"/>
-      <c r="E118" s="39"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="38"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="53" t="s">
+      <c r="A119" s="52" t="s">
         <v>491</v>
       </c>
-      <c r="B119" s="54" t="s">
+      <c r="B119" s="53" t="s">
         <v>492</v>
       </c>
       <c r="C119" s="4" t="s">
@@ -14886,14 +14883,14 @@
       <c r="D119" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="E119" s="36" t="s">
+      <c r="E119" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37" t="s">
+      <c r="F119" s="36"/>
+      <c r="G119" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="H119" s="98" t="s">
+      <c r="H119" s="97" t="s">
         <v>497</v>
       </c>
       <c r="I119" s="7"/>
@@ -14901,26 +14898,26 @@
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="80" t="s">
+      <c r="A120" s="79" t="s">
         <v>491</v>
       </c>
-      <c r="B120" s="81" t="s">
+      <c r="B120" s="80" t="s">
         <v>492</v>
       </c>
-      <c r="C120" s="100" t="s">
+      <c r="C120" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="D120" s="100" t="s">
+      <c r="D120" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="E120" s="42" t="s">
+      <c r="E120" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="F120" s="49"/>
-      <c r="G120" s="36" t="s">
+      <c r="F120" s="48"/>
+      <c r="G120" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="H120" s="101" t="s">
+      <c r="H120" s="100" t="s">
         <v>499</v>
       </c>
       <c r="I120" s="7"/>
@@ -14928,68 +14925,68 @@
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="71" t="s">
+      <c r="A121" s="70" t="s">
         <v>500</v>
       </c>
-      <c r="B121" s="72" t="s">
+      <c r="B121" s="71" t="s">
         <v>501</v>
       </c>
-      <c r="C121" s="59" t="s">
+      <c r="C121" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="D121" s="59" t="s">
+      <c r="D121" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="E121" s="36" t="s">
+      <c r="E121" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="F121" s="49"/>
-      <c r="G121" s="36" t="s">
+      <c r="F121" s="48"/>
+      <c r="G121" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="H121" s="36" t="s">
+      <c r="H121" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="I121" s="39" t="s">
+      <c r="I121" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="71" t="s">
+      <c r="A122" s="70" t="s">
         <v>507</v>
       </c>
-      <c r="B122" s="72" t="s">
+      <c r="B122" s="71" t="s">
         <v>508</v>
       </c>
-      <c r="C122" s="59" t="s">
+      <c r="C122" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="D122" s="59" t="s">
+      <c r="D122" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="E122" s="36" t="s">
+      <c r="E122" s="35" t="s">
         <v>511</v>
       </c>
-      <c r="F122" s="49"/>
-      <c r="G122" s="36" t="s">
+      <c r="F122" s="48"/>
+      <c r="G122" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="H122" s="36" t="s">
+      <c r="H122" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="I122" s="39" t="s">
+      <c r="I122" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="52" t="s">
         <v>513</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="53" t="s">
         <v>514</v>
       </c>
       <c r="C123" s="7" t="s">
@@ -14998,14 +14995,14 @@
       <c r="D123" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="E123" s="36" t="s">
+      <c r="E123" s="35" t="s">
         <v>515</v>
       </c>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37" t="s">
+      <c r="F123" s="36"/>
+      <c r="G123" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="H123" s="98" t="s">
+      <c r="H123" s="97" t="s">
         <v>516</v>
       </c>
       <c r="I123" s="7"/>
@@ -15013,26 +15010,26 @@
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="80" t="s">
+      <c r="A124" s="79" t="s">
         <v>513</v>
       </c>
-      <c r="B124" s="81" t="s">
+      <c r="B124" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="C124" s="100" t="s">
+      <c r="C124" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="D124" s="100" t="s">
+      <c r="D124" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="E124" s="42" t="s">
+      <c r="E124" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="F124" s="49"/>
-      <c r="G124" s="36" t="s">
+      <c r="F124" s="48"/>
+      <c r="G124" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="H124" s="101" t="s">
+      <c r="H124" s="100" t="s">
         <v>517</v>
       </c>
       <c r="I124" s="7"/>
@@ -15040,68 +15037,68 @@
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="71" t="s">
+      <c r="A125" s="70" t="s">
         <v>518</v>
       </c>
-      <c r="B125" s="72" t="s">
+      <c r="B125" s="71" t="s">
         <v>501</v>
       </c>
-      <c r="C125" s="59" t="s">
+      <c r="C125" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="D125" s="59" t="s">
+      <c r="D125" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="E125" s="36" t="s">
+      <c r="E125" s="35" t="s">
         <v>519</v>
       </c>
-      <c r="F125" s="49"/>
-      <c r="G125" s="36" t="s">
+      <c r="F125" s="48"/>
+      <c r="G125" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="H125" s="36" t="s">
+      <c r="H125" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="I125" s="39" t="s">
+      <c r="I125" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="71" t="s">
+      <c r="A126" s="70" t="s">
         <v>520</v>
       </c>
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="71" t="s">
         <v>508</v>
       </c>
-      <c r="C126" s="59" t="s">
+      <c r="C126" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="D126" s="59" t="s">
+      <c r="D126" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="E126" s="39" t="s">
+      <c r="E126" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="F126" s="59"/>
-      <c r="G126" s="39" t="s">
+      <c r="F126" s="58"/>
+      <c r="G126" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="H126" s="39" t="s">
+      <c r="H126" s="38" t="s">
         <v>512</v>
       </c>
-      <c r="I126" s="39" t="s">
+      <c r="I126" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="53" t="s">
+      <c r="A127" s="52" t="s">
         <v>522</v>
       </c>
-      <c r="B127" s="54" t="s">
+      <c r="B127" s="53" t="s">
         <v>523</v>
       </c>
       <c r="C127" s="7" t="s">
@@ -15110,14 +15107,14 @@
       <c r="D127" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="E127" s="39" t="s">
+      <c r="E127" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="F127" s="58"/>
-      <c r="G127" s="37" t="s">
+      <c r="F127" s="57"/>
+      <c r="G127" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="H127" s="98" t="s">
+      <c r="H127" s="97" t="s">
         <v>525</v>
       </c>
       <c r="I127" s="7"/>
@@ -15125,26 +15122,26 @@
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="80" t="s">
+      <c r="A128" s="79" t="s">
         <v>522</v>
       </c>
-      <c r="B128" s="81" t="s">
+      <c r="B128" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="C128" s="100" t="s">
+      <c r="C128" s="99" t="s">
         <v>493</v>
       </c>
-      <c r="D128" s="100" t="s">
+      <c r="D128" s="99" t="s">
         <v>494</v>
       </c>
-      <c r="E128" s="42" t="s">
+      <c r="E128" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="F128" s="49"/>
-      <c r="G128" s="36" t="s">
+      <c r="F128" s="48"/>
+      <c r="G128" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="H128" s="101" t="s">
+      <c r="H128" s="100" t="s">
         <v>526</v>
       </c>
       <c r="I128" s="7"/>
@@ -15152,83 +15149,83 @@
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="71" t="s">
+      <c r="A129" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="B129" s="72" t="s">
+      <c r="B129" s="71" t="s">
         <v>508</v>
       </c>
-      <c r="C129" s="59" t="s">
+      <c r="C129" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="D129" s="59" t="s">
+      <c r="D129" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="E129" s="36" t="s">
+      <c r="E129" s="35" t="s">
         <v>528</v>
       </c>
-      <c r="F129" s="37"/>
-      <c r="G129" s="36" t="s">
+      <c r="F129" s="36"/>
+      <c r="G129" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="H129" s="36" t="s">
+      <c r="H129" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="I129" s="39" t="s">
+      <c r="I129" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="102" t="s">
+      <c r="A130" s="101" t="s">
         <v>529</v>
       </c>
-      <c r="B130" s="103" t="s">
+      <c r="B130" s="102" t="s">
         <v>530</v>
       </c>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
-      <c r="E130" s="104" t="s">
+      <c r="E130" s="103" t="s">
         <v>531</v>
       </c>
       <c r="F130" s="4"/>
-      <c r="G130" s="105" t="s">
+      <c r="G130" s="104" t="s">
         <v>496</v>
       </c>
-      <c r="H130" s="106" t="s">
+      <c r="H130" s="105" t="s">
         <v>532</v>
       </c>
-      <c r="I130" s="58"/>
-      <c r="J130" s="58"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="57"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="102" t="s">
+      <c r="A131" s="101" t="s">
         <v>529</v>
       </c>
-      <c r="B131" s="103" t="s">
+      <c r="B131" s="102" t="s">
         <v>530</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
-      <c r="E131" s="107" t="s">
+      <c r="E131" s="106" t="s">
         <v>531</v>
       </c>
       <c r="F131" s="7"/>
-      <c r="G131" s="108"/>
-      <c r="H131" s="108"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="58"/>
-      <c r="K131" s="109" t="s">
+      <c r="G131" s="107"/>
+      <c r="H131" s="107"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="108" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="47" t="s">
+      <c r="A132" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="B132" s="48" t="s">
+      <c r="B132" s="47" t="s">
         <v>535</v>
       </c>
       <c r="C132" s="7"/>
@@ -15242,10 +15239,10 @@
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="53" t="s">
+      <c r="A133" s="52" t="s">
         <v>536</v>
       </c>
-      <c r="B133" s="54" t="s">
+      <c r="B133" s="53" t="s">
         <v>402</v>
       </c>
       <c r="C133" s="7" t="s">
@@ -15258,10 +15255,10 @@
         <v>538</v>
       </c>
       <c r="F133" s="4"/>
-      <c r="G133" s="79" t="s">
+      <c r="G133" s="78" t="s">
         <v>539</v>
       </c>
-      <c r="H133" s="63" t="s">
+      <c r="H133" s="62" t="s">
         <v>540</v>
       </c>
       <c r="I133" s="7"/>
@@ -15269,10 +15266,10 @@
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="53" t="s">
+      <c r="A134" s="52" t="s">
         <v>541</v>
       </c>
-      <c r="B134" s="54" t="s">
+      <c r="B134" s="53" t="s">
         <v>409</v>
       </c>
       <c r="C134" s="7" t="s">
@@ -15283,10 +15280,10 @@
         <v>542</v>
       </c>
       <c r="F134" s="4"/>
-      <c r="G134" s="63" t="s">
+      <c r="G134" s="62" t="s">
         <v>543</v>
       </c>
-      <c r="H134" s="63" t="s">
+      <c r="H134" s="62" t="s">
         <v>544</v>
       </c>
       <c r="I134" s="7"/>
@@ -15294,10 +15291,10 @@
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="47" t="s">
+      <c r="A135" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="B135" s="48" t="s">
+      <c r="B135" s="47" t="s">
         <v>546</v>
       </c>
       <c r="C135" s="7"/>
@@ -15311,13 +15308,13 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="53" t="s">
+      <c r="A136" s="52" t="s">
         <v>547</v>
       </c>
-      <c r="B136" s="54" t="s">
+      <c r="B136" s="53" t="s">
         <v>548</v>
       </c>
-      <c r="C136" s="110" t="s">
+      <c r="C136" s="109" t="s">
         <v>549</v>
       </c>
       <c r="D136" s="7" t="s">
@@ -15327,7 +15324,7 @@
         <v>551</v>
       </c>
       <c r="F136" s="4"/>
-      <c r="G136" s="36" t="s">
+      <c r="G136" s="35" t="s">
         <v>552</v>
       </c>
       <c r="H136" s="4" t="s">
@@ -15338,11 +15335,11 @@
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="71" t="s">
+      <c r="A137" s="70" t="s">
         <v>554</v>
       </c>
-      <c r="B137" s="72"/>
-      <c r="C137" s="110"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="109"/>
       <c r="D137" s="7"/>
       <c r="E137" s="4" t="s">
         <v>555</v>
@@ -15350,7 +15347,7 @@
       <c r="F137" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="G137" s="36" t="s">
+      <c r="G137" s="35" t="s">
         <v>557</v>
       </c>
       <c r="H137" s="4" t="s">
@@ -15361,19 +15358,19 @@
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="71" t="s">
+      <c r="A138" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="B138" s="72"/>
-      <c r="C138" s="110"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="109"/>
       <c r="D138" s="7"/>
-      <c r="E138" s="42" t="s">
+      <c r="E138" s="41" t="s">
         <v>555</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="G138" s="36" t="s">
+      <c r="G138" s="35" t="s">
         <v>557</v>
       </c>
       <c r="H138" s="4" t="s">
@@ -15384,13 +15381,13 @@
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="53" t="s">
+      <c r="A139" s="52" t="s">
         <v>562</v>
       </c>
-      <c r="B139" s="54" t="s">
+      <c r="B139" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="C139" s="110" t="s">
+      <c r="C139" s="109" t="s">
         <v>564</v>
       </c>
       <c r="D139" s="7" t="s">
@@ -15400,7 +15397,7 @@
         <v>566</v>
       </c>
       <c r="F139" s="4"/>
-      <c r="G139" s="36" t="s">
+      <c r="G139" s="35" t="s">
         <v>567</v>
       </c>
       <c r="H139" s="4" t="s">
@@ -15411,13 +15408,13 @@
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="53" t="s">
+      <c r="A140" s="52" t="s">
         <v>569</v>
       </c>
-      <c r="B140" s="54" t="s">
+      <c r="B140" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="C140" s="110" t="s">
+      <c r="C140" s="109" t="s">
         <v>571</v>
       </c>
       <c r="D140" s="7" t="s">
@@ -15427,7 +15424,7 @@
         <v>573</v>
       </c>
       <c r="F140" s="4"/>
-      <c r="G140" s="36" t="s">
+      <c r="G140" s="35" t="s">
         <v>567</v>
       </c>
       <c r="H140" s="4" t="s">
@@ -15438,47 +15435,47 @@
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="102" t="s">
+      <c r="A141" s="101" t="s">
         <v>575</v>
       </c>
-      <c r="B141" s="103" t="s">
+      <c r="B141" s="102" t="s">
         <v>576</v>
       </c>
-      <c r="C141" s="111" t="s">
+      <c r="C141" s="110" t="s">
         <v>577</v>
       </c>
-      <c r="D141" s="112" t="s">
+      <c r="D141" s="111" t="s">
         <v>578</v>
       </c>
-      <c r="E141" s="37"/>
+      <c r="E141" s="36"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="58"/>
-      <c r="J141" s="58"/>
+      <c r="G141" s="36"/>
+      <c r="H141" s="36"/>
+      <c r="I141" s="57"/>
+      <c r="J141" s="57"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="112" t="s">
         <v>579</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="113" t="s">
         <v>576</v>
       </c>
-      <c r="C142" s="112" t="s">
+      <c r="C142" s="111" t="s">
         <v>577</v>
       </c>
-      <c r="D142" s="112" t="s">
+      <c r="D142" s="111" t="s">
         <v>578</v>
       </c>
-      <c r="E142" s="37" t="s">
+      <c r="E142" s="36" t="s">
         <v>580</v>
       </c>
       <c r="F142" s="7"/>
-      <c r="G142" s="115" t="s">
+      <c r="G142" s="114" t="s">
         <v>581</v>
       </c>
-      <c r="H142" s="115" t="s">
+      <c r="H142" s="114" t="s">
         <v>582</v>
       </c>
       <c r="I142" s="7"/>
@@ -15486,26 +15483,26 @@
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="113" t="s">
+      <c r="A143" s="112" t="s">
         <v>583</v>
       </c>
-      <c r="B143" s="114" t="s">
+      <c r="B143" s="113" t="s">
         <v>576</v>
       </c>
-      <c r="C143" s="112" t="s">
+      <c r="C143" s="111" t="s">
         <v>577</v>
       </c>
-      <c r="D143" s="112" t="s">
+      <c r="D143" s="111" t="s">
         <v>578</v>
       </c>
-      <c r="E143" s="37" t="s">
+      <c r="E143" s="36" t="s">
         <v>584</v>
       </c>
       <c r="F143" s="4"/>
-      <c r="G143" s="115" t="s">
+      <c r="G143" s="114" t="s">
         <v>581</v>
       </c>
-      <c r="H143" s="115" t="s">
+      <c r="H143" s="114" t="s">
         <v>585</v>
       </c>
       <c r="I143" s="7"/>
@@ -15513,26 +15510,26 @@
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="102" t="s">
+      <c r="A144" s="101" t="s">
         <v>586</v>
       </c>
-      <c r="B144" s="103" t="s">
+      <c r="B144" s="102" t="s">
         <v>587</v>
       </c>
-      <c r="C144" s="116" t="s">
+      <c r="C144" s="115" t="s">
         <v>588</v>
       </c>
-      <c r="D144" s="116" t="s">
+      <c r="D144" s="115" t="s">
         <v>589</v>
       </c>
-      <c r="E144" s="37" t="s">
+      <c r="E144" s="36" t="s">
         <v>590</v>
       </c>
       <c r="F144" s="4"/>
-      <c r="G144" s="115" t="s">
+      <c r="G144" s="114" t="s">
         <v>591</v>
       </c>
-      <c r="H144" s="115" t="s">
+      <c r="H144" s="114" t="s">
         <v>592</v>
       </c>
       <c r="I144" s="7"/>
@@ -15540,43 +15537,43 @@
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="117" t="s">
+      <c r="A145" s="116" t="s">
         <v>593</v>
       </c>
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="117" t="s">
         <v>594</v>
       </c>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
+      <c r="C145" s="57"/>
+      <c r="D145" s="57"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="105"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
+      <c r="F145" s="104"/>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="102" t="s">
+      <c r="A146" s="101" t="s">
         <v>595</v>
       </c>
-      <c r="B146" s="103" t="s">
+      <c r="B146" s="102" t="s">
         <v>596</v>
       </c>
-      <c r="C146" s="58" t="s">
+      <c r="C146" s="57" t="s">
         <v>597</v>
       </c>
-      <c r="D146" s="58" t="s">
+      <c r="D146" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="E146" s="105" t="s">
+      <c r="E146" s="104" t="s">
         <v>599</v>
       </c>
-      <c r="F146" s="105"/>
-      <c r="G146" s="105" t="s">
+      <c r="F146" s="104"/>
+      <c r="G146" s="104" t="s">
         <v>600</v>
       </c>
-      <c r="H146" s="119" t="s">
+      <c r="H146" s="118" t="s">
         <v>601</v>
       </c>
       <c r="I146" s="7"/>
@@ -15584,26 +15581,26 @@
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="102" t="s">
+      <c r="A147" s="101" t="s">
         <v>595</v>
       </c>
-      <c r="B147" s="103" t="s">
+      <c r="B147" s="102" t="s">
         <v>596</v>
       </c>
-      <c r="C147" s="58" t="s">
+      <c r="C147" s="57" t="s">
         <v>597</v>
       </c>
-      <c r="D147" s="58" t="s">
+      <c r="D147" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="E147" s="105" t="s">
+      <c r="E147" s="104" t="s">
         <v>602</v>
       </c>
-      <c r="F147" s="105"/>
-      <c r="G147" s="105" t="s">
+      <c r="F147" s="104"/>
+      <c r="G147" s="104" t="s">
         <v>600</v>
       </c>
-      <c r="H147" s="119" t="s">
+      <c r="H147" s="118" t="s">
         <v>603</v>
       </c>
       <c r="I147" s="7"/>
@@ -15611,64 +15608,64 @@
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="47" t="s">
+      <c r="A148" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="B148" s="48" t="s">
+      <c r="B148" s="47" t="s">
         <v>605</v>
       </c>
-      <c r="C148" s="59"/>
-      <c r="D148" s="59"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="49"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="53" t="s">
+      <c r="A149" s="52" t="s">
         <v>606</v>
       </c>
-      <c r="B149" s="54" t="s">
+      <c r="B149" s="53" t="s">
         <v>607</v>
       </c>
-      <c r="C149" s="59" t="s">
+      <c r="C149" s="58" t="s">
         <v>608</v>
       </c>
-      <c r="D149" s="59" t="s">
+      <c r="D149" s="58" t="s">
         <v>607</v>
       </c>
-      <c r="E149" s="49"/>
-      <c r="F149" s="36"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="35"/>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="71" t="s">
+      <c r="A150" s="70" t="s">
         <v>609</v>
       </c>
-      <c r="B150" s="72" t="s">
+      <c r="B150" s="71" t="s">
         <v>610</v>
       </c>
-      <c r="C150" s="49" t="s">
+      <c r="C150" s="48" t="s">
         <v>608</v>
       </c>
-      <c r="D150" s="59" t="s">
+      <c r="D150" s="58" t="s">
         <v>607</v>
       </c>
-      <c r="E150" s="49" t="s">
+      <c r="E150" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="F150" s="36"/>
-      <c r="G150" s="37" t="s">
+      <c r="F150" s="35"/>
+      <c r="G150" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="H150" s="98" t="s">
+      <c r="H150" s="97" t="s">
         <v>612</v>
       </c>
       <c r="I150" s="7"/>
@@ -15676,26 +15673,26 @@
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="71" t="s">
+      <c r="A151" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="B151" s="72" t="s">
+      <c r="B151" s="71" t="s">
         <v>614</v>
       </c>
-      <c r="C151" s="59" t="s">
+      <c r="C151" s="58" t="s">
         <v>608</v>
       </c>
-      <c r="D151" s="59" t="s">
+      <c r="D151" s="58" t="s">
         <v>607</v>
       </c>
-      <c r="E151" s="49" t="s">
+      <c r="E151" s="48" t="s">
         <v>615</v>
       </c>
-      <c r="F151" s="36"/>
-      <c r="G151" s="37" t="s">
+      <c r="F151" s="35"/>
+      <c r="G151" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="H151" s="49" t="s">
+      <c r="H151" s="48" t="s">
         <v>616</v>
       </c>
       <c r="I151" s="7"/>
@@ -15703,39 +15700,39 @@
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="53" t="s">
+      <c r="A152" s="52" t="s">
         <v>617</v>
       </c>
-      <c r="B152" s="54" t="s">
+      <c r="B152" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="C152" s="59" t="s">
+      <c r="C152" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="D152" s="59" t="s">
+      <c r="D152" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="E152" s="49" t="s">
+      <c r="E152" s="48" t="s">
         <v>621</v>
       </c>
-      <c r="F152" s="49"/>
-      <c r="G152" s="49" t="s">
+      <c r="F152" s="48"/>
+      <c r="G152" s="48" t="s">
         <v>591</v>
       </c>
-      <c r="H152" s="49" t="s">
+      <c r="H152" s="48" t="s">
         <v>622</v>
       </c>
-      <c r="I152" s="39" t="s">
+      <c r="I152" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
     <row r="153">
-      <c r="A153" s="47" t="s">
+      <c r="A153" s="46" t="s">
         <v>623</v>
       </c>
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="47" t="s">
         <v>624</v>
       </c>
       <c r="C153" s="7"/>
@@ -15749,47 +15746,47 @@
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="53" t="s">
+      <c r="A154" s="52" t="s">
         <v>625</v>
       </c>
-      <c r="B154" s="54" t="s">
+      <c r="B154" s="53" t="s">
         <v>626</v>
       </c>
-      <c r="C154" s="59" t="s">
+      <c r="C154" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="D154" s="59" t="s">
+      <c r="D154" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="E154" s="49"/>
-      <c r="F154" s="36"/>
-      <c r="G154" s="49"/>
-      <c r="H154" s="37"/>
+      <c r="E154" s="48"/>
+      <c r="F154" s="35"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="36"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="71" t="s">
+      <c r="A155" s="70" t="s">
         <v>629</v>
       </c>
-      <c r="B155" s="72" t="s">
+      <c r="B155" s="71" t="s">
         <v>630</v>
       </c>
-      <c r="C155" s="59" t="s">
+      <c r="C155" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="D155" s="59" t="s">
+      <c r="D155" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="E155" s="49" t="s">
+      <c r="E155" s="48" t="s">
         <v>631</v>
       </c>
-      <c r="F155" s="36"/>
-      <c r="G155" s="49" t="s">
+      <c r="F155" s="35"/>
+      <c r="G155" s="48" t="s">
         <v>632</v>
       </c>
-      <c r="H155" s="120" t="s">
+      <c r="H155" s="119" t="s">
         <v>633</v>
       </c>
       <c r="I155" s="7"/>
@@ -15797,10 +15794,10 @@
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="71" t="s">
+      <c r="A156" s="70" t="s">
         <v>634</v>
       </c>
-      <c r="B156" s="72" t="s">
+      <c r="B156" s="71" t="s">
         <v>635</v>
       </c>
       <c r="C156" s="7" t="s">
@@ -15809,14 +15806,14 @@
       <c r="D156" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="E156" s="59" t="s">
+      <c r="E156" s="58" t="s">
         <v>636</v>
       </c>
-      <c r="F156" s="39"/>
-      <c r="G156" s="49" t="s">
+      <c r="F156" s="38"/>
+      <c r="G156" s="48" t="s">
         <v>632</v>
       </c>
-      <c r="H156" s="120" t="s">
+      <c r="H156" s="119" t="s">
         <v>637</v>
       </c>
       <c r="I156" s="7"/>
@@ -15824,39 +15821,39 @@
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="53" t="s">
+      <c r="A157" s="52" t="s">
         <v>638</v>
       </c>
-      <c r="B157" s="54" t="s">
+      <c r="B157" s="53" t="s">
         <v>639</v>
       </c>
-      <c r="C157" s="59" t="s">
+      <c r="C157" s="58" t="s">
         <v>640</v>
       </c>
-      <c r="D157" s="59" t="s">
+      <c r="D157" s="58" t="s">
         <v>641</v>
       </c>
-      <c r="E157" s="42" t="s">
+      <c r="E157" s="41" t="s">
         <v>631</v>
       </c>
-      <c r="F157" s="49"/>
-      <c r="G157" s="49" t="s">
+      <c r="F157" s="48"/>
+      <c r="G157" s="48" t="s">
         <v>642</v>
       </c>
-      <c r="H157" s="120" t="s">
+      <c r="H157" s="119" t="s">
         <v>643</v>
       </c>
-      <c r="I157" s="39" t="s">
+      <c r="I157" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J157" s="7"/>
       <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="47" t="s">
+      <c r="A158" s="46" t="s">
         <v>644</v>
       </c>
-      <c r="B158" s="48" t="s">
+      <c r="B158" s="47" t="s">
         <v>645</v>
       </c>
       <c r="C158" s="7" t="s">
@@ -15865,27 +15862,27 @@
       <c r="D158" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="E158" s="36" t="s">
+      <c r="E158" s="35" t="s">
         <v>648</v>
       </c>
-      <c r="F158" s="36"/>
-      <c r="G158" s="36" t="s">
+      <c r="F158" s="35"/>
+      <c r="G158" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="H158" s="121" t="s">
+      <c r="H158" s="120" t="s">
         <v>649</v>
       </c>
-      <c r="I158" s="39" t="s">
+      <c r="I158" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J158" s="7"/>
       <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="40" t="s">
+      <c r="A159" s="39" t="s">
         <v>650</v>
       </c>
-      <c r="B159" s="41" t="s">
+      <c r="B159" s="40" t="s">
         <v>651</v>
       </c>
       <c r="C159" s="7" t="s">
@@ -15896,7 +15893,7 @@
         <v>653</v>
       </c>
       <c r="F159" s="4"/>
-      <c r="G159" s="36" t="s">
+      <c r="G159" s="35" t="s">
         <v>654</v>
       </c>
       <c r="H159" s="4" t="s">
@@ -15904,464 +15901,464 @@
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
-      <c r="K159" s="39" t="s">
+      <c r="K159" s="38" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="34" t="s">
+      <c r="A160" s="33" t="s">
         <v>657</v>
       </c>
-      <c r="B160" s="91" t="s">
+      <c r="B160" s="90" t="s">
         <v>658</v>
       </c>
-      <c r="C160" s="58"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="49"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="49"/>
-      <c r="H160" s="49"/>
+      <c r="C160" s="57"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="48"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="48"/>
+      <c r="H160" s="48"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="40" t="s">
+      <c r="A161" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="B161" s="41" t="s">
+      <c r="B161" s="40" t="s">
         <v>660</v>
       </c>
-      <c r="C161" s="58"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="49"/>
-      <c r="H161" s="49"/>
+      <c r="C161" s="57"/>
+      <c r="D161" s="57"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="48"/>
+      <c r="H161" s="48"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
-      <c r="A162" s="117" t="s">
+      <c r="A162" s="116" t="s">
         <v>661</v>
       </c>
-      <c r="B162" s="118" t="s">
+      <c r="B162" s="117" t="s">
         <v>662</v>
       </c>
-      <c r="C162" s="58"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="37" t="s">
+      <c r="C162" s="57"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="36" t="s">
         <v>663</v>
       </c>
-      <c r="F162" s="37"/>
-      <c r="G162" s="122" t="s">
+      <c r="F162" s="36"/>
+      <c r="G162" s="121" t="s">
         <v>664</v>
       </c>
-      <c r="H162" s="123" t="s">
+      <c r="H162" s="122" t="s">
         <v>665</v>
       </c>
-      <c r="I162" s="116" t="s">
+      <c r="I162" s="115" t="s">
         <v>666</v>
       </c>
-      <c r="J162" s="116" t="s">
+      <c r="J162" s="115" t="s">
         <v>667</v>
       </c>
-      <c r="K162" s="124" t="s">
+      <c r="K162" s="123" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="102" t="s">
+      <c r="A163" s="101" t="s">
         <v>669</v>
       </c>
-      <c r="B163" s="103" t="s">
+      <c r="B163" s="102" t="s">
         <v>670</v>
       </c>
-      <c r="C163" s="125" t="s">
+      <c r="C163" s="124" t="s">
         <v>671</v>
       </c>
-      <c r="D163" s="116" t="s">
+      <c r="D163" s="115" t="s">
         <v>672</v>
       </c>
-      <c r="E163" s="58" t="s">
+      <c r="E163" s="57" t="s">
         <v>673</v>
       </c>
-      <c r="F163" s="58"/>
-      <c r="G163" s="126" t="s">
+      <c r="F163" s="57"/>
+      <c r="G163" s="125" t="s">
         <v>674</v>
       </c>
-      <c r="H163" s="127" t="s">
+      <c r="H163" s="126" t="s">
         <v>675</v>
       </c>
-      <c r="I163" s="116" t="s">
+      <c r="I163" s="115" t="s">
         <v>676</v>
       </c>
-      <c r="J163" s="116" t="s">
+      <c r="J163" s="115" t="s">
         <v>677</v>
       </c>
-      <c r="K163" s="124" t="s">
+      <c r="K163" s="123" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="117" t="s">
+      <c r="A164" s="116" t="s">
         <v>678</v>
       </c>
-      <c r="B164" s="118" t="s">
+      <c r="B164" s="117" t="s">
         <v>679</v>
       </c>
-      <c r="C164" s="125" t="s">
+      <c r="C164" s="124" t="s">
         <v>680</v>
       </c>
-      <c r="D164" s="125" t="s">
+      <c r="D164" s="124" t="s">
         <v>681</v>
       </c>
-      <c r="E164" s="37" t="s">
+      <c r="E164" s="36" t="s">
         <v>682</v>
       </c>
-      <c r="F164" s="37"/>
-      <c r="G164" s="122" t="s">
+      <c r="F164" s="36"/>
+      <c r="G164" s="121" t="s">
         <v>664</v>
       </c>
-      <c r="H164" s="123" t="s">
+      <c r="H164" s="122" t="s">
         <v>683</v>
       </c>
-      <c r="I164" s="116" t="s">
+      <c r="I164" s="115" t="s">
         <v>684</v>
       </c>
-      <c r="J164" s="116" t="s">
+      <c r="J164" s="115" t="s">
         <v>667</v>
       </c>
-      <c r="K164" s="124" t="s">
+      <c r="K164" s="123" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="102" t="s">
+      <c r="A165" s="101" t="s">
         <v>685</v>
       </c>
-      <c r="B165" s="103" t="s">
+      <c r="B165" s="102" t="s">
         <v>686</v>
       </c>
-      <c r="C165" s="128"/>
-      <c r="D165" s="128"/>
-      <c r="E165" s="107" t="s">
+      <c r="C165" s="127"/>
+      <c r="D165" s="127"/>
+      <c r="E165" s="106" t="s">
         <v>682</v>
       </c>
-      <c r="F165" s="58"/>
-      <c r="G165" s="108"/>
-      <c r="H165" s="108"/>
-      <c r="I165" s="58" t="s">
+      <c r="F165" s="57"/>
+      <c r="G165" s="107"/>
+      <c r="H165" s="107"/>
+      <c r="I165" s="57" t="s">
         <v>687</v>
       </c>
-      <c r="J165" s="58" t="s">
+      <c r="J165" s="57" t="s">
         <v>688</v>
       </c>
-      <c r="K165" s="124" t="s">
+      <c r="K165" s="123" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="102" t="s">
+      <c r="A166" s="101" t="s">
         <v>690</v>
       </c>
-      <c r="B166" s="103" t="s">
+      <c r="B166" s="102" t="s">
         <v>691</v>
       </c>
-      <c r="C166" s="105" t="s">
+      <c r="C166" s="104" t="s">
         <v>671</v>
       </c>
-      <c r="D166" s="115" t="s">
+      <c r="D166" s="114" t="s">
         <v>672</v>
       </c>
-      <c r="E166" s="37" t="s">
+      <c r="E166" s="36" t="s">
         <v>692</v>
       </c>
-      <c r="F166" s="37"/>
-      <c r="G166" s="122" t="s">
+      <c r="F166" s="36"/>
+      <c r="G166" s="121" t="s">
         <v>674</v>
       </c>
-      <c r="H166" s="122" t="s">
+      <c r="H166" s="121" t="s">
         <v>675</v>
       </c>
-      <c r="I166" s="58" t="s">
+      <c r="I166" s="57" t="s">
         <v>693</v>
       </c>
-      <c r="J166" s="58" t="s">
+      <c r="J166" s="57" t="s">
         <v>677</v>
       </c>
-      <c r="K166" s="124" t="s">
+      <c r="K166" s="123" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="102" t="s">
+      <c r="A167" s="101" t="s">
         <v>694</v>
       </c>
-      <c r="B167" s="103" t="s">
+      <c r="B167" s="102" t="s">
         <v>695</v>
       </c>
-      <c r="C167" s="112" t="s">
+      <c r="C167" s="111" t="s">
         <v>671</v>
       </c>
-      <c r="D167" s="112" t="s">
+      <c r="D167" s="111" t="s">
         <v>672</v>
       </c>
-      <c r="E167" s="37" t="s">
+      <c r="E167" s="36" t="s">
         <v>696</v>
       </c>
-      <c r="F167" s="37"/>
-      <c r="G167" s="122" t="s">
+      <c r="F167" s="36"/>
+      <c r="G167" s="121" t="s">
         <v>697</v>
       </c>
-      <c r="H167" s="123" t="s">
+      <c r="H167" s="122" t="s">
         <v>698</v>
       </c>
-      <c r="I167" s="58" t="s">
+      <c r="I167" s="57" t="s">
         <v>693</v>
       </c>
-      <c r="J167" s="58" t="s">
+      <c r="J167" s="57" t="s">
         <v>699</v>
       </c>
-      <c r="K167" s="124" t="s">
+      <c r="K167" s="123" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="117" t="s">
+      <c r="A168" s="116" t="s">
         <v>700</v>
       </c>
-      <c r="B168" s="118" t="s">
+      <c r="B168" s="117" t="s">
         <v>701</v>
       </c>
-      <c r="C168" s="125" t="s">
+      <c r="C168" s="124" t="s">
         <v>680</v>
       </c>
-      <c r="D168" s="125" t="s">
+      <c r="D168" s="124" t="s">
         <v>681</v>
       </c>
-      <c r="E168" s="129" t="s">
+      <c r="E168" s="128" t="s">
         <v>702</v>
       </c>
-      <c r="F168" s="129"/>
-      <c r="G168" s="122" t="s">
+      <c r="F168" s="128"/>
+      <c r="G168" s="121" t="s">
         <v>664</v>
       </c>
-      <c r="H168" s="123" t="s">
+      <c r="H168" s="122" t="s">
         <v>703</v>
       </c>
-      <c r="I168" s="116" t="s">
+      <c r="I168" s="115" t="s">
         <v>704</v>
       </c>
-      <c r="J168" s="116" t="s">
+      <c r="J168" s="115" t="s">
         <v>667</v>
       </c>
-      <c r="K168" s="124" t="s">
+      <c r="K168" s="123" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="102" t="s">
+      <c r="A169" s="101" t="s">
         <v>705</v>
       </c>
-      <c r="B169" s="103" t="s">
+      <c r="B169" s="102" t="s">
         <v>686</v>
       </c>
-      <c r="C169" s="128"/>
-      <c r="D169" s="128"/>
-      <c r="E169" s="130" t="s">
+      <c r="C169" s="127"/>
+      <c r="D169" s="127"/>
+      <c r="E169" s="129" t="s">
         <v>702</v>
       </c>
-      <c r="F169" s="129"/>
-      <c r="G169" s="131"/>
-      <c r="H169" s="131"/>
-      <c r="I169" s="58" t="s">
+      <c r="F169" s="128"/>
+      <c r="G169" s="130"/>
+      <c r="H169" s="130"/>
+      <c r="I169" s="57" t="s">
         <v>706</v>
       </c>
-      <c r="J169" s="58" t="s">
+      <c r="J169" s="57" t="s">
         <v>688</v>
       </c>
-      <c r="K169" s="124" t="s">
+      <c r="K169" s="123" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="102" t="s">
+      <c r="A170" s="101" t="s">
         <v>707</v>
       </c>
-      <c r="B170" s="103" t="s">
+      <c r="B170" s="102" t="s">
         <v>691</v>
       </c>
-      <c r="C170" s="125" t="s">
+      <c r="C170" s="124" t="s">
         <v>671</v>
       </c>
-      <c r="D170" s="116" t="s">
+      <c r="D170" s="115" t="s">
         <v>672</v>
       </c>
-      <c r="E170" s="129" t="s">
+      <c r="E170" s="128" t="s">
         <v>708</v>
       </c>
-      <c r="F170" s="129"/>
-      <c r="G170" s="126" t="s">
+      <c r="F170" s="128"/>
+      <c r="G170" s="125" t="s">
         <v>674</v>
       </c>
-      <c r="H170" s="126" t="s">
+      <c r="H170" s="125" t="s">
         <v>675</v>
       </c>
-      <c r="I170" s="58" t="s">
+      <c r="I170" s="57" t="s">
         <v>709</v>
       </c>
-      <c r="J170" s="58" t="s">
+      <c r="J170" s="57" t="s">
         <v>677</v>
       </c>
-      <c r="K170" s="124" t="s">
+      <c r="K170" s="123" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="102" t="s">
+      <c r="A171" s="101" t="s">
         <v>710</v>
       </c>
-      <c r="B171" s="103" t="s">
+      <c r="B171" s="102" t="s">
         <v>711</v>
       </c>
-      <c r="C171" s="112" t="s">
+      <c r="C171" s="111" t="s">
         <v>671</v>
       </c>
-      <c r="D171" s="111" t="s">
+      <c r="D171" s="110" t="s">
         <v>672</v>
       </c>
-      <c r="E171" s="129" t="s">
+      <c r="E171" s="128" t="s">
         <v>712</v>
       </c>
-      <c r="F171" s="129"/>
-      <c r="G171" s="122" t="s">
+      <c r="F171" s="128"/>
+      <c r="G171" s="121" t="s">
         <v>697</v>
       </c>
-      <c r="H171" s="122" t="s">
+      <c r="H171" s="121" t="s">
         <v>698</v>
       </c>
-      <c r="I171" s="58" t="s">
+      <c r="I171" s="57" t="s">
         <v>709</v>
       </c>
-      <c r="J171" s="58" t="s">
+      <c r="J171" s="57" t="s">
         <v>699</v>
       </c>
-      <c r="K171" s="124" t="s">
+      <c r="K171" s="123" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="47" t="s">
+      <c r="A172" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="B172" s="48" t="s">
+      <c r="B172" s="47" t="s">
         <v>714</v>
       </c>
-      <c r="C172" s="58"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="132"/>
-      <c r="F172" s="129"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="59"/>
+      <c r="C172" s="57"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="131"/>
+      <c r="F172" s="128"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="58"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="53" t="s">
+      <c r="A173" s="52" t="s">
         <v>715</v>
       </c>
-      <c r="B173" s="54" t="s">
+      <c r="B173" s="53" t="s">
         <v>716</v>
       </c>
-      <c r="C173" s="58" t="s">
+      <c r="C173" s="57" t="s">
         <v>717</v>
       </c>
-      <c r="D173" s="58"/>
-      <c r="E173" s="132" t="s">
+      <c r="D173" s="57"/>
+      <c r="E173" s="131" t="s">
         <v>718</v>
       </c>
-      <c r="F173" s="129"/>
-      <c r="G173" s="49"/>
+      <c r="F173" s="128"/>
+      <c r="G173" s="48"/>
       <c r="H173" s="4"/>
-      <c r="I173" s="39" t="s">
+      <c r="I173" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J173" s="7"/>
-      <c r="K173" s="39" t="s">
+      <c r="K173" s="38" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="47" t="s">
+      <c r="A174" s="46" t="s">
         <v>720</v>
       </c>
-      <c r="B174" s="48" t="s">
+      <c r="B174" s="47" t="s">
         <v>721</v>
       </c>
-      <c r="C174" s="58"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="132"/>
-      <c r="F174" s="129"/>
-      <c r="G174" s="49"/>
-      <c r="H174" s="49"/>
+      <c r="C174" s="57"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="131"/>
+      <c r="F174" s="128"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="53" t="s">
+      <c r="A175" s="52" t="s">
         <v>722</v>
       </c>
-      <c r="B175" s="54" t="s">
+      <c r="B175" s="53" t="s">
         <v>723</v>
       </c>
-      <c r="C175" s="58" t="s">
+      <c r="C175" s="57" t="s">
         <v>724</v>
       </c>
-      <c r="D175" s="58"/>
-      <c r="E175" s="132" t="s">
+      <c r="D175" s="57"/>
+      <c r="E175" s="131" t="s">
         <v>725</v>
       </c>
-      <c r="F175" s="129"/>
-      <c r="G175" s="49"/>
-      <c r="H175" s="49"/>
+      <c r="F175" s="128"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
-      <c r="K175" s="39" t="s">
+      <c r="K175" s="38" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="53" t="s">
+      <c r="A176" s="52" t="s">
         <v>726</v>
       </c>
-      <c r="B176" s="54" t="s">
+      <c r="B176" s="53" t="s">
         <v>727</v>
       </c>
-      <c r="C176" s="58" t="s">
+      <c r="C176" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="D176" s="58"/>
-      <c r="E176" s="132" t="s">
+      <c r="D176" s="57"/>
+      <c r="E176" s="131" t="s">
         <v>729</v>
       </c>
-      <c r="F176" s="129"/>
-      <c r="G176" s="49"/>
-      <c r="H176" s="49"/>
+      <c r="F176" s="128"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-      <c r="K176" s="39" t="s">
+      <c r="K176" s="38" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="40" t="s">
+      <c r="A177" s="39" t="s">
         <v>730</v>
       </c>
-      <c r="B177" s="41" t="s">
+      <c r="B177" s="40" t="s">
         <v>731</v>
       </c>
       <c r="C177" s="7"/>
@@ -16375,10 +16372,10 @@
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="47" t="s">
+      <c r="A178" s="46" t="s">
         <v>732</v>
       </c>
-      <c r="B178" s="48" t="s">
+      <c r="B178" s="47" t="s">
         <v>733</v>
       </c>
       <c r="C178" s="7"/>
@@ -16392,10 +16389,10 @@
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="53" t="s">
+      <c r="A179" s="52" t="s">
         <v>734</v>
       </c>
-      <c r="B179" s="54" t="s">
+      <c r="B179" s="53" t="s">
         <v>735</v>
       </c>
       <c r="C179" s="4" t="s">
@@ -16408,21 +16405,21 @@
       <c r="F179" s="18"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
-      <c r="I179" s="112" t="s">
+      <c r="I179" s="111" t="s">
         <v>737</v>
       </c>
-      <c r="J179" s="112" t="s">
+      <c r="J179" s="111" t="s">
         <v>738</v>
       </c>
-      <c r="K179" s="39" t="s">
+      <c r="K179" s="38" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="102" t="s">
+      <c r="A180" s="101" t="s">
         <v>739</v>
       </c>
-      <c r="B180" s="54" t="s">
+      <c r="B180" s="53" t="s">
         <v>740</v>
       </c>
       <c r="C180" s="7" t="s">
@@ -16435,21 +16432,21 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="133" t="s">
+      <c r="I180" s="132" t="s">
         <v>743</v>
       </c>
-      <c r="J180" s="112" t="s">
+      <c r="J180" s="111" t="s">
         <v>744</v>
       </c>
-      <c r="K180" s="39" t="s">
+      <c r="K180" s="38" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="47" t="s">
+      <c r="A181" s="46" t="s">
         <v>745</v>
       </c>
-      <c r="B181" s="48" t="s">
+      <c r="B181" s="47" t="s">
         <v>746</v>
       </c>
       <c r="C181" s="7" t="s">
@@ -16464,15 +16461,15 @@
       <c r="H181" s="4"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-      <c r="K181" s="39" t="s">
+      <c r="K181" s="38" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="47" t="s">
+      <c r="A182" s="46" t="s">
         <v>749</v>
       </c>
-      <c r="B182" s="48" t="s">
+      <c r="B182" s="47" t="s">
         <v>750</v>
       </c>
       <c r="C182" s="7"/>
@@ -16483,13 +16480,13 @@
       <c r="H182" s="4"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-      <c r="K182" s="39"/>
+      <c r="K182" s="38"/>
     </row>
     <row r="183">
-      <c r="A183" s="53" t="s">
+      <c r="A183" s="52" t="s">
         <v>751</v>
       </c>
-      <c r="B183" s="54" t="s">
+      <c r="B183" s="53" t="s">
         <v>752</v>
       </c>
       <c r="C183" s="7" t="s">
@@ -16504,34 +16501,34 @@
       <c r="H183" s="4"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-      <c r="K183" s="39" t="s">
+      <c r="K183" s="38" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="34" t="s">
+      <c r="A184" s="33" t="s">
         <v>755</v>
       </c>
-      <c r="B184" s="91" t="s">
+      <c r="B184" s="90" t="s">
         <v>756</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
-      <c r="E184" s="36" t="s">
+      <c r="E184" s="35" t="s">
         <v>757</v>
       </c>
       <c r="F184" s="4"/>
-      <c r="G184" s="63"/>
-      <c r="H184" s="63"/>
+      <c r="G184" s="62"/>
+      <c r="H184" s="62"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="40" t="s">
+      <c r="A185" s="39" t="s">
         <v>758</v>
       </c>
-      <c r="B185" s="41" t="s">
+      <c r="B185" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="7"/>
@@ -16545,10 +16542,10 @@
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="47" t="s">
+      <c r="A186" s="46" t="s">
         <v>759</v>
       </c>
-      <c r="B186" s="48" t="s">
+      <c r="B186" s="47" t="s">
         <v>760</v>
       </c>
       <c r="C186" s="7"/>
@@ -16562,26 +16559,26 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="53" t="s">
+      <c r="A187" s="52" t="s">
         <v>761</v>
       </c>
-      <c r="B187" s="54" t="s">
+      <c r="B187" s="53" t="s">
         <v>762</v>
       </c>
-      <c r="C187" s="59" t="s">
+      <c r="C187" s="58" t="s">
         <v>763</v>
       </c>
-      <c r="D187" s="59" t="s">
+      <c r="D187" s="58" t="s">
         <v>764</v>
       </c>
-      <c r="E187" s="49" t="s">
+      <c r="E187" s="48" t="s">
         <v>765</v>
       </c>
-      <c r="F187" s="49"/>
-      <c r="G187" s="37" t="s">
+      <c r="F187" s="48"/>
+      <c r="G187" s="36" t="s">
         <v>766</v>
       </c>
-      <c r="H187" s="98" t="s">
+      <c r="H187" s="97" t="s">
         <v>767</v>
       </c>
       <c r="I187" s="7"/>
@@ -16589,26 +16586,26 @@
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="53" t="s">
+      <c r="A188" s="52" t="s">
         <v>768</v>
       </c>
-      <c r="B188" s="54" t="s">
+      <c r="B188" s="53" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="59" t="s">
+      <c r="C188" s="58" t="s">
         <v>763</v>
       </c>
-      <c r="D188" s="59" t="s">
+      <c r="D188" s="58" t="s">
         <v>764</v>
       </c>
-      <c r="E188" s="63" t="s">
+      <c r="E188" s="62" t="s">
         <v>770</v>
       </c>
-      <c r="F188" s="63"/>
-      <c r="G188" s="63" t="s">
+      <c r="F188" s="62"/>
+      <c r="G188" s="62" t="s">
         <v>766</v>
       </c>
-      <c r="H188" s="63" t="s">
+      <c r="H188" s="62" t="s">
         <v>771</v>
       </c>
       <c r="I188" s="7"/>
@@ -16616,13 +16613,13 @@
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="47" t="s">
+      <c r="A189" s="46" t="s">
         <v>772</v>
       </c>
-      <c r="B189" s="48" t="s">
+      <c r="B189" s="47" t="s">
         <v>773</v>
       </c>
-      <c r="C189" s="68" t="s">
+      <c r="C189" s="67" t="s">
         <v>774</v>
       </c>
       <c r="D189" s="7"/>
@@ -16635,26 +16632,26 @@
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="53" t="s">
+      <c r="A190" s="52" t="s">
         <v>775</v>
       </c>
-      <c r="B190" s="54" t="s">
+      <c r="B190" s="53" t="s">
         <v>776</v>
       </c>
-      <c r="C190" s="59" t="s">
+      <c r="C190" s="58" t="s">
         <v>777</v>
       </c>
-      <c r="D190" s="59" t="s">
+      <c r="D190" s="58" t="s">
         <v>778</v>
       </c>
-      <c r="E190" s="49" t="s">
+      <c r="E190" s="48" t="s">
         <v>779</v>
       </c>
-      <c r="F190" s="49"/>
-      <c r="G190" s="37" t="s">
+      <c r="F190" s="48"/>
+      <c r="G190" s="36" t="s">
         <v>780</v>
       </c>
-      <c r="H190" s="37" t="s">
+      <c r="H190" s="36" t="s">
         <v>781</v>
       </c>
       <c r="I190" s="7"/>
@@ -16662,87 +16659,87 @@
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="113" t="s">
+      <c r="A191" s="112" t="s">
         <v>782</v>
       </c>
-      <c r="B191" s="114" t="s">
+      <c r="B191" s="113" t="s">
         <v>783</v>
       </c>
-      <c r="C191" s="112" t="s">
+      <c r="C191" s="111" t="s">
         <v>784</v>
       </c>
-      <c r="D191" s="112" t="s">
+      <c r="D191" s="111" t="s">
         <v>785</v>
       </c>
-      <c r="E191" s="115" t="s">
+      <c r="E191" s="114" t="s">
         <v>786</v>
       </c>
-      <c r="F191" s="115"/>
-      <c r="G191" s="134"/>
-      <c r="H191" s="134"/>
-      <c r="I191" s="58"/>
-      <c r="J191" s="58"/>
-      <c r="K191" s="124" t="s">
+      <c r="F191" s="114"/>
+      <c r="G191" s="133"/>
+      <c r="H191" s="133"/>
+      <c r="I191" s="57"/>
+      <c r="J191" s="57"/>
+      <c r="K191" s="123" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="113" t="s">
+      <c r="A192" s="112" t="s">
         <v>788</v>
       </c>
-      <c r="B192" s="114" t="s">
+      <c r="B192" s="113" t="s">
         <v>789</v>
       </c>
-      <c r="C192" s="112" t="s">
+      <c r="C192" s="111" t="s">
         <v>784</v>
       </c>
-      <c r="D192" s="112" t="s">
+      <c r="D192" s="111" t="s">
         <v>785</v>
       </c>
-      <c r="E192" s="115" t="s">
+      <c r="E192" s="114" t="s">
         <v>790</v>
       </c>
-      <c r="F192" s="115"/>
-      <c r="G192" s="134"/>
-      <c r="H192" s="134"/>
-      <c r="I192" s="58"/>
-      <c r="J192" s="58"/>
-      <c r="K192" s="124" t="s">
+      <c r="F192" s="114"/>
+      <c r="G192" s="133"/>
+      <c r="H192" s="133"/>
+      <c r="I192" s="57"/>
+      <c r="J192" s="57"/>
+      <c r="K192" s="123" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="113" t="s">
+      <c r="A193" s="112" t="s">
         <v>791</v>
       </c>
-      <c r="B193" s="114" t="s">
+      <c r="B193" s="113" t="s">
         <v>792</v>
       </c>
-      <c r="C193" s="116" t="s">
+      <c r="C193" s="115" t="s">
         <v>793</v>
       </c>
-      <c r="D193" s="116" t="s">
+      <c r="D193" s="115" t="s">
         <v>794</v>
       </c>
-      <c r="E193" s="115" t="s">
+      <c r="E193" s="114" t="s">
         <v>795</v>
       </c>
-      <c r="F193" s="115"/>
-      <c r="G193" s="115" t="s">
+      <c r="F193" s="114"/>
+      <c r="G193" s="114" t="s">
         <v>796</v>
       </c>
-      <c r="H193" s="115" t="s">
+      <c r="H193" s="114" t="s">
         <v>797</v>
       </c>
-      <c r="I193" s="58"/>
-      <c r="J193" s="58"/>
+      <c r="I193" s="57"/>
+      <c r="J193" s="57"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="53" t="s">
+      <c r="A194" s="52" t="s">
         <v>798</v>
       </c>
-      <c r="B194" s="54" t="s">
+      <c r="B194" s="53" t="s">
         <v>799</v>
       </c>
       <c r="C194" s="7" t="s">
@@ -16758,7 +16755,7 @@
       <c r="G194" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="H194" s="135" t="s">
+      <c r="H194" s="134" t="s">
         <v>804</v>
       </c>
       <c r="I194" s="7"/>
@@ -16766,37 +16763,37 @@
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="113" t="s">
+      <c r="A195" s="112" t="s">
         <v>805</v>
       </c>
-      <c r="B195" s="114" t="s">
+      <c r="B195" s="113" t="s">
         <v>806</v>
       </c>
-      <c r="C195" s="116" t="s">
+      <c r="C195" s="115" t="s">
         <v>800</v>
       </c>
-      <c r="D195" s="116" t="s">
+      <c r="D195" s="115" t="s">
         <v>801</v>
       </c>
-      <c r="E195" s="115" t="s">
+      <c r="E195" s="114" t="s">
         <v>807</v>
       </c>
       <c r="F195" s="4"/>
-      <c r="G195" s="115" t="s">
+      <c r="G195" s="114" t="s">
         <v>808</v>
       </c>
-      <c r="H195" s="136" t="s">
+      <c r="H195" s="135" t="s">
         <v>809</v>
       </c>
-      <c r="I195" s="58"/>
-      <c r="J195" s="58"/>
+      <c r="I195" s="57"/>
+      <c r="J195" s="57"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="53" t="s">
+      <c r="A196" s="52" t="s">
         <v>798</v>
       </c>
-      <c r="B196" s="54" t="s">
+      <c r="B196" s="53" t="s">
         <v>810</v>
       </c>
       <c r="C196" s="7" t="s">
@@ -16813,52 +16810,52 @@
       <c r="H196" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="I196" s="39" t="s">
+      <c r="I196" s="38" t="s">
         <v>815</v>
       </c>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="47" t="s">
+      <c r="A197" s="46" t="s">
         <v>816</v>
       </c>
-      <c r="B197" s="48" t="s">
+      <c r="B197" s="47" t="s">
         <v>817</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="D197" s="58"/>
-      <c r="E197" s="37"/>
-      <c r="F197" s="37"/>
-      <c r="G197" s="37"/>
-      <c r="H197" s="37"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="36"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="36"/>
+      <c r="H197" s="36"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="53" t="s">
+      <c r="A198" s="52" t="s">
         <v>818</v>
       </c>
-      <c r="B198" s="54" t="s">
+      <c r="B198" s="53" t="s">
         <v>819</v>
       </c>
-      <c r="C198" s="59" t="s">
+      <c r="C198" s="58" t="s">
         <v>820</v>
       </c>
-      <c r="D198" s="59" t="s">
+      <c r="D198" s="58" t="s">
         <v>821</v>
       </c>
-      <c r="E198" s="49" t="s">
+      <c r="E198" s="48" t="s">
         <v>822</v>
       </c>
-      <c r="F198" s="49"/>
-      <c r="G198" s="37" t="s">
+      <c r="F198" s="48"/>
+      <c r="G198" s="36" t="s">
         <v>823</v>
       </c>
-      <c r="H198" s="98" t="s">
+      <c r="H198" s="97" t="s">
         <v>824</v>
       </c>
       <c r="I198" s="7"/>
@@ -16866,47 +16863,47 @@
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="47" t="s">
+      <c r="A199" s="46" t="s">
         <v>825</v>
       </c>
-      <c r="B199" s="48" t="s">
+      <c r="B199" s="47" t="s">
         <v>826</v>
       </c>
-      <c r="C199" s="59" t="s">
+      <c r="C199" s="58" t="s">
         <v>827</v>
       </c>
-      <c r="D199" s="59" t="s">
+      <c r="D199" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="E199" s="49"/>
-      <c r="F199" s="37"/>
-      <c r="G199" s="37"/>
-      <c r="H199" s="37"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="53" t="s">
+      <c r="A200" s="52" t="s">
         <v>829</v>
       </c>
-      <c r="B200" s="54" t="s">
+      <c r="B200" s="53" t="s">
         <v>830</v>
       </c>
-      <c r="C200" s="49" t="s">
+      <c r="C200" s="48" t="s">
         <v>827</v>
       </c>
-      <c r="D200" s="59" t="s">
+      <c r="D200" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="E200" s="132" t="s">
+      <c r="E200" s="131" t="s">
         <v>831</v>
       </c>
-      <c r="F200" s="129"/>
-      <c r="G200" s="37" t="s">
+      <c r="F200" s="128"/>
+      <c r="G200" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="H200" s="98" t="s">
+      <c r="H200" s="97" t="s">
         <v>833</v>
       </c>
       <c r="I200" s="7"/>
@@ -16914,26 +16911,26 @@
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="53" t="s">
+      <c r="A201" s="52" t="s">
         <v>834</v>
       </c>
-      <c r="B201" s="54" t="s">
+      <c r="B201" s="53" t="s">
         <v>835</v>
       </c>
-      <c r="C201" s="59" t="s">
+      <c r="C201" s="58" t="s">
         <v>827</v>
       </c>
-      <c r="D201" s="59" t="s">
+      <c r="D201" s="58" t="s">
         <v>828</v>
       </c>
-      <c r="E201" s="132" t="s">
+      <c r="E201" s="131" t="s">
         <v>836</v>
       </c>
-      <c r="F201" s="129"/>
-      <c r="G201" s="37" t="s">
+      <c r="F201" s="128"/>
+      <c r="G201" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="H201" s="98" t="s">
+      <c r="H201" s="97" t="s">
         <v>837</v>
       </c>
       <c r="I201" s="7"/>
@@ -16941,10 +16938,10 @@
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="40" t="s">
+      <c r="A202" s="39" t="s">
         <v>838</v>
       </c>
-      <c r="B202" s="41" t="s">
+      <c r="B202" s="40" t="s">
         <v>839</v>
       </c>
       <c r="C202" s="7"/>
@@ -16958,51 +16955,51 @@
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="47" t="s">
+      <c r="A203" s="46" t="s">
         <v>840</v>
       </c>
-      <c r="B203" s="48" t="s">
+      <c r="B203" s="47" t="s">
         <v>841</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>741</v>
       </c>
       <c r="D203" s="7"/>
-      <c r="E203" s="137" t="s">
+      <c r="E203" s="136" t="s">
         <v>842</v>
       </c>
       <c r="F203" s="18"/>
-      <c r="G203" s="36" t="s">
+      <c r="G203" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="H203" s="36" t="s">
+      <c r="H203" s="35" t="s">
         <v>844</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
-      <c r="K203" s="39" t="s">
+      <c r="K203" s="38" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="47" t="s">
+      <c r="A204" s="46" t="s">
         <v>846</v>
       </c>
-      <c r="B204" s="48" t="s">
+      <c r="B204" s="47" t="s">
         <v>847</v>
       </c>
-      <c r="C204" s="138" t="s">
+      <c r="C204" s="137" t="s">
         <v>848</v>
       </c>
-      <c r="D204" s="138"/>
-      <c r="E204" s="86" t="s">
+      <c r="D204" s="137"/>
+      <c r="E204" s="85" t="s">
         <v>849</v>
       </c>
       <c r="F204" s="18"/>
       <c r="G204" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="H204" s="36" t="s">
+      <c r="H204" s="35" t="s">
         <v>851</v>
       </c>
       <c r="I204" s="7"/>
@@ -17010,10 +17007,10 @@
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="47" t="s">
+      <c r="A205" s="46" t="s">
         <v>852</v>
       </c>
-      <c r="B205" s="48" t="s">
+      <c r="B205" s="47" t="s">
         <v>853</v>
       </c>
       <c r="C205" s="7" t="s">
@@ -17024,19 +17021,19 @@
         <v>854</v>
       </c>
       <c r="F205" s="18"/>
-      <c r="G205" s="39"/>
+      <c r="G205" s="38"/>
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-      <c r="K205" s="39" t="s">
+      <c r="K205" s="38" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="34" t="s">
+      <c r="A206" s="33" t="s">
         <v>855</v>
       </c>
-      <c r="B206" s="35" t="s">
+      <c r="B206" s="34" t="s">
         <v>856</v>
       </c>
       <c r="C206" s="7"/>
@@ -17050,10 +17047,10 @@
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="40" t="s">
+      <c r="A207" s="39" t="s">
         <v>857</v>
       </c>
-      <c r="B207" s="41" t="s">
+      <c r="B207" s="40" t="s">
         <v>858</v>
       </c>
       <c r="C207" s="7"/>
@@ -17061,16 +17058,16 @@
       <c r="E207" s="18"/>
       <c r="F207" s="18"/>
       <c r="G207" s="4"/>
-      <c r="H207" s="49"/>
+      <c r="H207" s="48"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="47" t="s">
+      <c r="A208" s="46" t="s">
         <v>859</v>
       </c>
-      <c r="B208" s="48" t="s">
+      <c r="B208" s="47" t="s">
         <v>860</v>
       </c>
       <c r="C208" s="7" t="s">
@@ -17084,18 +17081,18 @@
       <c r="G208" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="H208" s="99" t="s">
+      <c r="H208" s="98" t="s">
         <v>864</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
-      <c r="K208" s="39"/>
+      <c r="K208" s="38"/>
     </row>
     <row r="209">
-      <c r="A209" s="47" t="s">
+      <c r="A209" s="46" t="s">
         <v>865</v>
       </c>
-      <c r="B209" s="48" t="s">
+      <c r="B209" s="47" t="s">
         <v>866</v>
       </c>
       <c r="C209" s="7" t="s">
@@ -17109,20 +17106,20 @@
       <c r="G209" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="H209" s="99" t="s">
+      <c r="H209" s="98" t="s">
         <v>869</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
-      <c r="K209" s="84" t="s">
+      <c r="K209" s="83" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="47" t="s">
+      <c r="A210" s="46" t="s">
         <v>871</v>
       </c>
-      <c r="B210" s="48" t="s">
+      <c r="B210" s="47" t="s">
         <v>872</v>
       </c>
       <c r="C210" s="7" t="s">
@@ -17136,55 +17133,55 @@
       <c r="G210" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="H210" s="99" t="s">
+      <c r="H210" s="98" t="s">
         <v>875</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
-      <c r="K210" s="39"/>
+      <c r="K210" s="38"/>
     </row>
     <row r="211">
-      <c r="A211" s="40" t="s">
+      <c r="A211" s="39" t="s">
         <v>876</v>
       </c>
-      <c r="B211" s="41" t="s">
+      <c r="B211" s="40" t="s">
         <v>645</v>
       </c>
-      <c r="C211" s="59" t="s">
+      <c r="C211" s="58" t="s">
         <v>646</v>
       </c>
       <c r="D211" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="E211" s="132" t="s">
+      <c r="E211" s="131" t="s">
         <v>877</v>
       </c>
-      <c r="F211" s="132"/>
-      <c r="G211" s="139" t="s">
+      <c r="F211" s="131"/>
+      <c r="G211" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="H211" s="140" t="s">
+      <c r="H211" s="139" t="s">
         <v>878</v>
       </c>
-      <c r="I211" s="39" t="s">
+      <c r="I211" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="40" t="s">
+      <c r="A212" s="39" t="s">
         <v>879</v>
       </c>
-      <c r="B212" s="41" t="s">
+      <c r="B212" s="40" t="s">
         <v>880</v>
       </c>
-      <c r="C212" s="141" t="s">
+      <c r="C212" s="140" t="s">
         <v>774</v>
       </c>
       <c r="D212" s="7"/>
-      <c r="E212" s="129"/>
-      <c r="F212" s="129"/>
+      <c r="E212" s="128"/>
+      <c r="F212" s="128"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
       <c r="I212" s="7"/>
@@ -17192,24 +17189,24 @@
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="47" t="s">
+      <c r="A213" s="46" t="s">
         <v>881</v>
       </c>
-      <c r="B213" s="48" t="s">
+      <c r="B213" s="47" t="s">
         <v>882</v>
       </c>
-      <c r="C213" s="142" t="s">
+      <c r="C213" s="141" t="s">
         <v>774</v>
       </c>
       <c r="D213" s="7"/>
-      <c r="E213" s="86" t="s">
+      <c r="E213" s="85" t="s">
         <v>883</v>
       </c>
-      <c r="F213" s="129"/>
-      <c r="G213" s="37" t="s">
+      <c r="F213" s="128"/>
+      <c r="G213" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H213" s="37" t="s">
+      <c r="H213" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I213" s="7"/>
@@ -17217,55 +17214,55 @@
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="53" t="s">
+      <c r="A214" s="52" t="s">
         <v>884</v>
       </c>
-      <c r="B214" s="54" t="s">
+      <c r="B214" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C214" s="59" t="s">
+      <c r="C214" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D214" s="59" t="s">
+      <c r="D214" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E214" s="129" t="s">
+      <c r="E214" s="128" t="s">
         <v>885</v>
       </c>
-      <c r="F214" s="129"/>
-      <c r="G214" s="36" t="s">
+      <c r="F214" s="128"/>
+      <c r="G214" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H214" s="36" t="s">
+      <c r="H214" s="35" t="s">
         <v>886</v>
       </c>
-      <c r="I214" s="39" t="s">
+      <c r="I214" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="53" t="s">
+      <c r="A215" s="52" t="s">
         <v>887</v>
       </c>
-      <c r="B215" s="54" t="s">
+      <c r="B215" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C215" s="59" t="s">
+      <c r="C215" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D215" s="59" t="s">
+      <c r="D215" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E215" s="129" t="s">
+      <c r="E215" s="128" t="s">
         <v>888</v>
       </c>
-      <c r="F215" s="129"/>
-      <c r="G215" s="36" t="s">
+      <c r="F215" s="128"/>
+      <c r="G215" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H215" s="143" t="s">
+      <c r="H215" s="142" t="s">
         <v>889</v>
       </c>
       <c r="I215" s="7"/>
@@ -17273,26 +17270,26 @@
       <c r="K215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="53" t="s">
+      <c r="A216" s="52" t="s">
         <v>890</v>
       </c>
-      <c r="B216" s="54" t="s">
+      <c r="B216" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C216" s="59" t="s">
+      <c r="C216" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D216" s="59" t="s">
+      <c r="D216" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E216" s="129" t="s">
+      <c r="E216" s="128" t="s">
         <v>891</v>
       </c>
-      <c r="F216" s="129"/>
-      <c r="G216" s="36" t="s">
+      <c r="F216" s="128"/>
+      <c r="G216" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H216" s="143" t="s">
+      <c r="H216" s="142" t="s">
         <v>892</v>
       </c>
       <c r="I216" s="7"/>
@@ -17300,26 +17297,26 @@
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="53" t="s">
+      <c r="A217" s="52" t="s">
         <v>893</v>
       </c>
-      <c r="B217" s="54" t="s">
+      <c r="B217" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C217" s="59" t="s">
+      <c r="C217" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D217" s="59" t="s">
+      <c r="D217" s="58" t="s">
         <v>894</v>
       </c>
-      <c r="E217" s="129" t="s">
+      <c r="E217" s="128" t="s">
         <v>895</v>
       </c>
-      <c r="F217" s="129"/>
-      <c r="G217" s="36" t="s">
+      <c r="F217" s="128"/>
+      <c r="G217" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="H217" s="143" t="s">
+      <c r="H217" s="142" t="s">
         <v>896</v>
       </c>
       <c r="I217" s="7"/>
@@ -17327,26 +17324,26 @@
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="53" t="s">
+      <c r="A218" s="52" t="s">
         <v>897</v>
       </c>
-      <c r="B218" s="54" t="s">
+      <c r="B218" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C218" s="59" t="s">
+      <c r="C218" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D218" s="59" t="s">
+      <c r="D218" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E218" s="129" t="s">
+      <c r="E218" s="128" t="s">
         <v>898</v>
       </c>
-      <c r="F218" s="129"/>
-      <c r="G218" s="49" t="s">
+      <c r="F218" s="128"/>
+      <c r="G218" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H218" s="144" t="s">
+      <c r="H218" s="143" t="s">
         <v>899</v>
       </c>
       <c r="I218" s="7"/>
@@ -17354,26 +17351,26 @@
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="53" t="s">
+      <c r="A219" s="52" t="s">
         <v>900</v>
       </c>
-      <c r="B219" s="54" t="s">
+      <c r="B219" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="C219" s="59" t="s">
+      <c r="C219" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D219" s="59" t="s">
+      <c r="D219" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E219" s="129" t="s">
+      <c r="E219" s="128" t="s">
         <v>901</v>
       </c>
-      <c r="F219" s="129"/>
-      <c r="G219" s="49" t="s">
+      <c r="F219" s="128"/>
+      <c r="G219" s="48" t="s">
         <v>902</v>
       </c>
-      <c r="H219" s="49" t="s">
+      <c r="H219" s="48" t="s">
         <v>903</v>
       </c>
       <c r="I219" s="7"/>
@@ -17381,26 +17378,26 @@
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="53" t="s">
+      <c r="A220" s="52" t="s">
         <v>904</v>
       </c>
-      <c r="B220" s="54" t="s">
+      <c r="B220" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C220" s="59" t="s">
+      <c r="C220" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D220" s="59" t="s">
+      <c r="D220" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E220" s="58" t="s">
+      <c r="E220" s="57" t="s">
         <v>905</v>
       </c>
-      <c r="F220" s="58"/>
-      <c r="G220" s="59" t="s">
+      <c r="F220" s="57"/>
+      <c r="G220" s="58" t="s">
         <v>906</v>
       </c>
-      <c r="H220" s="59" t="s">
+      <c r="H220" s="58" t="s">
         <v>907</v>
       </c>
       <c r="I220" s="7"/>
@@ -17408,26 +17405,26 @@
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="53" t="s">
+      <c r="A221" s="52" t="s">
         <v>908</v>
       </c>
-      <c r="B221" s="145" t="s">
+      <c r="B221" s="144" t="s">
         <v>909</v>
       </c>
-      <c r="C221" s="59" t="s">
+      <c r="C221" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D221" s="59" t="s">
+      <c r="D221" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E221" s="37" t="s">
+      <c r="E221" s="36" t="s">
         <v>910</v>
       </c>
-      <c r="F221" s="58"/>
-      <c r="G221" s="46" t="s">
+      <c r="F221" s="57"/>
+      <c r="G221" s="45" t="s">
         <v>902</v>
       </c>
-      <c r="H221" s="146" t="s">
+      <c r="H221" s="145" t="s">
         <v>911</v>
       </c>
       <c r="I221" s="7"/>
@@ -17435,26 +17432,26 @@
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="53" t="s">
+      <c r="A222" s="52" t="s">
         <v>912</v>
       </c>
-      <c r="B222" s="145" t="s">
+      <c r="B222" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="C222" s="59" t="s">
+      <c r="C222" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D222" s="59" t="s">
+      <c r="D222" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E222" s="37" t="s">
+      <c r="E222" s="36" t="s">
         <v>913</v>
       </c>
-      <c r="F222" s="58"/>
-      <c r="G222" s="49" t="s">
+      <c r="F222" s="57"/>
+      <c r="G222" s="48" t="s">
         <v>906</v>
       </c>
-      <c r="H222" s="144" t="s">
+      <c r="H222" s="143" t="s">
         <v>914</v>
       </c>
       <c r="I222" s="7"/>
@@ -17462,24 +17459,24 @@
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="47" t="s">
+      <c r="A223" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="B223" s="64" t="s">
+      <c r="B223" s="63" t="s">
         <v>916</v>
       </c>
-      <c r="C223" s="142" t="s">
+      <c r="C223" s="141" t="s">
         <v>774</v>
       </c>
-      <c r="D223" s="147"/>
-      <c r="E223" s="39" t="s">
+      <c r="D223" s="146"/>
+      <c r="E223" s="38" t="s">
         <v>917</v>
       </c>
-      <c r="F223" s="58"/>
-      <c r="G223" s="58" t="s">
+      <c r="F223" s="57"/>
+      <c r="G223" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="H223" s="148" t="s">
+      <c r="H223" s="147" t="s">
         <v>61</v>
       </c>
       <c r="I223" s="7"/>
@@ -17487,55 +17484,55 @@
       <c r="K223" s="7"/>
     </row>
     <row r="224">
-      <c r="A224" s="53" t="s">
+      <c r="A224" s="52" t="s">
         <v>919</v>
       </c>
-      <c r="B224" s="145" t="s">
+      <c r="B224" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="C224" s="59" t="s">
+      <c r="C224" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D224" s="59" t="s">
+      <c r="D224" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E224" s="37" t="s">
+      <c r="E224" s="36" t="s">
         <v>920</v>
       </c>
-      <c r="F224" s="58"/>
-      <c r="G224" s="36" t="s">
+      <c r="F224" s="57"/>
+      <c r="G224" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="H224" s="143" t="s">
+      <c r="H224" s="142" t="s">
         <v>921</v>
       </c>
-      <c r="I224" s="39" t="s">
+      <c r="I224" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="53" t="s">
+      <c r="A225" s="52" t="s">
         <v>922</v>
       </c>
-      <c r="B225" s="145" t="s">
+      <c r="B225" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="C225" s="59" t="s">
+      <c r="C225" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D225" s="59" t="s">
+      <c r="D225" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E225" s="58" t="s">
+      <c r="E225" s="57" t="s">
         <v>923</v>
       </c>
-      <c r="F225" s="58"/>
-      <c r="G225" s="39" t="s">
+      <c r="F225" s="57"/>
+      <c r="G225" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H225" s="149" t="s">
+      <c r="H225" s="148" t="s">
         <v>924</v>
       </c>
       <c r="I225" s="7"/>
@@ -17543,26 +17540,26 @@
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="53" t="s">
+      <c r="A226" s="52" t="s">
         <v>925</v>
       </c>
-      <c r="B226" s="145" t="s">
+      <c r="B226" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="C226" s="59" t="s">
+      <c r="C226" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D226" s="59" t="s">
+      <c r="D226" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E226" s="58" t="s">
+      <c r="E226" s="57" t="s">
         <v>926</v>
       </c>
-      <c r="F226" s="58"/>
-      <c r="G226" s="39" t="s">
+      <c r="F226" s="57"/>
+      <c r="G226" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H226" s="149" t="s">
+      <c r="H226" s="148" t="s">
         <v>927</v>
       </c>
       <c r="I226" s="7"/>
@@ -17570,26 +17567,26 @@
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="53" t="s">
+      <c r="A227" s="52" t="s">
         <v>928</v>
       </c>
-      <c r="B227" s="145" t="s">
+      <c r="B227" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="C227" s="59" t="s">
+      <c r="C227" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D227" s="59" t="s">
+      <c r="D227" s="58" t="s">
         <v>894</v>
       </c>
-      <c r="E227" s="58" t="s">
+      <c r="E227" s="57" t="s">
         <v>929</v>
       </c>
-      <c r="F227" s="58"/>
-      <c r="G227" s="39" t="s">
+      <c r="F227" s="57"/>
+      <c r="G227" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H227" s="149" t="s">
+      <c r="H227" s="148" t="s">
         <v>930</v>
       </c>
       <c r="I227" s="7"/>
@@ -17597,26 +17594,26 @@
       <c r="K227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="53" t="s">
+      <c r="A228" s="52" t="s">
         <v>931</v>
       </c>
-      <c r="B228" s="145" t="s">
+      <c r="B228" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="C228" s="59" t="s">
+      <c r="C228" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D228" s="59" t="s">
+      <c r="D228" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E228" s="58" t="s">
+      <c r="E228" s="57" t="s">
         <v>932</v>
       </c>
-      <c r="F228" s="58"/>
-      <c r="G228" s="39" t="s">
+      <c r="F228" s="57"/>
+      <c r="G228" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="H228" s="39" t="s">
+      <c r="H228" s="38" t="s">
         <v>933</v>
       </c>
       <c r="I228" s="7"/>
@@ -17624,26 +17621,26 @@
       <c r="K228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="53" t="s">
+      <c r="A229" s="52" t="s">
         <v>934</v>
       </c>
-      <c r="B229" s="145" t="s">
+      <c r="B229" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="C229" s="59" t="s">
+      <c r="C229" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D229" s="59" t="s">
+      <c r="D229" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E229" s="58" t="s">
+      <c r="E229" s="57" t="s">
         <v>935</v>
       </c>
-      <c r="F229" s="58"/>
-      <c r="G229" s="59" t="s">
+      <c r="F229" s="57"/>
+      <c r="G229" s="58" t="s">
         <v>902</v>
       </c>
-      <c r="H229" s="59" t="s">
+      <c r="H229" s="58" t="s">
         <v>903</v>
       </c>
       <c r="I229" s="7"/>
@@ -17651,26 +17648,26 @@
       <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="53" t="s">
+      <c r="A230" s="52" t="s">
         <v>936</v>
       </c>
-      <c r="B230" s="145" t="s">
+      <c r="B230" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="C230" s="59" t="s">
+      <c r="C230" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D230" s="59" t="s">
+      <c r="D230" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E230" s="58" t="s">
+      <c r="E230" s="57" t="s">
         <v>937</v>
       </c>
-      <c r="F230" s="58"/>
-      <c r="G230" s="59" t="s">
+      <c r="F230" s="57"/>
+      <c r="G230" s="58" t="s">
         <v>906</v>
       </c>
-      <c r="H230" s="150" t="s">
+      <c r="H230" s="149" t="s">
         <v>907</v>
       </c>
       <c r="I230" s="7"/>
@@ -17678,26 +17675,26 @@
       <c r="K230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="53" t="s">
+      <c r="A231" s="52" t="s">
         <v>938</v>
       </c>
-      <c r="B231" s="145" t="s">
+      <c r="B231" s="144" t="s">
         <v>909</v>
       </c>
-      <c r="C231" s="59" t="s">
+      <c r="C231" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D231" s="59" t="s">
+      <c r="D231" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E231" s="58" t="s">
+      <c r="E231" s="57" t="s">
         <v>939</v>
       </c>
-      <c r="F231" s="58"/>
-      <c r="G231" s="62" t="s">
+      <c r="F231" s="57"/>
+      <c r="G231" s="61" t="s">
         <v>902</v>
       </c>
-      <c r="H231" s="62" t="s">
+      <c r="H231" s="61" t="s">
         <v>940</v>
       </c>
       <c r="I231" s="7"/>
@@ -17705,26 +17702,26 @@
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="53" t="s">
+      <c r="A232" s="52" t="s">
         <v>941</v>
       </c>
-      <c r="B232" s="145" t="s">
+      <c r="B232" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="C232" s="59" t="s">
+      <c r="C232" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D232" s="59" t="s">
+      <c r="D232" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E232" s="58" t="s">
+      <c r="E232" s="57" t="s">
         <v>942</v>
       </c>
-      <c r="F232" s="58"/>
-      <c r="G232" s="59" t="s">
+      <c r="F232" s="57"/>
+      <c r="G232" s="58" t="s">
         <v>906</v>
       </c>
-      <c r="H232" s="59" t="s">
+      <c r="H232" s="58" t="s">
         <v>914</v>
       </c>
       <c r="I232" s="7"/>
@@ -17732,26 +17729,26 @@
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="47" t="s">
+      <c r="A233" s="46" t="s">
         <v>943</v>
       </c>
-      <c r="B233" s="64" t="s">
+      <c r="B233" s="63" t="s">
         <v>944</v>
       </c>
-      <c r="C233" s="59" t="s">
+      <c r="C233" s="58" t="s">
         <v>945</v>
       </c>
-      <c r="D233" s="59" t="s">
+      <c r="D233" s="58" t="s">
         <v>946</v>
       </c>
-      <c r="E233" s="58" t="s">
+      <c r="E233" s="57" t="s">
         <v>947</v>
       </c>
-      <c r="F233" s="58"/>
-      <c r="G233" s="39" t="s">
+      <c r="F233" s="57"/>
+      <c r="G233" s="38" t="s">
         <v>948</v>
       </c>
-      <c r="H233" s="59" t="s">
+      <c r="H233" s="58" t="s">
         <v>949</v>
       </c>
       <c r="I233" s="7"/>
@@ -17759,22 +17756,22 @@
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="47" t="s">
+      <c r="A234" s="46" t="s">
         <v>950</v>
       </c>
-      <c r="B234" s="64" t="s">
+      <c r="B234" s="63" t="s">
         <v>951</v>
       </c>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
-      <c r="E234" s="39" t="s">
+      <c r="E234" s="38" t="s">
         <v>952</v>
       </c>
-      <c r="F234" s="58"/>
-      <c r="G234" s="58" t="s">
+      <c r="F234" s="57"/>
+      <c r="G234" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="H234" s="58" t="s">
+      <c r="H234" s="57" t="s">
         <v>61</v>
       </c>
       <c r="I234" s="7"/>
@@ -17782,55 +17779,55 @@
       <c r="K234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="53" t="s">
+      <c r="A235" s="52" t="s">
         <v>953</v>
       </c>
-      <c r="B235" s="145" t="s">
+      <c r="B235" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="C235" s="59" t="s">
+      <c r="C235" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="D235" s="59" t="s">
+      <c r="D235" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E235" s="58" t="s">
+      <c r="E235" s="57" t="s">
         <v>954</v>
       </c>
-      <c r="F235" s="58"/>
-      <c r="G235" s="39" t="s">
+      <c r="F235" s="57"/>
+      <c r="G235" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H235" s="39" t="s">
+      <c r="H235" s="38" t="s">
         <v>955</v>
       </c>
-      <c r="I235" s="39" t="s">
+      <c r="I235" s="38" t="s">
         <v>71</v>
       </c>
       <c r="J235" s="7"/>
       <c r="K235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="53" t="s">
+      <c r="A236" s="52" t="s">
         <v>956</v>
       </c>
-      <c r="B236" s="145" t="s">
+      <c r="B236" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="C236" s="59" t="s">
+      <c r="C236" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="D236" s="59" t="s">
+      <c r="D236" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E236" s="58" t="s">
+      <c r="E236" s="57" t="s">
         <v>957</v>
       </c>
-      <c r="F236" s="58"/>
-      <c r="G236" s="39" t="s">
+      <c r="F236" s="57"/>
+      <c r="G236" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H236" s="39" t="s">
+      <c r="H236" s="38" t="s">
         <v>958</v>
       </c>
       <c r="I236" s="7"/>
@@ -17838,26 +17835,26 @@
       <c r="K236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="53" t="s">
+      <c r="A237" s="52" t="s">
         <v>959</v>
       </c>
-      <c r="B237" s="145" t="s">
+      <c r="B237" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="C237" s="59" t="s">
+      <c r="C237" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="D237" s="59" t="s">
+      <c r="D237" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E237" s="58" t="s">
+      <c r="E237" s="57" t="s">
         <v>960</v>
       </c>
-      <c r="F237" s="58"/>
-      <c r="G237" s="39" t="s">
+      <c r="F237" s="57"/>
+      <c r="G237" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="H237" s="39" t="s">
+      <c r="H237" s="38" t="s">
         <v>961</v>
       </c>
       <c r="I237" s="7"/>
@@ -17865,26 +17862,26 @@
       <c r="K237" s="7"/>
     </row>
     <row r="238">
-      <c r="A238" s="53" t="s">
+      <c r="A238" s="52" t="s">
         <v>962</v>
       </c>
-      <c r="B238" s="145" t="s">
+      <c r="B238" s="144" t="s">
         <v>102</v>
       </c>
-      <c r="C238" s="59" t="s">
+      <c r="C238" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D238" s="59" t="s">
+      <c r="D238" s="58" t="s">
         <v>894</v>
       </c>
-      <c r="E238" s="58" t="s">
+      <c r="E238" s="57" t="s">
         <v>963</v>
       </c>
-      <c r="F238" s="58"/>
-      <c r="G238" s="39" t="s">
+      <c r="F238" s="57"/>
+      <c r="G238" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H238" s="39" t="s">
+      <c r="H238" s="38" t="s">
         <v>964</v>
       </c>
       <c r="I238" s="7"/>
@@ -17892,26 +17889,26 @@
       <c r="K238" s="7"/>
     </row>
     <row r="239">
-      <c r="A239" s="53" t="s">
+      <c r="A239" s="52" t="s">
         <v>965</v>
       </c>
-      <c r="B239" s="145" t="s">
+      <c r="B239" s="144" t="s">
         <v>109</v>
       </c>
-      <c r="C239" s="59" t="s">
+      <c r="C239" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D239" s="59" t="s">
+      <c r="D239" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="E239" s="58" t="s">
+      <c r="E239" s="57" t="s">
         <v>966</v>
       </c>
-      <c r="F239" s="58"/>
-      <c r="G239" s="59" t="s">
+      <c r="F239" s="57"/>
+      <c r="G239" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="H239" s="59" t="s">
+      <c r="H239" s="58" t="s">
         <v>967</v>
       </c>
       <c r="I239" s="7"/>
@@ -17919,26 +17916,26 @@
       <c r="K239" s="7"/>
     </row>
     <row r="240">
-      <c r="A240" s="53" t="s">
+      <c r="A240" s="52" t="s">
         <v>968</v>
       </c>
-      <c r="B240" s="145" t="s">
+      <c r="B240" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="C240" s="59" t="s">
+      <c r="C240" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="D240" s="59" t="s">
+      <c r="D240" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="E240" s="58" t="s">
+      <c r="E240" s="57" t="s">
         <v>969</v>
       </c>
-      <c r="F240" s="58"/>
-      <c r="G240" s="59" t="s">
+      <c r="F240" s="57"/>
+      <c r="G240" s="58" t="s">
         <v>902</v>
       </c>
-      <c r="H240" s="59" t="s">
+      <c r="H240" s="58" t="s">
         <v>903</v>
       </c>
       <c r="I240" s="7"/>
@@ -17946,26 +17943,26 @@
       <c r="K240" s="7"/>
     </row>
     <row r="241">
-      <c r="A241" s="53" t="s">
+      <c r="A241" s="52" t="s">
         <v>970</v>
       </c>
-      <c r="B241" s="145" t="s">
+      <c r="B241" s="144" t="s">
         <v>122</v>
       </c>
-      <c r="C241" s="59" t="s">
+      <c r="C241" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D241" s="59" t="s">
+      <c r="D241" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E241" s="58" t="s">
+      <c r="E241" s="57" t="s">
         <v>971</v>
       </c>
-      <c r="F241" s="58"/>
-      <c r="G241" s="59" t="s">
+      <c r="F241" s="57"/>
+      <c r="G241" s="58" t="s">
         <v>906</v>
       </c>
-      <c r="H241" s="59" t="s">
+      <c r="H241" s="58" t="s">
         <v>907</v>
       </c>
       <c r="I241" s="7"/>
@@ -17973,26 +17970,26 @@
       <c r="K241" s="7"/>
     </row>
     <row r="242">
-      <c r="A242" s="53" t="s">
+      <c r="A242" s="52" t="s">
         <v>972</v>
       </c>
-      <c r="B242" s="145" t="s">
+      <c r="B242" s="144" t="s">
         <v>909</v>
       </c>
-      <c r="C242" s="59" t="s">
+      <c r="C242" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="D242" s="59" t="s">
+      <c r="D242" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="E242" s="58" t="s">
+      <c r="E242" s="57" t="s">
         <v>973</v>
       </c>
-      <c r="F242" s="58"/>
-      <c r="G242" s="62" t="s">
+      <c r="F242" s="57"/>
+      <c r="G242" s="61" t="s">
         <v>902</v>
       </c>
-      <c r="H242" s="62" t="s">
+      <c r="H242" s="61" t="s">
         <v>974</v>
       </c>
       <c r="I242" s="7"/>
@@ -18000,26 +17997,26 @@
       <c r="K242" s="7"/>
     </row>
     <row r="243">
-      <c r="A243" s="53" t="s">
+      <c r="A243" s="52" t="s">
         <v>975</v>
       </c>
-      <c r="B243" s="145" t="s">
+      <c r="B243" s="144" t="s">
         <v>135</v>
       </c>
-      <c r="C243" s="59" t="s">
+      <c r="C243" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D243" s="59" t="s">
+      <c r="D243" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E243" s="58" t="s">
+      <c r="E243" s="57" t="s">
         <v>976</v>
       </c>
-      <c r="F243" s="58"/>
-      <c r="G243" s="59" t="s">
+      <c r="F243" s="57"/>
+      <c r="G243" s="58" t="s">
         <v>906</v>
       </c>
-      <c r="H243" s="59" t="s">
+      <c r="H243" s="58" t="s">
         <v>914</v>
       </c>
       <c r="I243" s="7"/>
@@ -18027,26 +18024,26 @@
       <c r="K243" s="7"/>
     </row>
     <row r="244">
-      <c r="A244" s="40" t="s">
+      <c r="A244" s="39" t="s">
         <v>977</v>
       </c>
-      <c r="B244" s="151" t="s">
+      <c r="B244" s="150" t="s">
         <v>978</v>
       </c>
-      <c r="C244" s="152" t="s">
+      <c r="C244" s="151" t="s">
         <v>979</v>
       </c>
-      <c r="D244" s="152" t="s">
+      <c r="D244" s="151" t="s">
         <v>980</v>
       </c>
-      <c r="E244" s="153" t="s">
+      <c r="E244" s="152" t="s">
         <v>981</v>
       </c>
-      <c r="F244" s="153"/>
-      <c r="G244" s="39" t="s">
+      <c r="F244" s="152"/>
+      <c r="G244" s="38" t="s">
         <v>982</v>
       </c>
-      <c r="H244" s="110" t="s">
+      <c r="H244" s="109" t="s">
         <v>983</v>
       </c>
       <c r="I244" s="7"/>
@@ -18136,22 +18133,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="153" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="155" t="s">
+      <c r="C1" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="E1" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="155" t="s">
+      <c r="F1" s="154" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18162,16 +18159,16 @@
       <c r="B2" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>384</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>984</v>
       </c>
     </row>
@@ -18179,17 +18176,17 @@
       <c r="A3" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>985</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="35" t="s">
         <v>986</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>987</v>
       </c>
     </row>
@@ -18197,17 +18194,17 @@
       <c r="A4" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="58" t="s">
         <v>985</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="58"/>
+      <c r="E4" s="35" t="s">
         <v>988</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>989</v>
       </c>
     </row>
@@ -18218,82 +18215,82 @@
       <c r="B5" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>384</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>990</v>
       </c>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="156"/>
-      <c r="Q5" s="156"/>
-      <c r="R5" s="156"/>
-      <c r="S5" s="156"/>
-      <c r="T5" s="156"/>
-      <c r="U5" s="156"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="156"/>
-      <c r="X5" s="156"/>
-      <c r="Y5" s="156"/>
-      <c r="Z5" s="156"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>992</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="58" t="s">
         <v>993</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>994</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>995</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="156"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="156"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="155"/>
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="155"/>
+      <c r="Z6" s="155"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
         <v>996</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>997</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -18302,10 +18299,10 @@
       <c r="D7" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>1000</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -18316,32 +18313,32 @@
       <c r="B8" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>741</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>1004</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="83" t="s">
         <v>1006</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="83" t="s">
         <v>1007</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="83" t="s">
         <v>741</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84" t="s">
+      <c r="D9" s="83"/>
+      <c r="E9" s="83" t="s">
         <v>1008</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="83" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -18349,17 +18346,17 @@
       <c r="A10" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>1010</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="156" t="s">
         <v>1011</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>1012</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -18367,7 +18364,7 @@
       <c r="A11" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>1015</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -18376,30 +18373,30 @@
       <c r="D11" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>1018</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="82" t="s">
         <v>1020</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>1021</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="82" t="s">
         <v>537</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="82" t="s">
         <v>404</v>
       </c>
-      <c r="E12" s="84" t="s">
+      <c r="E12" s="83" t="s">
         <v>1022</v>
       </c>
-      <c r="F12" s="158" t="s">
+      <c r="F12" s="157" t="s">
         <v>1023</v>
       </c>
     </row>
@@ -18407,31 +18404,31 @@
       <c r="A13" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>1025</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>1026</v>
       </c>
-      <c r="F13" s="149" t="s">
+      <c r="F13" s="148" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="131" t="s">
         <v>1028</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="59" t="s">
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="58" t="s">
         <v>1029</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>1030</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="148" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -22413,93 +22410,93 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>1032</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="159" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="160" t="s">
         <v>1034</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="159" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="161" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="162" t="s">
         <v>1037</v>
       </c>
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="159" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="159" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="160"/>
+      <c r="B8" s="159"/>
     </row>
     <row r="9">
-      <c r="B9" s="160"/>
+      <c r="B9" s="159"/>
     </row>
     <row r="10">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="162" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="162" t="s">
         <v>1041</v>
       </c>
-      <c r="B11" s="164" t="s">
+      <c r="B11" s="163" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="164" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="166"/>
-      <c r="B13" s="167" t="s">
+      <c r="A13" s="165"/>
+      <c r="B13" s="166" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="167" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="168" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="169" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="163"/>
+      <c r="A17" s="162"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="162" t="s">
         <v>1048</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="170" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -22507,13 +22504,13 @@
       <c r="A19" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="B19" s="172"/>
+      <c r="B19" s="171"/>
     </row>
     <row r="21">
-      <c r="A21" s="163" t="s">
+      <c r="A21" s="162" t="s">
         <v>1051</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="172" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -22539,47 +22536,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="173" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="159" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="173" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="159" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="159" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="159" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="173" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="159" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -22608,12 +22605,12 @@
       <c r="A1" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="174" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="175" t="s">
         <v>1063</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -22666,7 +22663,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="164"/>
+      <c r="A1" s="163"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22690,13 +22687,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="176" t="s">
         <v>1071</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="176" t="s">
         <v>1072</v>
       </c>
-      <c r="E1" s="178" t="s">
+      <c r="E1" s="177" t="s">
         <v>2</v>
       </c>
     </row>
@@ -22716,10 +22713,10 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1077</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>1078</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -22732,10 +22729,10 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>1080</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>1078</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -22748,16 +22745,16 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>1081</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>1082</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>1083</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -22816,220 +22813,220 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="178" t="s">
         <v>1097</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="179" t="s">
         <v>1098</v>
       </c>
-      <c r="C9" s="180" t="s">
+      <c r="C9" s="179" t="s">
         <v>1079</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="179" t="s">
         <v>1099</v>
       </c>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="180"/>
-      <c r="R9" s="180"/>
-      <c r="S9" s="180"/>
-      <c r="T9" s="180"/>
-      <c r="U9" s="180"/>
-      <c r="V9" s="180"/>
-      <c r="W9" s="180"/>
-      <c r="X9" s="180"/>
-      <c r="Y9" s="180"/>
-      <c r="Z9" s="180"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="179"/>
+      <c r="Q9" s="179"/>
+      <c r="R9" s="179"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="179"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="179"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="179"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
     </row>
     <row r="10">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="178" t="s">
         <v>1100</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="179" t="s">
         <v>1098</v>
       </c>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="179" t="s">
         <v>1079</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="179" t="s">
         <v>1101</v>
       </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="181"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="180"/>
+      <c r="R10" s="180"/>
+      <c r="S10" s="180"/>
+      <c r="T10" s="180"/>
+      <c r="U10" s="180"/>
+      <c r="V10" s="180"/>
+      <c r="W10" s="180"/>
+      <c r="X10" s="180"/>
+      <c r="Y10" s="180"/>
+      <c r="Z10" s="180"/>
     </row>
     <row r="11">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="178" t="s">
         <v>1102</v>
       </c>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="179" t="s">
         <v>1103</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C11" s="179" t="s">
         <v>1079</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="179" t="s">
         <v>1104</v>
       </c>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="181"/>
-      <c r="S11" s="181"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="181"/>
-      <c r="V11" s="181"/>
-      <c r="W11" s="181"/>
-      <c r="X11" s="181"/>
-      <c r="Y11" s="181"/>
-      <c r="Z11" s="181"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="180"/>
+      <c r="R11" s="180"/>
+      <c r="S11" s="180"/>
+      <c r="T11" s="180"/>
+      <c r="U11" s="180"/>
+      <c r="V11" s="180"/>
+      <c r="W11" s="180"/>
+      <c r="X11" s="180"/>
+      <c r="Y11" s="180"/>
+      <c r="Z11" s="180"/>
     </row>
     <row r="12">
-      <c r="A12" s="179" t="s">
+      <c r="A12" s="178" t="s">
         <v>1105</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="179" t="s">
         <v>1103</v>
       </c>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="179" t="s">
         <v>1079</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="179" t="s">
         <v>1106</v>
       </c>
-      <c r="E12" s="181"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="181"/>
-      <c r="S12" s="181"/>
-      <c r="T12" s="181"/>
-      <c r="U12" s="181"/>
-      <c r="V12" s="181"/>
-      <c r="W12" s="181"/>
-      <c r="X12" s="181"/>
-      <c r="Y12" s="181"/>
-      <c r="Z12" s="181"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="180"/>
+      <c r="Q12" s="180"/>
+      <c r="R12" s="180"/>
+      <c r="S12" s="180"/>
+      <c r="T12" s="180"/>
+      <c r="U12" s="180"/>
+      <c r="V12" s="180"/>
+      <c r="W12" s="180"/>
+      <c r="X12" s="180"/>
+      <c r="Y12" s="180"/>
+      <c r="Z12" s="180"/>
     </row>
     <row r="13">
-      <c r="A13" s="179" t="s">
+      <c r="A13" s="178" t="s">
         <v>1107</v>
       </c>
-      <c r="B13" s="179" t="s">
+      <c r="B13" s="178" t="s">
         <v>1082</v>
       </c>
-      <c r="C13" s="180" t="s">
+      <c r="C13" s="179" t="s">
         <v>1079</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="D13" s="179" t="s">
         <v>1108</v>
       </c>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="181"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="181"/>
-      <c r="U13" s="181"/>
-      <c r="V13" s="181"/>
-      <c r="W13" s="181"/>
-      <c r="X13" s="181"/>
-      <c r="Y13" s="181"/>
-      <c r="Z13" s="181"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="180"/>
+      <c r="R13" s="180"/>
+      <c r="S13" s="180"/>
+      <c r="T13" s="180"/>
+      <c r="U13" s="180"/>
+      <c r="V13" s="180"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="180"/>
+      <c r="Y13" s="180"/>
+      <c r="Z13" s="180"/>
     </row>
     <row r="14">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="178" t="s">
         <v>1109</v>
       </c>
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="178" t="s">
         <v>1082</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C14" s="179" t="s">
         <v>1079</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="179" t="s">
         <v>1110</v>
       </c>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="181"/>
-      <c r="S14" s="181"/>
-      <c r="T14" s="181"/>
-      <c r="U14" s="181"/>
-      <c r="V14" s="181"/>
-      <c r="W14" s="181"/>
-      <c r="X14" s="181"/>
-      <c r="Y14" s="181"/>
-      <c r="Z14" s="181"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="180"/>
+      <c r="Q14" s="180"/>
+      <c r="R14" s="180"/>
+      <c r="S14" s="180"/>
+      <c r="T14" s="180"/>
+      <c r="U14" s="180"/>
+      <c r="V14" s="180"/>
+      <c r="W14" s="180"/>
+      <c r="X14" s="180"/>
+      <c r="Y14" s="180"/>
+      <c r="Z14" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23057,51 +23054,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="181" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="162" t="s">
         <v>1073</v>
       </c>
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="162" t="s">
         <v>1074</v>
       </c>
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="162" t="s">
         <v>1075</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="162" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="159" t="s">
         <v>1111</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="159" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="159" t="s">
         <v>1113</v>
       </c>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="159" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="159" t="s">
         <v>1115</v>
       </c>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="159" t="s">
         <v>1116</v>
       </c>
-      <c r="C5" s="183" t="s">
+      <c r="C5" s="182" t="s">
         <v>1114</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="159" t="s">
         <v>1117</v>
       </c>
     </row>

--- a/mappings/package_F04/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F04/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1120">
   <si>
     <t>Field</t>
   </si>
@@ -111,14 +111,11 @@
     <t>eForms Subtype</t>
   </si>
   <si>
-    <t>11,5.1,8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Stands for Standard Form F04, all directives, as per: </t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">11,5.1,8 would stand for Standard Form F04, all directives, as per: </t>
     </r>
     <r>
       <rPr>
@@ -8239,53 +8236,53 @@
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="16">
+        <v>11.0</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="C15" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
@@ -11247,7 +11244,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -11255,7 +11252,7 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
       <c r="G1" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -11279,37 +11276,37 @@
     </row>
     <row r="2">
       <c r="A2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="H2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>43</v>
       </c>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
@@ -11329,27 +11326,27 @@
     </row>
     <row r="3">
       <c r="A3" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="I3" s="35" t="s">
         <v>47</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>48</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
@@ -11361,25 +11358,25 @@
     </row>
     <row r="4">
       <c r="A4" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="34"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>51</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>52</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -11391,10 +11388,10 @@
     </row>
     <row r="5">
       <c r="A5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -11415,10 +11412,10 @@
     </row>
     <row r="6">
       <c r="A6" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -11439,22 +11436,22 @@
     </row>
     <row r="7">
       <c r="A7" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>58</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>60</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>61</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -11469,29 +11466,29 @@
     </row>
     <row r="8">
       <c r="A8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="C8" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="D8" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="35" t="s">
         <v>65</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="I8" s="35" t="s">
         <v>68</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>69</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="7"/>
@@ -11505,26 +11502,26 @@
     </row>
     <row r="9">
       <c r="A9" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="C9" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="44" t="s">
         <v>75</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>76</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -11539,26 +11536,26 @@
     </row>
     <row r="10">
       <c r="A10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="C10" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="D10" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="35" t="s">
         <v>80</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>81</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -11573,10 +11570,10 @@
     </row>
     <row r="11">
       <c r="A11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="46" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>85</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="47"/>
@@ -11597,26 +11594,26 @@
     </row>
     <row r="12">
       <c r="A12" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="C12" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="E12" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>90</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -11631,26 +11628,26 @@
     </row>
     <row r="13">
       <c r="A13" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="C13" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="D13" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="E13" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>96</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="44" t="s">
         <v>97</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>98</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -11665,29 +11662,29 @@
     </row>
     <row r="14">
       <c r="A14" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="C14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="D14" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="E14" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="I14" s="35" t="s">
         <v>105</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>106</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="7"/>
@@ -11701,26 +11698,26 @@
     </row>
     <row r="15">
       <c r="A15" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="C15" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="E15" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>111</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -11735,26 +11732,26 @@
     </row>
     <row r="16">
       <c r="A16" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="C16" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="35" t="s">
         <v>117</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>118</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -11769,28 +11766,28 @@
     </row>
     <row r="17">
       <c r="A17" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="C17" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="D17" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="E17" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="F17" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="G17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="H17" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -11805,26 +11802,26 @@
     </row>
     <row r="18">
       <c r="A18" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="C18" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="D18" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="E18" s="35" t="s">
         <v>131</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>132</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>133</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>134</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -11839,26 +11836,26 @@
     </row>
     <row r="19">
       <c r="A19" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="C19" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="D19" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="E19" s="35" t="s">
         <v>138</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>139</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -11873,29 +11870,29 @@
     </row>
     <row r="20">
       <c r="A20" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="C20" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="D20" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>144</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>145</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="7"/>
@@ -11909,26 +11906,26 @@
     </row>
     <row r="21">
       <c r="A21" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="C21" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="D21" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="E21" s="35" t="s">
         <v>150</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>151</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -11943,10 +11940,10 @@
     </row>
     <row r="22">
       <c r="A22" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="39" t="s">
         <v>153</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>154</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -11967,22 +11964,22 @@
     </row>
     <row r="23">
       <c r="A23" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="41" t="s">
         <v>57</v>
-      </c>
-      <c r="B23" s="41" t="s">
-        <v>58</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -12005,29 +12002,29 @@
     </row>
     <row r="24">
       <c r="A24" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="C24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="E24" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J24" s="36"/>
       <c r="K24" s="7"/>
@@ -12049,26 +12046,26 @@
     </row>
     <row r="25">
       <c r="A25" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="E25" s="55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -12083,26 +12080,26 @@
     </row>
     <row r="26">
       <c r="A26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="C26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E26" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -12117,10 +12114,10 @@
     </row>
     <row r="27">
       <c r="A27" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>85</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -12141,26 +12138,26 @@
     </row>
     <row r="28">
       <c r="A28" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="C28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="E28" s="55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -12175,26 +12172,26 @@
     </row>
     <row r="29">
       <c r="A29" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="C29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="E29" s="55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -12217,29 +12214,29 @@
     </row>
     <row r="30">
       <c r="A30" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="C30" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="D30" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="36" t="s">
-        <v>102</v>
-      </c>
       <c r="E30" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H30" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="7"/>
@@ -12253,26 +12250,26 @@
     </row>
     <row r="31">
       <c r="A31" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="C31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="E31" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -12287,26 +12284,26 @@
     </row>
     <row r="32">
       <c r="A32" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="C32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="E32" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -12321,28 +12318,28 @@
     </row>
     <row r="33">
       <c r="A33" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="C33" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>123</v>
-      </c>
       <c r="E33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="44" t="s">
         <v>174</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>175</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -12357,26 +12354,26 @@
     </row>
     <row r="34">
       <c r="A34" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="C34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="E34" s="55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -12391,26 +12388,26 @@
     </row>
     <row r="35">
       <c r="A35" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="C35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="E35" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -12433,29 +12430,29 @@
     </row>
     <row r="36">
       <c r="A36" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="C36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="55" t="s">
         <v>180</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>181</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -12469,26 +12466,26 @@
     </row>
     <row r="37">
       <c r="A37" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="C37" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="E37" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -12503,10 +12500,10 @@
     </row>
     <row r="38">
       <c r="A38" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="41" t="s">
         <v>185</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>186</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -12527,22 +12524,22 @@
     </row>
     <row r="39">
       <c r="A39" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>187</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>188</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="36"/>
       <c r="E39" s="44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="44" t="s">
         <v>190</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>191</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -12557,29 +12554,29 @@
     </row>
     <row r="40">
       <c r="A40" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="C40" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="D40" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="E40" s="44" t="s">
         <v>195</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>196</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="44" t="s">
+      <c r="I40" s="38" t="s">
         <v>198</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>199</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
@@ -12601,22 +12598,22 @@
     </row>
     <row r="41">
       <c r="A41" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>200</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>201</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
       <c r="E41" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="35" t="s">
         <v>203</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>204</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -12631,24 +12628,24 @@
     </row>
     <row r="42">
       <c r="A42" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="41" t="s">
         <v>205</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>206</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="F42" s="60" t="s">
+      <c r="G42" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="G42" s="60" t="s">
+      <c r="H42" s="60" t="s">
         <v>209</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>210</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -12663,24 +12660,24 @@
     </row>
     <row r="43">
       <c r="A43" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="C43" s="44" t="s">
         <v>212</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>213</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H43" s="44" t="s">
         <v>215</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>216</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -12695,26 +12692,26 @@
     </row>
     <row r="44">
       <c r="A44" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="C44" s="44" t="s">
         <v>218</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>219</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="G44" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="G44" s="44" t="s">
+      <c r="H44" s="44" t="s">
         <v>222</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>223</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -12729,24 +12726,24 @@
     </row>
     <row r="45">
       <c r="A45" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>225</v>
-      </c>
       <c r="C45" s="44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H45" s="61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -12761,26 +12758,26 @@
     </row>
     <row r="46">
       <c r="A46" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="B46" s="62" t="s">
+      <c r="C46" s="59" t="s">
         <v>229</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>230</v>
       </c>
       <c r="D46" s="58"/>
       <c r="E46" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="59" t="s">
         <v>231</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="H46" s="59" t="s">
-        <v>232</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -12795,10 +12792,10 @@
     </row>
     <row r="47">
       <c r="A47" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" s="46" t="s">
         <v>233</v>
-      </c>
-      <c r="B47" s="46" t="s">
-        <v>234</v>
       </c>
       <c r="C47" s="64"/>
       <c r="D47" s="64"/>
@@ -12819,24 +12816,24 @@
     </row>
     <row r="48">
       <c r="A48" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="C48" s="35" t="s">
         <v>236</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>237</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H48" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -12851,24 +12848,24 @@
     </row>
     <row r="49">
       <c r="A49" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="B49" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="C49" s="67" t="s">
         <v>236</v>
-      </c>
-      <c r="C49" s="67" t="s">
-        <v>237</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" s="60" t="s">
         <v>239</v>
-      </c>
-      <c r="H49" s="60" t="s">
-        <v>240</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -12891,24 +12888,24 @@
     </row>
     <row r="50">
       <c r="A50" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="B50" s="50" t="s">
-        <v>242</v>
-      </c>
       <c r="C50" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H50" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -12923,29 +12920,29 @@
     </row>
     <row r="51">
       <c r="A51" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>244</v>
-      </c>
-      <c r="B51" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>245</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H51" s="72" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I51" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -12959,26 +12956,26 @@
     </row>
     <row r="52">
       <c r="A52" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="B52" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="35" t="s">
         <v>247</v>
-      </c>
-      <c r="B52" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>248</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H52" s="72" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -12993,26 +12990,26 @@
     </row>
     <row r="53">
       <c r="A53" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="35" t="s">
         <v>250</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>251</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53" s="72" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -13027,10 +13024,10 @@
     </row>
     <row r="54">
       <c r="A54" s="70" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -13051,26 +13048,26 @@
     </row>
     <row r="55">
       <c r="A55" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="44" t="s">
         <v>254</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>255</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H55" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I55" s="58"/>
       <c r="J55" s="58"/>
@@ -13085,29 +13082,29 @@
     </row>
     <row r="56">
       <c r="A56" s="70" t="s">
+        <v>256</v>
+      </c>
+      <c r="B56" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="44" t="s">
         <v>257</v>
-      </c>
-      <c r="B56" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>258</v>
       </c>
       <c r="F56" s="36"/>
       <c r="G56" s="69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H56" s="72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
@@ -13121,26 +13118,26 @@
     </row>
     <row r="57">
       <c r="A57" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>260</v>
-      </c>
-      <c r="B57" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>261</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H57" s="72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -13155,26 +13152,26 @@
     </row>
     <row r="58">
       <c r="A58" s="70" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="35" t="s">
         <v>263</v>
-      </c>
-      <c r="B58" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>264</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H58" s="72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -13189,28 +13186,28 @@
     </row>
     <row r="59">
       <c r="A59" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="B59" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="74" t="s">
+      <c r="F59" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="G59" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="72" t="s">
         <v>268</v>
-      </c>
-      <c r="G59" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="H59" s="72" t="s">
-        <v>269</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -13225,26 +13222,26 @@
     </row>
     <row r="60">
       <c r="A60" s="70" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>270</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>271</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H60" s="72" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -13259,26 +13256,26 @@
     </row>
     <row r="61">
       <c r="A61" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>273</v>
-      </c>
-      <c r="B61" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D61" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E61" s="35" t="s">
-        <v>274</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" s="72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -13293,29 +13290,29 @@
     </row>
     <row r="62">
       <c r="A62" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>276</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>277</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H62" s="72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -13329,26 +13326,26 @@
     </row>
     <row r="63">
       <c r="A63" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>279</v>
-      </c>
-      <c r="B63" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>280</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H63" s="72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -13363,10 +13360,10 @@
     </row>
     <row r="64">
       <c r="A64" s="42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" s="43" t="s">
         <v>282</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>283</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -13387,24 +13384,24 @@
     </row>
     <row r="65">
       <c r="A65" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="B65" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="C65" s="35" t="s">
         <v>285</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>286</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F65" s="77"/>
       <c r="G65" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="H65" s="76" t="s">
         <v>288</v>
-      </c>
-      <c r="H65" s="76" t="s">
-        <v>289</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -13419,24 +13416,24 @@
     </row>
     <row r="66">
       <c r="A66" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="C66" s="35" t="s">
         <v>291</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>292</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="60" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F66" s="78"/>
       <c r="G66" s="60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H66" s="60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -13451,27 +13448,27 @@
     </row>
     <row r="67">
       <c r="A67" s="79" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" s="80" t="s">
         <v>290</v>
-      </c>
-      <c r="B67" s="80" t="s">
-        <v>291</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="81" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F67" s="78"/>
       <c r="G67" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="H67" s="60" t="s">
         <v>239</v>
-      </c>
-      <c r="H67" s="60" t="s">
-        <v>240</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
@@ -13483,24 +13480,24 @@
     </row>
     <row r="68">
       <c r="A68" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B68" s="50" t="s">
         <v>295</v>
       </c>
-      <c r="B68" s="50" t="s">
-        <v>296</v>
-      </c>
       <c r="C68" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F68" s="77"/>
       <c r="G68" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H68" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -13515,29 +13512,29 @@
     </row>
     <row r="69">
       <c r="A69" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="60" t="s">
         <v>298</v>
-      </c>
-      <c r="B69" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E69" s="60" t="s">
-        <v>299</v>
       </c>
       <c r="F69" s="78"/>
       <c r="G69" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H69" s="60" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -13551,26 +13548,26 @@
     </row>
     <row r="70">
       <c r="A70" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="60" t="s">
         <v>301</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="60" t="s">
-        <v>302</v>
       </c>
       <c r="F70" s="78"/>
       <c r="G70" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H70" s="60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -13585,26 +13582,26 @@
     </row>
     <row r="71">
       <c r="A71" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E71" s="60" t="s">
         <v>304</v>
-      </c>
-      <c r="B71" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="60" t="s">
-        <v>305</v>
       </c>
       <c r="F71" s="78"/>
       <c r="G71" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H71" s="60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -13619,10 +13616,10 @@
     </row>
     <row r="72">
       <c r="A72" s="70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B72" s="71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -13643,26 +13640,26 @@
     </row>
     <row r="73">
       <c r="A73" s="82" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="60" t="s">
         <v>308</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73" s="60" t="s">
-        <v>309</v>
       </c>
       <c r="F73" s="77"/>
       <c r="G73" s="60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H73" s="83" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -13677,29 +13674,29 @@
     </row>
     <row r="74">
       <c r="A74" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="60" t="s">
         <v>311</v>
-      </c>
-      <c r="B74" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="60" t="s">
-        <v>312</v>
       </c>
       <c r="F74" s="78"/>
       <c r="G74" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H74" s="83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -13713,26 +13710,26 @@
     </row>
     <row r="75">
       <c r="A75" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="B75" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="60" t="s">
         <v>314</v>
-      </c>
-      <c r="B75" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" s="60" t="s">
-        <v>315</v>
       </c>
       <c r="F75" s="78"/>
       <c r="G75" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H75" s="60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -13747,26 +13744,26 @@
     </row>
     <row r="76">
       <c r="A76" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" s="60" t="s">
         <v>317</v>
-      </c>
-      <c r="B76" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="60" t="s">
-        <v>318</v>
       </c>
       <c r="F76" s="78"/>
       <c r="G76" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H76" s="83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -13781,28 +13778,28 @@
     </row>
     <row r="77">
       <c r="A77" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="B77" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="B77" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="60" t="s">
+      <c r="F77" s="76" t="s">
         <v>321</v>
       </c>
-      <c r="F77" s="76" t="s">
+      <c r="G77" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" s="83" t="s">
         <v>322</v>
-      </c>
-      <c r="G77" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="H77" s="83" t="s">
-        <v>323</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -13817,26 +13814,26 @@
     </row>
     <row r="78">
       <c r="A78" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="B78" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E78" s="60" t="s">
         <v>324</v>
-      </c>
-      <c r="B78" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E78" s="60" t="s">
-        <v>325</v>
       </c>
       <c r="F78" s="78"/>
       <c r="G78" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H78" s="83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -13851,26 +13848,26 @@
     </row>
     <row r="79">
       <c r="A79" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="B79" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="60" t="s">
         <v>327</v>
-      </c>
-      <c r="B79" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="E79" s="60" t="s">
-        <v>328</v>
       </c>
       <c r="F79" s="78"/>
       <c r="G79" s="60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H79" s="60" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -13885,29 +13882,29 @@
     </row>
     <row r="80">
       <c r="A80" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="B80" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E80" s="60" t="s">
         <v>330</v>
-      </c>
-      <c r="B80" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E80" s="60" t="s">
-        <v>331</v>
       </c>
       <c r="F80" s="78"/>
       <c r="G80" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H80" s="60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -13921,26 +13918,26 @@
     </row>
     <row r="81">
       <c r="A81" s="70" t="s">
+        <v>332</v>
+      </c>
+      <c r="B81" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" s="60" t="s">
         <v>333</v>
-      </c>
-      <c r="B81" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E81" s="60" t="s">
-        <v>334</v>
       </c>
       <c r="F81" s="77"/>
       <c r="G81" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H81" s="60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -13955,24 +13952,24 @@
     </row>
     <row r="82">
       <c r="A82" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="B82" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="C82" s="44" t="s">
         <v>337</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>338</v>
       </c>
       <c r="D82" s="36"/>
       <c r="E82" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F82" s="36"/>
       <c r="G82" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="H82" s="44" t="s">
         <v>340</v>
-      </c>
-      <c r="H82" s="44" t="s">
-        <v>341</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -13987,24 +13984,24 @@
     </row>
     <row r="83">
       <c r="A83" s="84" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="B83" s="85" t="s">
+      <c r="C83" s="86" t="s">
         <v>337</v>
-      </c>
-      <c r="C83" s="86" t="s">
-        <v>338</v>
       </c>
       <c r="D83" s="36"/>
       <c r="E83" s="87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F83" s="58"/>
       <c r="G83" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="H83" s="86" t="s">
         <v>342</v>
-      </c>
-      <c r="H83" s="86" t="s">
-        <v>343</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -14019,26 +14016,26 @@
     </row>
     <row r="84">
       <c r="A84" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="B84" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="C84" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="D84" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="D84" s="35" t="s">
+      <c r="E84" s="35" t="s">
         <v>347</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>348</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="H84" s="35" t="s">
         <v>349</v>
-      </c>
-      <c r="H84" s="35" t="s">
-        <v>350</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -14053,26 +14050,26 @@
     </row>
     <row r="85">
       <c r="A85" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B85" s="41" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C85" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="D85" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="D85" s="35" t="s">
+      <c r="E85" s="52" t="s">
         <v>347</v>
-      </c>
-      <c r="E85" s="52" t="s">
-        <v>348</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H85" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
@@ -14087,20 +14084,20 @@
     </row>
     <row r="86">
       <c r="A86" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B86" s="88"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="H86" s="35" t="s">
         <v>355</v>
-      </c>
-      <c r="H86" s="35" t="s">
-        <v>356</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -14115,10 +14112,10 @@
     </row>
     <row r="87">
       <c r="A87" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B87" s="39" t="s">
         <v>357</v>
-      </c>
-      <c r="B87" s="39" t="s">
-        <v>358</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -14132,10 +14129,10 @@
     </row>
     <row r="88">
       <c r="A88" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="B88" s="41" t="s">
         <v>359</v>
-      </c>
-      <c r="B88" s="41" t="s">
-        <v>360</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -14149,84 +14146,84 @@
     </row>
     <row r="89">
       <c r="A89" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B89" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D89" s="35" t="s">
         <v>6</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="H89" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="H89" s="35" t="s">
-        <v>365</v>
-      </c>
       <c r="I89" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
       <c r="A90" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="B90" s="50" t="s">
         <v>366</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="C90" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="D90" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="D90" s="44" t="s">
+      <c r="E90" s="44" t="s">
         <v>369</v>
-      </c>
-      <c r="E90" s="44" t="s">
-        <v>370</v>
       </c>
       <c r="F90" s="36"/>
       <c r="G90" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="H90" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="H90" s="44" t="s">
-        <v>372</v>
-      </c>
       <c r="I90" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
       <c r="A91" s="42" t="s">
+        <v>372</v>
+      </c>
+      <c r="B91" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="C91" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="D91" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="E91" s="35" t="s">
         <v>376</v>
-      </c>
-      <c r="E91" s="35" t="s">
-        <v>377</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="H91" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="H91" s="60" t="s">
-        <v>379</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -14234,19 +14231,19 @@
     </row>
     <row r="92">
       <c r="A92" s="49" t="s">
+        <v>379</v>
+      </c>
+      <c r="B92" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="C92" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="D92" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="E92" s="38" t="s">
         <v>383</v>
-      </c>
-      <c r="E92" s="38" t="s">
-        <v>384</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -14254,31 +14251,31 @@
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
       <c r="K92" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="B93" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="C93" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="D93" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="E93" s="38" t="s">
         <v>389</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>390</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="H93" s="38" t="s">
         <v>391</v>
-      </c>
-      <c r="H93" s="38" t="s">
-        <v>392</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -14286,39 +14283,39 @@
     </row>
     <row r="94">
       <c r="A94" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="B94" s="43" t="s">
         <v>393</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="C94" s="44" t="s">
         <v>394</v>
-      </c>
-      <c r="C94" s="44" t="s">
-        <v>395</v>
       </c>
       <c r="D94" s="44" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F94" s="36"/>
       <c r="G94" s="44" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H94" s="44" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="B95" s="43" t="s">
         <v>398</v>
-      </c>
-      <c r="B95" s="43" t="s">
-        <v>399</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -14332,26 +14329,26 @@
     </row>
     <row r="96">
       <c r="A96" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="B96" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="C96" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="C96" s="35" t="s">
+      <c r="D96" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="E96" s="35" t="s">
         <v>403</v>
-      </c>
-      <c r="E96" s="35" t="s">
-        <v>404</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="H96" s="35" t="s">
         <v>405</v>
-      </c>
-      <c r="H96" s="35" t="s">
-        <v>406</v>
       </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
@@ -14359,24 +14356,24 @@
     </row>
     <row r="97">
       <c r="A97" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" s="50" t="s">
         <v>407</v>
       </c>
-      <c r="B97" s="50" t="s">
-        <v>408</v>
-      </c>
       <c r="C97" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="H97" s="35" t="s">
         <v>410</v>
-      </c>
-      <c r="H97" s="35" t="s">
-        <v>411</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -14384,10 +14381,10 @@
     </row>
     <row r="98">
       <c r="A98" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="B98" s="50" t="s">
         <v>412</v>
-      </c>
-      <c r="B98" s="50" t="s">
-        <v>413</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -14401,10 +14398,10 @@
     </row>
     <row r="99">
       <c r="A99" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B99" s="43" t="s">
         <v>414</v>
-      </c>
-      <c r="B99" s="43" t="s">
-        <v>415</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -14418,10 +14415,10 @@
     </row>
     <row r="100">
       <c r="A100" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="B100" s="50" t="s">
         <v>416</v>
-      </c>
-      <c r="B100" s="50" t="s">
-        <v>417</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -14432,29 +14429,29 @@
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="B101" s="71" t="s">
         <v>419</v>
-      </c>
-      <c r="B101" s="71" t="s">
-        <v>420</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="E101" s="35" t="s">
         <v>421</v>
-      </c>
-      <c r="E101" s="35" t="s">
-        <v>422</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="H101" s="35" t="s">
         <v>423</v>
-      </c>
-      <c r="H101" s="35" t="s">
-        <v>424</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -14462,24 +14459,24 @@
     </row>
     <row r="102">
       <c r="A102" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="B102" s="71" t="s">
         <v>425</v>
-      </c>
-      <c r="B102" s="71" t="s">
-        <v>426</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="E102" s="35" t="s">
         <v>427</v>
-      </c>
-      <c r="E102" s="35" t="s">
-        <v>428</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="H102" s="35" t="s">
         <v>429</v>
-      </c>
-      <c r="H102" s="35" t="s">
-        <v>430</v>
       </c>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
@@ -14487,24 +14484,24 @@
     </row>
     <row r="103">
       <c r="A103" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="B103" s="71" t="s">
         <v>431</v>
-      </c>
-      <c r="B103" s="71" t="s">
-        <v>432</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="35" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H103" s="89" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -14512,24 +14509,24 @@
     </row>
     <row r="104">
       <c r="A104" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="B104" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="C104" s="35" t="s">
         <v>436</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>437</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H104" s="89" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -14537,24 +14534,24 @@
     </row>
     <row r="105">
       <c r="A105" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="B105" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="B105" s="50" t="s">
-        <v>441</v>
-      </c>
       <c r="C105" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="H105" s="35" t="s">
         <v>443</v>
-      </c>
-      <c r="H105" s="35" t="s">
-        <v>444</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -14562,7 +14559,7 @@
     </row>
     <row r="106">
       <c r="A106" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B106" s="41" t="s">
         <v>8</v>
@@ -14570,7 +14567,7 @@
       <c r="C106" s="4"/>
       <c r="D106" s="7"/>
       <c r="E106" s="63" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -14581,7 +14578,7 @@
     </row>
     <row r="107">
       <c r="A107" s="90" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B107" s="91" t="s">
         <v>8</v>
@@ -14589,14 +14586,14 @@
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="H107" s="60" t="s">
         <v>447</v>
-      </c>
-      <c r="H107" s="60" t="s">
-        <v>448</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -14604,68 +14601,68 @@
     </row>
     <row r="108">
       <c r="A108" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B108" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D108" s="44" t="s">
         <v>6</v>
       </c>
       <c r="E108" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F108" s="36"/>
       <c r="G108" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="H108" s="44" t="s">
         <v>451</v>
       </c>
-      <c r="H108" s="44" t="s">
-        <v>452</v>
-      </c>
       <c r="I108" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
       <c r="A109" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="B109" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="C109" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="C109" s="44" t="s">
+      <c r="D109" s="59" t="s">
         <v>455</v>
       </c>
-      <c r="D109" s="59" t="s">
+      <c r="E109" s="59" t="s">
         <v>456</v>
-      </c>
-      <c r="E109" s="59" t="s">
-        <v>457</v>
       </c>
       <c r="F109" s="58"/>
       <c r="G109" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="H109" s="59" t="s">
         <v>458</v>
       </c>
-      <c r="H109" s="59" t="s">
-        <v>459</v>
-      </c>
       <c r="I109" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
       <c r="A110" s="92" t="s">
+        <v>459</v>
+      </c>
+      <c r="B110" s="93" t="s">
         <v>460</v>
-      </c>
-      <c r="B110" s="93" t="s">
-        <v>461</v>
       </c>
       <c r="C110" s="36"/>
       <c r="D110" s="36"/>
@@ -14679,26 +14676,26 @@
     </row>
     <row r="111">
       <c r="A111" s="94" t="s">
+        <v>461</v>
+      </c>
+      <c r="B111" s="95" t="s">
         <v>462</v>
       </c>
-      <c r="B111" s="95" t="s">
+      <c r="C111" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="C111" s="96" t="s">
+      <c r="D111" s="96" t="s">
         <v>464</v>
       </c>
-      <c r="D111" s="96" t="s">
+      <c r="E111" s="96" t="s">
         <v>465</v>
-      </c>
-      <c r="E111" s="96" t="s">
-        <v>466</v>
       </c>
       <c r="F111" s="36"/>
       <c r="G111" s="96" t="s">
+        <v>466</v>
+      </c>
+      <c r="H111" s="97" t="s">
         <v>467</v>
-      </c>
-      <c r="H111" s="97" t="s">
-        <v>468</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -14706,26 +14703,26 @@
     </row>
     <row r="112">
       <c r="A112" s="94" t="s">
+        <v>461</v>
+      </c>
+      <c r="B112" s="95" t="s">
         <v>462</v>
       </c>
-      <c r="B112" s="95" t="s">
+      <c r="C112" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="C112" s="98" t="s">
+      <c r="D112" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="D112" s="98" t="s">
-        <v>465</v>
-      </c>
       <c r="E112" s="98" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F112" s="58"/>
       <c r="G112" s="98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H112" s="99" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
@@ -14733,10 +14730,10 @@
     </row>
     <row r="113">
       <c r="A113" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="B113" s="43" t="s">
         <v>471</v>
-      </c>
-      <c r="B113" s="43" t="s">
-        <v>472</v>
       </c>
       <c r="C113" s="36"/>
       <c r="D113" s="36"/>
@@ -14750,16 +14747,16 @@
     </row>
     <row r="114">
       <c r="A114" s="49" t="s">
+        <v>472</v>
+      </c>
+      <c r="B114" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="C114" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="C114" s="44" t="s">
-        <v>475</v>
-      </c>
       <c r="D114" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E114" s="36"/>
       <c r="F114" s="4"/>
@@ -14771,26 +14768,26 @@
     </row>
     <row r="115">
       <c r="A115" s="70" t="s">
+        <v>475</v>
+      </c>
+      <c r="B115" s="71" t="s">
         <v>476</v>
       </c>
-      <c r="B115" s="71" t="s">
+      <c r="C115" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="D115" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="E115" s="44" t="s">
         <v>477</v>
-      </c>
-      <c r="C115" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="D115" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="E115" s="44" t="s">
-        <v>478</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="H115" s="61" t="s">
         <v>479</v>
-      </c>
-      <c r="H115" s="61" t="s">
-        <v>480</v>
       </c>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
@@ -14798,26 +14795,26 @@
     </row>
     <row r="116">
       <c r="A116" s="70" t="s">
+        <v>480</v>
+      </c>
+      <c r="B116" s="71" t="s">
         <v>481</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="C116" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="D116" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="E116" s="59" t="s">
         <v>482</v>
-      </c>
-      <c r="C116" s="59" t="s">
-        <v>475</v>
-      </c>
-      <c r="D116" s="59" t="s">
-        <v>474</v>
-      </c>
-      <c r="E116" s="59" t="s">
-        <v>483</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H116" s="59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
@@ -14825,39 +14822,39 @@
     </row>
     <row r="117">
       <c r="A117" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="B117" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="B117" s="50" t="s">
+      <c r="C117" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="C117" s="44" t="s">
+      <c r="D117" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="D117" s="44" t="s">
+      <c r="E117" s="44" t="s">
         <v>488</v>
-      </c>
-      <c r="E117" s="44" t="s">
-        <v>489</v>
       </c>
       <c r="F117" s="36"/>
       <c r="G117" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="H117" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="H117" s="44" t="s">
-        <v>491</v>
-      </c>
       <c r="I117" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
       <c r="A118" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="B118" s="43" t="s">
         <v>492</v>
-      </c>
-      <c r="B118" s="43" t="s">
-        <v>493</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="7"/>
@@ -14871,16 +14868,16 @@
     </row>
     <row r="119">
       <c r="A119" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="B119" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="C119" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="C119" s="44" t="s">
+      <c r="D119" s="44" t="s">
         <v>496</v>
-      </c>
-      <c r="D119" s="44" t="s">
-        <v>497</v>
       </c>
       <c r="E119" s="36"/>
       <c r="F119" s="4"/>
@@ -14892,26 +14889,26 @@
     </row>
     <row r="120">
       <c r="A120" s="70" t="s">
+        <v>497</v>
+      </c>
+      <c r="B120" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="B120" s="71" t="s">
+      <c r="C120" s="59" t="s">
+        <v>495</v>
+      </c>
+      <c r="D120" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="E120" s="44" t="s">
         <v>499</v>
-      </c>
-      <c r="C120" s="59" t="s">
-        <v>496</v>
-      </c>
-      <c r="D120" s="59" t="s">
-        <v>497</v>
-      </c>
-      <c r="E120" s="44" t="s">
-        <v>500</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="H120" s="100" t="s">
         <v>501</v>
-      </c>
-      <c r="H120" s="100" t="s">
-        <v>502</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -14919,26 +14916,26 @@
     </row>
     <row r="121">
       <c r="A121" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="B121" s="71" t="s">
         <v>503</v>
       </c>
-      <c r="B121" s="71" t="s">
+      <c r="C121" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="D121" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="E121" s="44" t="s">
         <v>504</v>
-      </c>
-      <c r="C121" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="D121" s="38" t="s">
-        <v>497</v>
-      </c>
-      <c r="E121" s="44" t="s">
-        <v>505</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H121" s="100" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
@@ -14946,68 +14943,68 @@
     </row>
     <row r="122">
       <c r="A122" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="B122" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="B122" s="50" t="s">
+      <c r="C122" s="59" t="s">
         <v>508</v>
       </c>
-      <c r="C122" s="59" t="s">
+      <c r="D122" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="D122" s="59" t="s">
-        <v>510</v>
-      </c>
       <c r="E122" s="52" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F122" s="36"/>
       <c r="G122" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="H122" s="100" t="s">
         <v>511</v>
       </c>
-      <c r="H122" s="100" t="s">
-        <v>512</v>
-      </c>
       <c r="I122" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
       <c r="A123" s="42" t="s">
+        <v>512</v>
+      </c>
+      <c r="B123" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="B123" s="43" t="s">
+      <c r="C123" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="C123" s="38" t="s">
+      <c r="D123" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="D123" s="38" t="s">
+      <c r="E123" s="35" t="s">
         <v>516</v>
-      </c>
-      <c r="E123" s="35" t="s">
-        <v>517</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H123" s="101" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
       <c r="A124" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="B124" s="43" t="s">
         <v>519</v>
-      </c>
-      <c r="B124" s="43" t="s">
-        <v>520</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -15021,26 +15018,26 @@
     </row>
     <row r="125">
       <c r="A125" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D125" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="E125" s="35" t="s">
         <v>521</v>
-      </c>
-      <c r="B125" s="50" t="s">
-        <v>374</v>
-      </c>
-      <c r="C125" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="D125" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="E125" s="35" t="s">
-        <v>522</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="H125" s="35" t="s">
         <v>523</v>
-      </c>
-      <c r="H125" s="35" t="s">
-        <v>524</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -15048,19 +15045,19 @@
     </row>
     <row r="126">
       <c r="A126" s="49" t="s">
+        <v>524</v>
+      </c>
+      <c r="B126" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="D126" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="E126" s="38" t="s">
         <v>525</v>
-      </c>
-      <c r="B126" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="C126" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="E126" s="38" t="s">
-        <v>526</v>
       </c>
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
@@ -15068,15 +15065,15 @@
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="B127" s="43" t="s">
         <v>527</v>
-      </c>
-      <c r="B127" s="43" t="s">
-        <v>528</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -15090,28 +15087,28 @@
     </row>
     <row r="128">
       <c r="A128" s="49" t="s">
+        <v>528</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="B128" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C128" s="38" t="s">
+      <c r="D128" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="D128" s="38" t="s">
+      <c r="E128" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="E128" s="35" t="s">
+      <c r="F128" s="35" t="s">
         <v>532</v>
       </c>
-      <c r="F128" s="35" t="s">
+      <c r="G128" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="G128" s="44" t="s">
+      <c r="H128" s="61" t="s">
         <v>534</v>
-      </c>
-      <c r="H128" s="61" t="s">
-        <v>535</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -15119,97 +15116,97 @@
     </row>
     <row r="129">
       <c r="A129" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="B129" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="B129" s="50" t="s">
+      <c r="C129" s="59" t="s">
         <v>537</v>
       </c>
-      <c r="C129" s="59" t="s">
+      <c r="D129" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="D129" s="59" t="s">
+      <c r="E129" s="35" t="s">
         <v>539</v>
-      </c>
-      <c r="E129" s="35" t="s">
-        <v>540</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="H129" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="H129" s="44" t="s">
-        <v>542</v>
-      </c>
       <c r="I129" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
       <c r="A130" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="B130" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="B130" s="43" t="s">
-        <v>544</v>
-      </c>
       <c r="C130" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D130" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H130" s="102" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C131" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D131" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E131" s="63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H131" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="42" t="s">
+        <v>548</v>
+      </c>
+      <c r="B132" s="43" t="s">
         <v>549</v>
-      </c>
-      <c r="B132" s="43" t="s">
-        <v>550</v>
       </c>
       <c r="C132" s="58"/>
       <c r="D132" s="58"/>
@@ -15223,26 +15220,26 @@
     </row>
     <row r="133">
       <c r="A133" s="49" t="s">
+        <v>550</v>
+      </c>
+      <c r="B133" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="B133" s="50" t="s">
+      <c r="C133" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="C133" s="38" t="s">
+      <c r="D133" s="38" t="s">
         <v>553</v>
       </c>
-      <c r="D133" s="38" t="s">
+      <c r="E133" s="35" t="s">
         <v>554</v>
-      </c>
-      <c r="E133" s="35" t="s">
-        <v>555</v>
       </c>
       <c r="F133" s="36"/>
       <c r="G133" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="H133" s="61" t="s">
         <v>556</v>
-      </c>
-      <c r="H133" s="61" t="s">
-        <v>557</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -15250,26 +15247,26 @@
     </row>
     <row r="134">
       <c r="A134" s="79" t="s">
+        <v>550</v>
+      </c>
+      <c r="B134" s="80" t="s">
         <v>551</v>
       </c>
-      <c r="B134" s="80" t="s">
+      <c r="C134" s="103" t="s">
         <v>552</v>
       </c>
-      <c r="C134" s="103" t="s">
+      <c r="D134" s="103" t="s">
         <v>553</v>
       </c>
-      <c r="D134" s="103" t="s">
+      <c r="E134" s="52" t="s">
         <v>554</v>
-      </c>
-      <c r="E134" s="52" t="s">
-        <v>555</v>
       </c>
       <c r="F134" s="36"/>
       <c r="G134" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="H134" s="104" t="s">
         <v>558</v>
-      </c>
-      <c r="H134" s="104" t="s">
-        <v>559</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -15277,84 +15274,84 @@
     </row>
     <row r="135">
       <c r="A135" s="70" t="s">
+        <v>559</v>
+      </c>
+      <c r="B135" s="71" t="s">
         <v>560</v>
       </c>
-      <c r="B135" s="71" t="s">
+      <c r="C135" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="C135" s="59" t="s">
+      <c r="D135" s="59" t="s">
         <v>562</v>
       </c>
-      <c r="D135" s="59" t="s">
+      <c r="E135" s="35" t="s">
         <v>563</v>
-      </c>
-      <c r="E135" s="35" t="s">
-        <v>564</v>
       </c>
       <c r="F135" s="36"/>
       <c r="G135" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="H135" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="H135" s="35" t="s">
-        <v>566</v>
-      </c>
       <c r="I135" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="70" t="s">
+        <v>566</v>
+      </c>
+      <c r="B136" s="71" t="s">
         <v>567</v>
       </c>
-      <c r="B136" s="71" t="s">
+      <c r="C136" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="C136" s="59" t="s">
+      <c r="D136" s="59" t="s">
         <v>569</v>
       </c>
-      <c r="D136" s="59" t="s">
+      <c r="E136" s="35" t="s">
         <v>570</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>571</v>
       </c>
       <c r="F136" s="36"/>
       <c r="G136" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H136" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="B137" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="B137" s="50" t="s">
+      <c r="C137" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="D137" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="E137" s="35" t="s">
         <v>574</v>
-      </c>
-      <c r="C137" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="D137" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="E137" s="35" t="s">
-        <v>575</v>
       </c>
       <c r="F137" s="36"/>
       <c r="G137" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H137" s="61" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -15362,26 +15359,26 @@
     </row>
     <row r="138">
       <c r="A138" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="B138" s="80" t="s">
         <v>573</v>
       </c>
-      <c r="B138" s="80" t="s">
+      <c r="C138" s="103" t="s">
+        <v>552</v>
+      </c>
+      <c r="D138" s="103" t="s">
+        <v>553</v>
+      </c>
+      <c r="E138" s="52" t="s">
         <v>574</v>
-      </c>
-      <c r="C138" s="103" t="s">
-        <v>553</v>
-      </c>
-      <c r="D138" s="103" t="s">
-        <v>554</v>
-      </c>
-      <c r="E138" s="52" t="s">
-        <v>575</v>
       </c>
       <c r="F138" s="36"/>
       <c r="G138" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H138" s="104" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -15389,84 +15386,84 @@
     </row>
     <row r="139">
       <c r="A139" s="70" t="s">
+        <v>577</v>
+      </c>
+      <c r="B139" s="71" t="s">
+        <v>560</v>
+      </c>
+      <c r="C139" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="D139" s="59" t="s">
+        <v>562</v>
+      </c>
+      <c r="E139" s="35" t="s">
         <v>578</v>
-      </c>
-      <c r="B139" s="71" t="s">
-        <v>561</v>
-      </c>
-      <c r="C139" s="59" t="s">
-        <v>562</v>
-      </c>
-      <c r="D139" s="59" t="s">
-        <v>563</v>
-      </c>
-      <c r="E139" s="35" t="s">
-        <v>579</v>
       </c>
       <c r="F139" s="36"/>
       <c r="G139" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="H139" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="H139" s="35" t="s">
-        <v>566</v>
-      </c>
       <c r="I139" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="70" t="s">
+        <v>579</v>
+      </c>
+      <c r="B140" s="71" t="s">
+        <v>567</v>
+      </c>
+      <c r="C140" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="D140" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="E140" s="35" t="s">
         <v>580</v>
-      </c>
-      <c r="B140" s="71" t="s">
-        <v>568</v>
-      </c>
-      <c r="C140" s="59" t="s">
-        <v>569</v>
-      </c>
-      <c r="D140" s="59" t="s">
-        <v>570</v>
-      </c>
-      <c r="E140" s="35" t="s">
-        <v>581</v>
       </c>
       <c r="F140" s="36"/>
       <c r="G140" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H140" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
       <c r="A141" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="B141" s="50" t="s">
         <v>582</v>
       </c>
-      <c r="B141" s="50" t="s">
+      <c r="C141" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="D141" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="E141" s="35" t="s">
         <v>583</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>553</v>
-      </c>
-      <c r="D141" s="38" t="s">
-        <v>554</v>
-      </c>
-      <c r="E141" s="35" t="s">
-        <v>584</v>
       </c>
       <c r="F141" s="36"/>
       <c r="G141" s="44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H141" s="61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -15474,26 +15471,26 @@
     </row>
     <row r="142">
       <c r="A142" s="79" t="s">
+        <v>581</v>
+      </c>
+      <c r="B142" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="B142" s="80" t="s">
+      <c r="C142" s="103" t="s">
+        <v>552</v>
+      </c>
+      <c r="D142" s="103" t="s">
+        <v>553</v>
+      </c>
+      <c r="E142" s="52" t="s">
         <v>583</v>
-      </c>
-      <c r="C142" s="103" t="s">
-        <v>553</v>
-      </c>
-      <c r="D142" s="103" t="s">
-        <v>554</v>
-      </c>
-      <c r="E142" s="52" t="s">
-        <v>584</v>
       </c>
       <c r="F142" s="58"/>
       <c r="G142" s="35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H142" s="104" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
@@ -15501,51 +15498,51 @@
     </row>
     <row r="143">
       <c r="A143" s="70" t="s">
+        <v>586</v>
+      </c>
+      <c r="B143" s="71" t="s">
+        <v>567</v>
+      </c>
+      <c r="C143" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="D143" s="59" t="s">
+        <v>569</v>
+      </c>
+      <c r="E143" s="35" t="s">
         <v>587</v>
-      </c>
-      <c r="B143" s="71" t="s">
-        <v>568</v>
-      </c>
-      <c r="C143" s="59" t="s">
-        <v>569</v>
-      </c>
-      <c r="D143" s="59" t="s">
-        <v>570</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>588</v>
       </c>
       <c r="F143" s="36"/>
       <c r="G143" s="35" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H143" s="35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I143" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
       <c r="A144" s="94" t="s">
+        <v>588</v>
+      </c>
+      <c r="B144" s="95" t="s">
         <v>589</v>
-      </c>
-      <c r="B144" s="95" t="s">
-        <v>590</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="105" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="96" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H144" s="106" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I144" s="58"/>
       <c r="J144" s="58"/>
@@ -15553,15 +15550,15 @@
     </row>
     <row r="145">
       <c r="A145" s="94" t="s">
+        <v>588</v>
+      </c>
+      <c r="B145" s="95" t="s">
         <v>589</v>
-      </c>
-      <c r="B145" s="95" t="s">
-        <v>590</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="105" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F145" s="4"/>
       <c r="G145" s="107"/>
@@ -15569,15 +15566,15 @@
       <c r="I145" s="58"/>
       <c r="J145" s="58"/>
       <c r="K145" s="108" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="42" t="s">
+        <v>593</v>
+      </c>
+      <c r="B146" s="43" t="s">
         <v>594</v>
-      </c>
-      <c r="B146" s="43" t="s">
-        <v>595</v>
       </c>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -15591,26 +15588,26 @@
     </row>
     <row r="147">
       <c r="A147" s="49" t="s">
+        <v>595</v>
+      </c>
+      <c r="B147" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="C147" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="B147" s="50" t="s">
-        <v>401</v>
-      </c>
-      <c r="C147" s="38" t="s">
+      <c r="D147" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="E147" s="35" t="s">
         <v>597</v>
-      </c>
-      <c r="D147" s="38" t="s">
-        <v>403</v>
-      </c>
-      <c r="E147" s="35" t="s">
-        <v>598</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="60" t="s">
+        <v>598</v>
+      </c>
+      <c r="H147" s="60" t="s">
         <v>599</v>
-      </c>
-      <c r="H147" s="60" t="s">
-        <v>600</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
@@ -15618,24 +15615,24 @@
     </row>
     <row r="148">
       <c r="A148" s="49" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B148" s="50" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C148" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="35" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F148" s="4"/>
       <c r="G148" s="60" t="s">
+        <v>602</v>
+      </c>
+      <c r="H148" s="60" t="s">
         <v>603</v>
-      </c>
-      <c r="H148" s="60" t="s">
-        <v>604</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -15643,10 +15640,10 @@
     </row>
     <row r="149">
       <c r="A149" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="B149" s="43" t="s">
         <v>605</v>
-      </c>
-      <c r="B149" s="43" t="s">
-        <v>606</v>
       </c>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -15660,26 +15657,26 @@
     </row>
     <row r="150">
       <c r="A150" s="49" t="s">
+        <v>606</v>
+      </c>
+      <c r="B150" s="50" t="s">
         <v>607</v>
       </c>
-      <c r="B150" s="50" t="s">
+      <c r="C150" s="109" t="s">
         <v>608</v>
       </c>
-      <c r="C150" s="109" t="s">
+      <c r="D150" s="38" t="s">
         <v>609</v>
       </c>
-      <c r="D150" s="38" t="s">
+      <c r="E150" s="35" t="s">
         <v>610</v>
-      </c>
-      <c r="E150" s="35" t="s">
-        <v>611</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="H150" s="35" t="s">
         <v>612</v>
-      </c>
-      <c r="H150" s="35" t="s">
-        <v>613</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -15687,76 +15684,76 @@
     </row>
     <row r="151">
       <c r="A151" s="70" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B151" s="110"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="35" t="s">
+        <v>614</v>
+      </c>
+      <c r="F151" s="35" t="s">
         <v>615</v>
       </c>
-      <c r="F151" s="35" t="s">
+      <c r="G151" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="G151" s="35" t="s">
+      <c r="H151" s="35" t="s">
         <v>617</v>
-      </c>
-      <c r="H151" s="35" t="s">
-        <v>618</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="70" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B152" s="110"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="52" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F152" s="35" t="s">
+        <v>620</v>
+      </c>
+      <c r="G152" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="H152" s="35" t="s">
         <v>621</v>
-      </c>
-      <c r="G152" s="35" t="s">
-        <v>617</v>
-      </c>
-      <c r="H152" s="35" t="s">
-        <v>622</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="49" t="s">
+        <v>622</v>
+      </c>
+      <c r="B153" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="B153" s="50" t="s">
+      <c r="C153" s="111" t="s">
         <v>624</v>
       </c>
-      <c r="C153" s="111" t="s">
+      <c r="D153" s="38" t="s">
         <v>625</v>
       </c>
-      <c r="D153" s="38" t="s">
+      <c r="E153" s="35" t="s">
         <v>626</v>
-      </c>
-      <c r="E153" s="35" t="s">
-        <v>627</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="H153" s="35" t="s">
         <v>628</v>
-      </c>
-      <c r="H153" s="35" t="s">
-        <v>629</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -15764,26 +15761,26 @@
     </row>
     <row r="154">
       <c r="A154" s="49" t="s">
+        <v>629</v>
+      </c>
+      <c r="B154" s="50" t="s">
         <v>630</v>
       </c>
-      <c r="B154" s="50" t="s">
+      <c r="C154" s="111" t="s">
         <v>631</v>
       </c>
-      <c r="C154" s="111" t="s">
+      <c r="D154" s="38" t="s">
         <v>632</v>
       </c>
-      <c r="D154" s="38" t="s">
+      <c r="E154" s="35" t="s">
         <v>633</v>
-      </c>
-      <c r="E154" s="35" t="s">
-        <v>634</v>
       </c>
       <c r="F154" s="4"/>
       <c r="G154" s="35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H154" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -15791,16 +15788,16 @@
     </row>
     <row r="155">
       <c r="A155" s="94" t="s">
+        <v>635</v>
+      </c>
+      <c r="B155" s="95" t="s">
         <v>636</v>
       </c>
-      <c r="B155" s="95" t="s">
+      <c r="C155" s="112" t="s">
         <v>637</v>
       </c>
-      <c r="C155" s="112" t="s">
+      <c r="D155" s="112" t="s">
         <v>638</v>
-      </c>
-      <c r="D155" s="112" t="s">
-        <v>639</v>
       </c>
       <c r="E155" s="36"/>
       <c r="F155" s="4"/>
@@ -15812,26 +15809,26 @@
     </row>
     <row r="156">
       <c r="A156" s="113" t="s">
+        <v>639</v>
+      </c>
+      <c r="B156" s="114" t="s">
+        <v>636</v>
+      </c>
+      <c r="C156" s="112" t="s">
+        <v>637</v>
+      </c>
+      <c r="D156" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E156" s="98" t="s">
         <v>640</v>
-      </c>
-      <c r="B156" s="114" t="s">
-        <v>637</v>
-      </c>
-      <c r="C156" s="112" t="s">
-        <v>638</v>
-      </c>
-      <c r="D156" s="112" t="s">
-        <v>639</v>
-      </c>
-      <c r="E156" s="98" t="s">
-        <v>641</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H156" s="115" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -15839,26 +15836,26 @@
     </row>
     <row r="157">
       <c r="A157" s="113" t="s">
+        <v>642</v>
+      </c>
+      <c r="B157" s="114" t="s">
+        <v>636</v>
+      </c>
+      <c r="C157" s="112" t="s">
+        <v>637</v>
+      </c>
+      <c r="D157" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E157" s="96" t="s">
         <v>643</v>
-      </c>
-      <c r="B157" s="114" t="s">
-        <v>637</v>
-      </c>
-      <c r="C157" s="112" t="s">
-        <v>638</v>
-      </c>
-      <c r="D157" s="112" t="s">
-        <v>639</v>
-      </c>
-      <c r="E157" s="96" t="s">
-        <v>644</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="115" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H157" s="115" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
@@ -15866,26 +15863,26 @@
     </row>
     <row r="158">
       <c r="A158" s="94" t="s">
+        <v>645</v>
+      </c>
+      <c r="B158" s="95" t="s">
         <v>646</v>
       </c>
-      <c r="B158" s="95" t="s">
+      <c r="C158" s="116" t="s">
         <v>647</v>
       </c>
-      <c r="C158" s="116" t="s">
+      <c r="D158" s="116" t="s">
         <v>648</v>
       </c>
-      <c r="D158" s="116" t="s">
+      <c r="E158" s="96" t="s">
         <v>649</v>
-      </c>
-      <c r="E158" s="96" t="s">
-        <v>650</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="115" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H158" s="115" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -15893,10 +15890,10 @@
     </row>
     <row r="159">
       <c r="A159" s="33" t="s">
+        <v>651</v>
+      </c>
+      <c r="B159" s="39" t="s">
         <v>652</v>
-      </c>
-      <c r="B159" s="39" t="s">
-        <v>653</v>
       </c>
       <c r="C159" s="58"/>
       <c r="D159" s="58"/>
@@ -15910,37 +15907,37 @@
     </row>
     <row r="160">
       <c r="A160" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="B160" s="41" t="s">
         <v>654</v>
       </c>
-      <c r="B160" s="41" t="s">
+      <c r="C160" s="38" t="s">
         <v>655</v>
-      </c>
-      <c r="C160" s="38" t="s">
-        <v>656</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="H160" s="35" t="s">
         <v>658</v>
-      </c>
-      <c r="H160" s="35" t="s">
-        <v>659</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="B161" s="41" t="s">
         <v>661</v>
-      </c>
-      <c r="B161" s="41" t="s">
-        <v>662</v>
       </c>
       <c r="C161" s="58"/>
       <c r="D161" s="58"/>
@@ -15954,288 +15951,288 @@
     </row>
     <row r="162">
       <c r="A162" s="92" t="s">
+        <v>662</v>
+      </c>
+      <c r="B162" s="93" t="s">
         <v>663</v>
-      </c>
-      <c r="B162" s="93" t="s">
-        <v>664</v>
       </c>
       <c r="C162" s="58"/>
       <c r="D162" s="58"/>
       <c r="E162" s="96" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F162" s="36"/>
       <c r="G162" s="117"/>
       <c r="H162" s="117"/>
       <c r="I162" s="116" t="s">
+        <v>665</v>
+      </c>
+      <c r="J162" s="116" t="s">
         <v>666</v>
       </c>
-      <c r="J162" s="116" t="s">
+      <c r="K162" s="118" t="s">
         <v>667</v>
-      </c>
-      <c r="K162" s="118" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="94" t="s">
+        <v>668</v>
+      </c>
+      <c r="B163" s="95" t="s">
         <v>669</v>
       </c>
-      <c r="B163" s="95" t="s">
+      <c r="C163" s="98" t="s">
         <v>670</v>
       </c>
-      <c r="C163" s="98" t="s">
+      <c r="D163" s="116" t="s">
         <v>671</v>
       </c>
-      <c r="D163" s="116" t="s">
+      <c r="E163" s="98" t="s">
         <v>672</v>
-      </c>
-      <c r="E163" s="98" t="s">
-        <v>673</v>
       </c>
       <c r="F163" s="58"/>
       <c r="G163" s="119"/>
       <c r="H163" s="119"/>
       <c r="I163" s="116" t="s">
+        <v>673</v>
+      </c>
+      <c r="J163" s="116" t="s">
         <v>674</v>
       </c>
-      <c r="J163" s="116" t="s">
+      <c r="K163" s="118" t="s">
         <v>675</v>
-      </c>
-      <c r="K163" s="118" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="92" t="s">
+        <v>676</v>
+      </c>
+      <c r="B164" s="93" t="s">
         <v>677</v>
       </c>
-      <c r="B164" s="93" t="s">
+      <c r="C164" s="98" t="s">
         <v>678</v>
       </c>
-      <c r="C164" s="98" t="s">
+      <c r="D164" s="98" t="s">
         <v>679</v>
       </c>
-      <c r="D164" s="98" t="s">
+      <c r="E164" s="96" t="s">
         <v>680</v>
-      </c>
-      <c r="E164" s="96" t="s">
-        <v>681</v>
       </c>
       <c r="F164" s="36"/>
       <c r="G164" s="117"/>
       <c r="H164" s="117"/>
       <c r="I164" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="J164" s="116" t="s">
+        <v>666</v>
+      </c>
+      <c r="K164" s="118" t="s">
         <v>682</v>
-      </c>
-      <c r="J164" s="116" t="s">
-        <v>667</v>
-      </c>
-      <c r="K164" s="118" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="94" t="s">
+        <v>683</v>
+      </c>
+      <c r="B165" s="95" t="s">
         <v>684</v>
-      </c>
-      <c r="B165" s="95" t="s">
-        <v>685</v>
       </c>
       <c r="C165" s="120"/>
       <c r="D165" s="120"/>
       <c r="E165" s="121" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F165" s="58"/>
       <c r="G165" s="122"/>
       <c r="H165" s="122"/>
       <c r="I165" s="98" t="s">
+        <v>685</v>
+      </c>
+      <c r="J165" s="98" t="s">
         <v>686</v>
       </c>
-      <c r="J165" s="98" t="s">
+      <c r="K165" s="118" t="s">
         <v>687</v>
-      </c>
-      <c r="K165" s="118" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="94" t="s">
+        <v>688</v>
+      </c>
+      <c r="B166" s="95" t="s">
         <v>689</v>
       </c>
-      <c r="B166" s="95" t="s">
+      <c r="C166" s="96" t="s">
+        <v>670</v>
+      </c>
+      <c r="D166" s="115" t="s">
+        <v>671</v>
+      </c>
+      <c r="E166" s="96" t="s">
         <v>690</v>
-      </c>
-      <c r="C166" s="96" t="s">
-        <v>671</v>
-      </c>
-      <c r="D166" s="115" t="s">
-        <v>672</v>
-      </c>
-      <c r="E166" s="96" t="s">
-        <v>691</v>
       </c>
       <c r="F166" s="36"/>
       <c r="G166" s="117"/>
       <c r="H166" s="117"/>
       <c r="I166" s="98" t="s">
+        <v>691</v>
+      </c>
+      <c r="J166" s="98" t="s">
+        <v>674</v>
+      </c>
+      <c r="K166" s="118" t="s">
         <v>692</v>
-      </c>
-      <c r="J166" s="98" t="s">
-        <v>675</v>
-      </c>
-      <c r="K166" s="118" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="94" t="s">
+        <v>693</v>
+      </c>
+      <c r="B167" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="B167" s="95" t="s">
+      <c r="C167" s="112" t="s">
+        <v>670</v>
+      </c>
+      <c r="D167" s="112" t="s">
+        <v>671</v>
+      </c>
+      <c r="E167" s="96" t="s">
         <v>695</v>
-      </c>
-      <c r="C167" s="112" t="s">
-        <v>671</v>
-      </c>
-      <c r="D167" s="112" t="s">
-        <v>672</v>
-      </c>
-      <c r="E167" s="96" t="s">
-        <v>696</v>
       </c>
       <c r="F167" s="36"/>
       <c r="G167" s="117"/>
       <c r="H167" s="117"/>
       <c r="I167" s="98" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J167" s="98" t="s">
+        <v>696</v>
+      </c>
+      <c r="K167" s="118" t="s">
         <v>697</v>
-      </c>
-      <c r="K167" s="118" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="92" t="s">
+        <v>698</v>
+      </c>
+      <c r="B168" s="93" t="s">
         <v>699</v>
       </c>
-      <c r="B168" s="93" t="s">
+      <c r="C168" s="98" t="s">
+        <v>678</v>
+      </c>
+      <c r="D168" s="98" t="s">
+        <v>679</v>
+      </c>
+      <c r="E168" s="123" t="s">
         <v>700</v>
-      </c>
-      <c r="C168" s="98" t="s">
-        <v>679</v>
-      </c>
-      <c r="D168" s="98" t="s">
-        <v>680</v>
-      </c>
-      <c r="E168" s="123" t="s">
-        <v>701</v>
       </c>
       <c r="F168" s="124"/>
       <c r="G168" s="117"/>
       <c r="H168" s="117"/>
       <c r="I168" s="116" t="s">
+        <v>701</v>
+      </c>
+      <c r="J168" s="116" t="s">
+        <v>666</v>
+      </c>
+      <c r="K168" s="118" t="s">
         <v>702</v>
-      </c>
-      <c r="J168" s="116" t="s">
-        <v>667</v>
-      </c>
-      <c r="K168" s="118" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="94" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B169" s="95" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C169" s="120"/>
       <c r="D169" s="120"/>
       <c r="E169" s="125" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F169" s="124"/>
       <c r="G169" s="107"/>
       <c r="H169" s="107"/>
       <c r="I169" s="98" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J169" s="98" t="s">
+        <v>686</v>
+      </c>
+      <c r="K169" s="118" t="s">
         <v>687</v>
-      </c>
-      <c r="K169" s="118" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="94" t="s">
+        <v>705</v>
+      </c>
+      <c r="B170" s="95" t="s">
+        <v>689</v>
+      </c>
+      <c r="C170" s="98" t="s">
+        <v>670</v>
+      </c>
+      <c r="D170" s="116" t="s">
+        <v>671</v>
+      </c>
+      <c r="E170" s="123" t="s">
         <v>706</v>
-      </c>
-      <c r="B170" s="95" t="s">
-        <v>690</v>
-      </c>
-      <c r="C170" s="98" t="s">
-        <v>671</v>
-      </c>
-      <c r="D170" s="116" t="s">
-        <v>672</v>
-      </c>
-      <c r="E170" s="123" t="s">
-        <v>707</v>
       </c>
       <c r="F170" s="124"/>
       <c r="G170" s="119"/>
       <c r="H170" s="119"/>
       <c r="I170" s="98" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J170" s="98" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="K170" s="118" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="94" t="s">
+        <v>708</v>
+      </c>
+      <c r="B171" s="95" t="s">
         <v>709</v>
       </c>
-      <c r="B171" s="95" t="s">
+      <c r="C171" s="112" t="s">
+        <v>670</v>
+      </c>
+      <c r="D171" s="126" t="s">
+        <v>671</v>
+      </c>
+      <c r="E171" s="123" t="s">
         <v>710</v>
-      </c>
-      <c r="C171" s="112" t="s">
-        <v>671</v>
-      </c>
-      <c r="D171" s="126" t="s">
-        <v>672</v>
-      </c>
-      <c r="E171" s="123" t="s">
-        <v>711</v>
       </c>
       <c r="F171" s="124"/>
       <c r="G171" s="117"/>
       <c r="H171" s="117"/>
       <c r="I171" s="98" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J171" s="98" t="s">
+        <v>696</v>
+      </c>
+      <c r="K171" s="118" t="s">
         <v>697</v>
-      </c>
-      <c r="K171" s="118" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="42" t="s">
+        <v>711</v>
+      </c>
+      <c r="B172" s="43" t="s">
         <v>712</v>
-      </c>
-      <c r="B172" s="43" t="s">
-        <v>713</v>
       </c>
       <c r="C172" s="58"/>
       <c r="D172" s="58"/>
@@ -16249,35 +16246,35 @@
     </row>
     <row r="173">
       <c r="A173" s="49" t="s">
+        <v>713</v>
+      </c>
+      <c r="B173" s="50" t="s">
         <v>714</v>
       </c>
-      <c r="B173" s="50" t="s">
+      <c r="C173" s="59" t="s">
         <v>715</v>
-      </c>
-      <c r="C173" s="59" t="s">
-        <v>716</v>
       </c>
       <c r="D173" s="58"/>
       <c r="E173" s="73" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F173" s="124"/>
       <c r="G173" s="36"/>
       <c r="H173" s="4"/>
       <c r="I173" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J173" s="7"/>
       <c r="K173" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="42" t="s">
+        <v>718</v>
+      </c>
+      <c r="B174" s="43" t="s">
         <v>719</v>
-      </c>
-      <c r="B174" s="43" t="s">
-        <v>720</v>
       </c>
       <c r="C174" s="58"/>
       <c r="D174" s="58"/>
@@ -16291,17 +16288,17 @@
     </row>
     <row r="175">
       <c r="A175" s="49" t="s">
+        <v>720</v>
+      </c>
+      <c r="B175" s="50" t="s">
         <v>721</v>
       </c>
-      <c r="B175" s="50" t="s">
+      <c r="C175" s="59" t="s">
         <v>722</v>
-      </c>
-      <c r="C175" s="59" t="s">
-        <v>723</v>
       </c>
       <c r="D175" s="58"/>
       <c r="E175" s="73" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F175" s="124"/>
       <c r="G175" s="36"/>
@@ -16309,22 +16306,22 @@
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="B176" s="50" t="s">
         <v>725</v>
       </c>
-      <c r="B176" s="50" t="s">
+      <c r="C176" s="59" t="s">
         <v>726</v>
-      </c>
-      <c r="C176" s="59" t="s">
-        <v>727</v>
       </c>
       <c r="D176" s="58"/>
       <c r="E176" s="73" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F176" s="124"/>
       <c r="G176" s="36"/>
@@ -16332,15 +16329,15 @@
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
       <c r="K176" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="40" t="s">
+        <v>728</v>
+      </c>
+      <c r="B177" s="41" t="s">
         <v>729</v>
-      </c>
-      <c r="B177" s="41" t="s">
-        <v>730</v>
       </c>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
@@ -16354,10 +16351,10 @@
     </row>
     <row r="178">
       <c r="A178" s="42" t="s">
+        <v>730</v>
+      </c>
+      <c r="B178" s="43" t="s">
         <v>731</v>
-      </c>
-      <c r="B178" s="43" t="s">
-        <v>732</v>
       </c>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
@@ -16371,71 +16368,71 @@
     </row>
     <row r="179">
       <c r="A179" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="B179" s="50" t="s">
         <v>733</v>
       </c>
-      <c r="B179" s="50" t="s">
-        <v>734</v>
-      </c>
       <c r="C179" s="35" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D179" s="7"/>
       <c r="E179" s="82" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F179" s="18"/>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
       <c r="I179" s="112" t="s">
+        <v>735</v>
+      </c>
+      <c r="J179" s="112" t="s">
         <v>736</v>
       </c>
-      <c r="J179" s="112" t="s">
-        <v>737</v>
-      </c>
       <c r="K179" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="94" t="s">
+        <v>737</v>
+      </c>
+      <c r="B180" s="50" t="s">
         <v>738</v>
       </c>
-      <c r="B180" s="50" t="s">
+      <c r="C180" s="38" t="s">
         <v>739</v>
-      </c>
-      <c r="C180" s="38" t="s">
-        <v>740</v>
       </c>
       <c r="D180" s="7"/>
       <c r="E180" s="35" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
       <c r="I180" s="127" t="s">
+        <v>741</v>
+      </c>
+      <c r="J180" s="112" t="s">
         <v>742</v>
       </c>
-      <c r="J180" s="112" t="s">
-        <v>743</v>
-      </c>
       <c r="K180" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="42" t="s">
+        <v>743</v>
+      </c>
+      <c r="B181" s="43" t="s">
         <v>744</v>
       </c>
-      <c r="B181" s="43" t="s">
+      <c r="C181" s="38" t="s">
         <v>745</v>
-      </c>
-      <c r="C181" s="38" t="s">
-        <v>746</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="35" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
@@ -16443,15 +16440,15 @@
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="B182" s="43" t="s">
         <v>748</v>
-      </c>
-      <c r="B182" s="43" t="s">
-        <v>749</v>
       </c>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
@@ -16465,17 +16462,17 @@
     </row>
     <row r="183">
       <c r="A183" s="49" t="s">
+        <v>749</v>
+      </c>
+      <c r="B183" s="50" t="s">
         <v>750</v>
       </c>
-      <c r="B183" s="50" t="s">
+      <c r="C183" s="38" t="s">
         <v>751</v>
-      </c>
-      <c r="C183" s="38" t="s">
-        <v>752</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F183" s="7"/>
       <c r="G183" s="4"/>
@@ -16483,20 +16480,20 @@
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="33" t="s">
+        <v>753</v>
+      </c>
+      <c r="B184" s="39" t="s">
         <v>754</v>
-      </c>
-      <c r="B184" s="39" t="s">
-        <v>755</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="35" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F184" s="4"/>
       <c r="G184" s="78"/>
@@ -16507,7 +16504,7 @@
     </row>
     <row r="185">
       <c r="A185" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B185" s="41" t="s">
         <v>8</v>
@@ -16524,10 +16521,10 @@
     </row>
     <row r="186">
       <c r="A186" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="B186" s="43" t="s">
         <v>758</v>
-      </c>
-      <c r="B186" s="43" t="s">
-        <v>759</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
@@ -16541,26 +16538,26 @@
     </row>
     <row r="187">
       <c r="A187" s="49" t="s">
+        <v>759</v>
+      </c>
+      <c r="B187" s="50" t="s">
         <v>760</v>
       </c>
-      <c r="B187" s="50" t="s">
+      <c r="C187" s="59" t="s">
         <v>761</v>
       </c>
-      <c r="C187" s="59" t="s">
+      <c r="D187" s="59" t="s">
         <v>762</v>
       </c>
-      <c r="D187" s="59" t="s">
+      <c r="E187" s="44" t="s">
         <v>763</v>
-      </c>
-      <c r="E187" s="44" t="s">
-        <v>764</v>
       </c>
       <c r="F187" s="36"/>
       <c r="G187" s="44" t="s">
+        <v>764</v>
+      </c>
+      <c r="H187" s="61" t="s">
         <v>765</v>
-      </c>
-      <c r="H187" s="61" t="s">
-        <v>766</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
@@ -16568,26 +16565,26 @@
     </row>
     <row r="188">
       <c r="A188" s="49" t="s">
+        <v>766</v>
+      </c>
+      <c r="B188" s="50" t="s">
         <v>767</v>
       </c>
-      <c r="B188" s="50" t="s">
+      <c r="C188" s="59" t="s">
+        <v>761</v>
+      </c>
+      <c r="D188" s="59" t="s">
+        <v>762</v>
+      </c>
+      <c r="E188" s="60" t="s">
         <v>768</v>
-      </c>
-      <c r="C188" s="59" t="s">
-        <v>762</v>
-      </c>
-      <c r="D188" s="59" t="s">
-        <v>763</v>
-      </c>
-      <c r="E188" s="60" t="s">
-        <v>769</v>
       </c>
       <c r="F188" s="78"/>
       <c r="G188" s="60" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H188" s="60" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -16595,13 +16592,13 @@
     </row>
     <row r="189">
       <c r="A189" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="B189" s="43" t="s">
         <v>771</v>
       </c>
-      <c r="B189" s="43" t="s">
+      <c r="C189" s="67" t="s">
         <v>772</v>
-      </c>
-      <c r="C189" s="67" t="s">
-        <v>773</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="4"/>
@@ -16614,26 +16611,26 @@
     </row>
     <row r="190">
       <c r="A190" s="49" t="s">
+        <v>773</v>
+      </c>
+      <c r="B190" s="50" t="s">
         <v>774</v>
       </c>
-      <c r="B190" s="50" t="s">
+      <c r="C190" s="59" t="s">
         <v>775</v>
       </c>
-      <c r="C190" s="59" t="s">
+      <c r="D190" s="59" t="s">
         <v>776</v>
       </c>
-      <c r="D190" s="59" t="s">
+      <c r="E190" s="44" t="s">
         <v>777</v>
-      </c>
-      <c r="E190" s="44" t="s">
-        <v>778</v>
       </c>
       <c r="F190" s="36"/>
       <c r="G190" s="44" t="s">
+        <v>778</v>
+      </c>
+      <c r="H190" s="44" t="s">
         <v>779</v>
-      </c>
-      <c r="H190" s="44" t="s">
-        <v>780</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -16641,19 +16638,19 @@
     </row>
     <row r="191">
       <c r="A191" s="113" t="s">
+        <v>780</v>
+      </c>
+      <c r="B191" s="114" t="s">
         <v>781</v>
       </c>
-      <c r="B191" s="114" t="s">
+      <c r="C191" s="112" t="s">
         <v>782</v>
       </c>
-      <c r="C191" s="112" t="s">
+      <c r="D191" s="112" t="s">
         <v>783</v>
       </c>
-      <c r="D191" s="112" t="s">
+      <c r="E191" s="115" t="s">
         <v>784</v>
-      </c>
-      <c r="E191" s="115" t="s">
-        <v>785</v>
       </c>
       <c r="F191" s="4"/>
       <c r="G191" s="107"/>
@@ -16661,24 +16658,24 @@
       <c r="I191" s="58"/>
       <c r="J191" s="58"/>
       <c r="K191" s="118" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="113" t="s">
+        <v>786</v>
+      </c>
+      <c r="B192" s="114" t="s">
         <v>787</v>
       </c>
-      <c r="B192" s="114" t="s">
+      <c r="C192" s="112" t="s">
+        <v>782</v>
+      </c>
+      <c r="D192" s="112" t="s">
+        <v>783</v>
+      </c>
+      <c r="E192" s="115" t="s">
         <v>788</v>
-      </c>
-      <c r="C192" s="112" t="s">
-        <v>783</v>
-      </c>
-      <c r="D192" s="112" t="s">
-        <v>784</v>
-      </c>
-      <c r="E192" s="115" t="s">
-        <v>789</v>
       </c>
       <c r="F192" s="4"/>
       <c r="G192" s="107"/>
@@ -16686,31 +16683,31 @@
       <c r="I192" s="58"/>
       <c r="J192" s="58"/>
       <c r="K192" s="118" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="113" t="s">
+        <v>789</v>
+      </c>
+      <c r="B193" s="114" t="s">
         <v>790</v>
       </c>
-      <c r="B193" s="114" t="s">
+      <c r="C193" s="116" t="s">
         <v>791</v>
       </c>
-      <c r="C193" s="116" t="s">
+      <c r="D193" s="116" t="s">
         <v>792</v>
       </c>
-      <c r="D193" s="116" t="s">
+      <c r="E193" s="115" t="s">
         <v>793</v>
-      </c>
-      <c r="E193" s="115" t="s">
-        <v>794</v>
       </c>
       <c r="F193" s="4"/>
       <c r="G193" s="115" t="s">
+        <v>794</v>
+      </c>
+      <c r="H193" s="115" t="s">
         <v>795</v>
-      </c>
-      <c r="H193" s="115" t="s">
-        <v>796</v>
       </c>
       <c r="I193" s="58"/>
       <c r="J193" s="58"/>
@@ -16718,26 +16715,26 @@
     </row>
     <row r="194">
       <c r="A194" s="49" t="s">
+        <v>796</v>
+      </c>
+      <c r="B194" s="50" t="s">
         <v>797</v>
       </c>
-      <c r="B194" s="50" t="s">
+      <c r="C194" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="D194" s="38" t="s">
         <v>799</v>
       </c>
-      <c r="D194" s="38" t="s">
+      <c r="E194" s="35" t="s">
         <v>800</v>
-      </c>
-      <c r="E194" s="35" t="s">
-        <v>801</v>
       </c>
       <c r="F194" s="7"/>
       <c r="G194" s="35" t="s">
+        <v>801</v>
+      </c>
+      <c r="H194" s="128" t="s">
         <v>802</v>
-      </c>
-      <c r="H194" s="128" t="s">
-        <v>803</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -16745,53 +16742,53 @@
     </row>
     <row r="195">
       <c r="A195" s="49" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B195" s="50" t="s">
+        <v>803</v>
+      </c>
+      <c r="C195" s="38" t="s">
         <v>804</v>
-      </c>
-      <c r="C195" s="38" t="s">
-        <v>805</v>
       </c>
       <c r="D195" s="7"/>
       <c r="E195" s="35" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F195" s="4"/>
       <c r="G195" s="35" t="s">
+        <v>806</v>
+      </c>
+      <c r="H195" s="89" t="s">
         <v>807</v>
       </c>
-      <c r="H195" s="89" t="s">
+      <c r="I195" s="38" t="s">
         <v>808</v>
-      </c>
-      <c r="I195" s="38" t="s">
-        <v>809</v>
       </c>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
       <c r="A196" s="113" t="s">
+        <v>809</v>
+      </c>
+      <c r="B196" s="114" t="s">
         <v>810</v>
       </c>
-      <c r="B196" s="114" t="s">
+      <c r="C196" s="116" t="s">
+        <v>798</v>
+      </c>
+      <c r="D196" s="116" t="s">
+        <v>799</v>
+      </c>
+      <c r="E196" s="115" t="s">
         <v>811</v>
-      </c>
-      <c r="C196" s="116" t="s">
-        <v>799</v>
-      </c>
-      <c r="D196" s="116" t="s">
-        <v>800</v>
-      </c>
-      <c r="E196" s="115" t="s">
-        <v>812</v>
       </c>
       <c r="F196" s="4"/>
       <c r="G196" s="115" t="s">
+        <v>812</v>
+      </c>
+      <c r="H196" s="129" t="s">
         <v>813</v>
-      </c>
-      <c r="H196" s="129" t="s">
-        <v>814</v>
       </c>
       <c r="I196" s="58"/>
       <c r="J196" s="58"/>
@@ -16799,13 +16796,13 @@
     </row>
     <row r="197">
       <c r="A197" s="42" t="s">
+        <v>814</v>
+      </c>
+      <c r="B197" s="43" t="s">
         <v>815</v>
       </c>
-      <c r="B197" s="43" t="s">
-        <v>816</v>
-      </c>
       <c r="C197" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D197" s="58"/>
       <c r="E197" s="36"/>
@@ -16818,26 +16815,26 @@
     </row>
     <row r="198">
       <c r="A198" s="49" t="s">
+        <v>816</v>
+      </c>
+      <c r="B198" s="50" t="s">
         <v>817</v>
       </c>
-      <c r="B198" s="50" t="s">
+      <c r="C198" s="59" t="s">
         <v>818</v>
       </c>
-      <c r="C198" s="59" t="s">
+      <c r="D198" s="59" t="s">
         <v>819</v>
       </c>
-      <c r="D198" s="59" t="s">
+      <c r="E198" s="44" t="s">
         <v>820</v>
-      </c>
-      <c r="E198" s="44" t="s">
-        <v>821</v>
       </c>
       <c r="F198" s="36"/>
       <c r="G198" s="44" t="s">
+        <v>821</v>
+      </c>
+      <c r="H198" s="61" t="s">
         <v>822</v>
-      </c>
-      <c r="H198" s="61" t="s">
-        <v>823</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
@@ -16845,16 +16842,16 @@
     </row>
     <row r="199">
       <c r="A199" s="42" t="s">
+        <v>823</v>
+      </c>
+      <c r="B199" s="43" t="s">
         <v>824</v>
       </c>
-      <c r="B199" s="43" t="s">
+      <c r="C199" s="59" t="s">
         <v>825</v>
       </c>
-      <c r="C199" s="59" t="s">
+      <c r="D199" s="59" t="s">
         <v>826</v>
-      </c>
-      <c r="D199" s="59" t="s">
-        <v>827</v>
       </c>
       <c r="E199" s="36"/>
       <c r="F199" s="36"/>
@@ -16866,26 +16863,26 @@
     </row>
     <row r="200">
       <c r="A200" s="49" t="s">
+        <v>827</v>
+      </c>
+      <c r="B200" s="50" t="s">
         <v>828</v>
       </c>
-      <c r="B200" s="50" t="s">
+      <c r="C200" s="44" t="s">
+        <v>825</v>
+      </c>
+      <c r="D200" s="59" t="s">
+        <v>826</v>
+      </c>
+      <c r="E200" s="73" t="s">
         <v>829</v>
-      </c>
-      <c r="C200" s="44" t="s">
-        <v>826</v>
-      </c>
-      <c r="D200" s="59" t="s">
-        <v>827</v>
-      </c>
-      <c r="E200" s="73" t="s">
-        <v>830</v>
       </c>
       <c r="F200" s="124"/>
       <c r="G200" s="44" t="s">
+        <v>830</v>
+      </c>
+      <c r="H200" s="61" t="s">
         <v>831</v>
-      </c>
-      <c r="H200" s="61" t="s">
-        <v>832</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -16893,26 +16890,26 @@
     </row>
     <row r="201">
       <c r="A201" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="B201" s="50" t="s">
         <v>833</v>
       </c>
-      <c r="B201" s="50" t="s">
+      <c r="C201" s="59" t="s">
+        <v>825</v>
+      </c>
+      <c r="D201" s="59" t="s">
+        <v>826</v>
+      </c>
+      <c r="E201" s="73" t="s">
         <v>834</v>
-      </c>
-      <c r="C201" s="59" t="s">
-        <v>826</v>
-      </c>
-      <c r="D201" s="59" t="s">
-        <v>827</v>
-      </c>
-      <c r="E201" s="73" t="s">
-        <v>835</v>
       </c>
       <c r="F201" s="124"/>
       <c r="G201" s="44" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H201" s="61" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -16920,10 +16917,10 @@
     </row>
     <row r="202">
       <c r="A202" s="40" t="s">
+        <v>836</v>
+      </c>
+      <c r="B202" s="41" t="s">
         <v>837</v>
-      </c>
-      <c r="B202" s="41" t="s">
-        <v>838</v>
       </c>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
@@ -16937,80 +16934,80 @@
     </row>
     <row r="203">
       <c r="A203" s="92" t="s">
+        <v>838</v>
+      </c>
+      <c r="B203" s="93" t="s">
         <v>839</v>
       </c>
-      <c r="B203" s="93" t="s">
-        <v>840</v>
-      </c>
       <c r="C203" s="116" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D203" s="7"/>
       <c r="E203" s="125" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F203" s="18"/>
       <c r="G203" s="115" t="s">
+        <v>841</v>
+      </c>
+      <c r="H203" s="115" t="s">
         <v>842</v>
-      </c>
-      <c r="H203" s="115" t="s">
-        <v>843</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="116" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="42" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B204" s="43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C204" s="130" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D204" s="131"/>
       <c r="E204" s="132" t="s">
+        <v>840</v>
+      </c>
+      <c r="F204" s="82" t="s">
+        <v>845</v>
+      </c>
+      <c r="G204" s="35" t="s">
         <v>841</v>
       </c>
-      <c r="F204" s="82" t="s">
+      <c r="H204" s="35" t="s">
         <v>846</v>
-      </c>
-      <c r="G204" s="35" t="s">
-        <v>842</v>
-      </c>
-      <c r="H204" s="35" t="s">
-        <v>847</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
       <c r="K204" s="38" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="42" t="s">
+        <v>848</v>
+      </c>
+      <c r="B205" s="43" t="s">
         <v>849</v>
       </c>
-      <c r="B205" s="43" t="s">
+      <c r="C205" s="38" t="s">
         <v>850</v>
-      </c>
-      <c r="C205" s="38" t="s">
-        <v>851</v>
       </c>
       <c r="D205" s="7"/>
       <c r="E205" s="82" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F205" s="18"/>
       <c r="G205" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="H205" s="38" t="s">
         <v>853</v>
-      </c>
-      <c r="H205" s="38" t="s">
-        <v>854</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -17018,17 +17015,17 @@
     </row>
     <row r="206">
       <c r="A206" s="42" t="s">
+        <v>854</v>
+      </c>
+      <c r="B206" s="43" t="s">
         <v>855</v>
       </c>
-      <c r="B206" s="43" t="s">
-        <v>856</v>
-      </c>
       <c r="C206" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D206" s="7"/>
       <c r="E206" s="82" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F206" s="18"/>
       <c r="G206" s="7"/>
@@ -17036,15 +17033,15 @@
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="33" t="s">
+        <v>857</v>
+      </c>
+      <c r="B207" s="39" t="s">
         <v>858</v>
-      </c>
-      <c r="B207" s="39" t="s">
-        <v>859</v>
       </c>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
@@ -17058,10 +17055,10 @@
     </row>
     <row r="208">
       <c r="A208" s="40" t="s">
+        <v>859</v>
+      </c>
+      <c r="B208" s="41" t="s">
         <v>860</v>
-      </c>
-      <c r="B208" s="41" t="s">
-        <v>861</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -17075,24 +17072,24 @@
     </row>
     <row r="209">
       <c r="A209" s="42" t="s">
+        <v>861</v>
+      </c>
+      <c r="B209" s="43" t="s">
         <v>862</v>
       </c>
-      <c r="B209" s="43" t="s">
+      <c r="C209" s="38" t="s">
         <v>863</v>
-      </c>
-      <c r="C209" s="38" t="s">
-        <v>864</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="82" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F209" s="18"/>
       <c r="G209" s="35" t="s">
+        <v>865</v>
+      </c>
+      <c r="H209" s="102" t="s">
         <v>866</v>
-      </c>
-      <c r="H209" s="102" t="s">
-        <v>867</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
@@ -17100,51 +17097,51 @@
     </row>
     <row r="210">
       <c r="A210" s="42" t="s">
+        <v>867</v>
+      </c>
+      <c r="B210" s="43" t="s">
         <v>868</v>
       </c>
-      <c r="B210" s="43" t="s">
+      <c r="C210" s="38" t="s">
         <v>869</v>
-      </c>
-      <c r="C210" s="38" t="s">
-        <v>870</v>
       </c>
       <c r="D210" s="7"/>
       <c r="E210" s="82" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F210" s="18"/>
       <c r="G210" s="35" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H210" s="102" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="76" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="42" t="s">
+        <v>873</v>
+      </c>
+      <c r="B211" s="43" t="s">
         <v>874</v>
       </c>
-      <c r="B211" s="43" t="s">
+      <c r="C211" s="38" t="s">
         <v>875</v>
-      </c>
-      <c r="C211" s="38" t="s">
-        <v>876</v>
       </c>
       <c r="D211" s="7"/>
       <c r="E211" s="82" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F211" s="18"/>
       <c r="G211" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H211" s="32" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -17152,42 +17149,42 @@
     </row>
     <row r="212">
       <c r="A212" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="B212" s="41" t="s">
+        <v>513</v>
+      </c>
+      <c r="C212" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="D212" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="E212" s="73" t="s">
         <v>879</v>
-      </c>
-      <c r="B212" s="41" t="s">
-        <v>514</v>
-      </c>
-      <c r="C212" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="D212" s="38" t="s">
-        <v>516</v>
-      </c>
-      <c r="E212" s="73" t="s">
-        <v>880</v>
       </c>
       <c r="F212" s="124"/>
       <c r="G212" s="133" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H212" s="134" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I212" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
     </row>
     <row r="213">
       <c r="A213" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="B213" s="41" t="s">
         <v>882</v>
       </c>
-      <c r="B213" s="41" t="s">
-        <v>883</v>
-      </c>
       <c r="C213" s="135" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="124"/>
@@ -17200,24 +17197,24 @@
     </row>
     <row r="214">
       <c r="A214" s="42" t="s">
+        <v>883</v>
+      </c>
+      <c r="B214" s="43" t="s">
         <v>884</v>
       </c>
-      <c r="B214" s="43" t="s">
-        <v>885</v>
-      </c>
       <c r="C214" s="136" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D214" s="7"/>
       <c r="E214" s="82" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F214" s="124"/>
       <c r="G214" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H214" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -17225,55 +17222,55 @@
     </row>
     <row r="215">
       <c r="A215" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="B215" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C215" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="73" t="s">
         <v>887</v>
-      </c>
-      <c r="B215" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="C215" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D215" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E215" s="73" t="s">
-        <v>888</v>
       </c>
       <c r="F215" s="124"/>
       <c r="G215" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H215" s="89" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I215" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
     <row r="216">
       <c r="A216" s="49" t="s">
+        <v>889</v>
+      </c>
+      <c r="B216" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C216" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D216" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E216" s="73" t="s">
         <v>890</v>
-      </c>
-      <c r="B216" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C216" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D216" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E216" s="73" t="s">
-        <v>891</v>
       </c>
       <c r="F216" s="124"/>
       <c r="G216" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H216" s="89" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
@@ -17281,26 +17278,26 @@
     </row>
     <row r="217">
       <c r="A217" s="49" t="s">
+        <v>892</v>
+      </c>
+      <c r="B217" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C217" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D217" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E217" s="73" t="s">
         <v>893</v>
-      </c>
-      <c r="B217" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C217" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D217" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="E217" s="73" t="s">
-        <v>894</v>
       </c>
       <c r="F217" s="124"/>
       <c r="G217" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H217" s="89" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -17308,26 +17305,26 @@
     </row>
     <row r="218">
       <c r="A218" s="49" t="s">
+        <v>895</v>
+      </c>
+      <c r="B218" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C218" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D218" s="59" t="s">
         <v>896</v>
       </c>
-      <c r="B218" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="C218" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D218" s="59" t="s">
+      <c r="E218" s="73" t="s">
         <v>897</v>
-      </c>
-      <c r="E218" s="73" t="s">
-        <v>898</v>
       </c>
       <c r="F218" s="124"/>
       <c r="G218" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H218" s="89" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -17335,26 +17332,26 @@
     </row>
     <row r="219">
       <c r="A219" s="49" t="s">
+        <v>899</v>
+      </c>
+      <c r="B219" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C219" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D219" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E219" s="73" t="s">
         <v>900</v>
-      </c>
-      <c r="B219" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C219" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="D219" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E219" s="73" t="s">
-        <v>901</v>
       </c>
       <c r="F219" s="124"/>
       <c r="G219" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H219" s="44" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -17362,26 +17359,26 @@
     </row>
     <row r="220">
       <c r="A220" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="B220" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C220" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D220" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E220" s="59" t="s">
         <v>903</v>
-      </c>
-      <c r="B220" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C220" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D220" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E220" s="59" t="s">
-        <v>904</v>
       </c>
       <c r="F220" s="58"/>
       <c r="G220" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="H220" s="59" t="s">
         <v>905</v>
-      </c>
-      <c r="H220" s="59" t="s">
-        <v>906</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -17389,26 +17386,26 @@
     </row>
     <row r="221">
       <c r="A221" s="49" t="s">
+        <v>906</v>
+      </c>
+      <c r="B221" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C221" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D221" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E221" s="44" t="s">
         <v>907</v>
-      </c>
-      <c r="B221" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C221" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D221" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="E221" s="44" t="s">
-        <v>908</v>
       </c>
       <c r="F221" s="58"/>
       <c r="G221" s="44" t="s">
+        <v>908</v>
+      </c>
+      <c r="H221" s="137" t="s">
         <v>909</v>
-      </c>
-      <c r="H221" s="137" t="s">
-        <v>910</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -17416,26 +17413,26 @@
     </row>
     <row r="222">
       <c r="A222" s="49" t="s">
+        <v>910</v>
+      </c>
+      <c r="B222" s="62" t="s">
         <v>911</v>
       </c>
-      <c r="B222" s="62" t="s">
+      <c r="C222" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D222" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E222" s="44" t="s">
         <v>912</v>
-      </c>
-      <c r="C222" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D222" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="E222" s="44" t="s">
-        <v>913</v>
       </c>
       <c r="F222" s="58"/>
       <c r="G222" s="44" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H222" s="137" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -17443,26 +17440,26 @@
     </row>
     <row r="223">
       <c r="A223" s="49" t="s">
+        <v>914</v>
+      </c>
+      <c r="B223" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C223" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D223" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E223" s="59" t="s">
         <v>915</v>
-      </c>
-      <c r="B223" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C223" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D223" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E223" s="59" t="s">
-        <v>916</v>
       </c>
       <c r="F223" s="58"/>
       <c r="G223" s="59" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H223" s="138" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -17470,24 +17467,24 @@
     </row>
     <row r="224">
       <c r="A224" s="42" t="s">
+        <v>917</v>
+      </c>
+      <c r="B224" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="B224" s="57" t="s">
-        <v>919</v>
-      </c>
       <c r="C224" s="136" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D224" s="139"/>
       <c r="E224" s="35" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F224" s="58"/>
       <c r="G224" s="44" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H224" s="137" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -17495,55 +17492,55 @@
     </row>
     <row r="225">
       <c r="A225" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="B225" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C225" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="59" t="s">
         <v>922</v>
-      </c>
-      <c r="B225" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C225" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D225" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E225" s="59" t="s">
-        <v>923</v>
       </c>
       <c r="F225" s="58"/>
       <c r="G225" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H225" s="140" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I225" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
       <c r="A226" s="49" t="s">
+        <v>924</v>
+      </c>
+      <c r="B226" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C226" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D226" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E226" s="59" t="s">
         <v>925</v>
-      </c>
-      <c r="B226" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C226" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D226" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E226" s="59" t="s">
-        <v>926</v>
       </c>
       <c r="F226" s="58"/>
       <c r="G226" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H226" s="140" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -17551,26 +17548,26 @@
     </row>
     <row r="227">
       <c r="A227" s="49" t="s">
+        <v>927</v>
+      </c>
+      <c r="B227" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C227" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D227" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E227" s="59" t="s">
         <v>928</v>
-      </c>
-      <c r="B227" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C227" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D227" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="E227" s="59" t="s">
-        <v>929</v>
       </c>
       <c r="F227" s="58"/>
       <c r="G227" s="141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H227" s="142" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -17578,26 +17575,26 @@
     </row>
     <row r="228">
       <c r="A228" s="49" t="s">
+        <v>930</v>
+      </c>
+      <c r="B228" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C228" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D228" s="59" t="s">
+        <v>896</v>
+      </c>
+      <c r="E228" s="59" t="s">
         <v>931</v>
-      </c>
-      <c r="B228" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C228" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D228" s="59" t="s">
-        <v>897</v>
-      </c>
-      <c r="E228" s="59" t="s">
-        <v>932</v>
       </c>
       <c r="F228" s="58"/>
       <c r="G228" s="141" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H228" s="141" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -17605,26 +17602,26 @@
     </row>
     <row r="229">
       <c r="A229" s="49" t="s">
+        <v>933</v>
+      </c>
+      <c r="B229" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C229" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D229" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E229" s="59" t="s">
         <v>934</v>
-      </c>
-      <c r="B229" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C229" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="D229" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E229" s="59" t="s">
-        <v>935</v>
       </c>
       <c r="F229" s="58"/>
       <c r="G229" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H229" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -17632,26 +17629,26 @@
     </row>
     <row r="230">
       <c r="A230" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="B230" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C230" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D230" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E230" s="59" t="s">
         <v>937</v>
-      </c>
-      <c r="B230" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C230" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D230" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E230" s="59" t="s">
-        <v>938</v>
       </c>
       <c r="F230" s="58"/>
       <c r="G230" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="H230" s="138" t="s">
         <v>905</v>
-      </c>
-      <c r="H230" s="138" t="s">
-        <v>906</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -17659,26 +17656,26 @@
     </row>
     <row r="231">
       <c r="A231" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="B231" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C231" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D231" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E231" s="59" t="s">
         <v>939</v>
-      </c>
-      <c r="B231" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C231" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D231" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="E231" s="59" t="s">
-        <v>940</v>
       </c>
       <c r="F231" s="58"/>
       <c r="G231" s="59" t="s">
+        <v>908</v>
+      </c>
+      <c r="H231" s="59" t="s">
         <v>909</v>
-      </c>
-      <c r="H231" s="59" t="s">
-        <v>910</v>
       </c>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
@@ -17686,26 +17683,26 @@
     </row>
     <row r="232">
       <c r="A232" s="49" t="s">
+        <v>940</v>
+      </c>
+      <c r="B232" s="62" t="s">
+        <v>911</v>
+      </c>
+      <c r="C232" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D232" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E232" s="59" t="s">
         <v>941</v>
-      </c>
-      <c r="B232" s="62" t="s">
-        <v>912</v>
-      </c>
-      <c r="C232" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D232" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="E232" s="59" t="s">
-        <v>942</v>
       </c>
       <c r="F232" s="58"/>
       <c r="G232" s="59" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H232" s="59" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -17713,26 +17710,26 @@
     </row>
     <row r="233">
       <c r="A233" s="49" t="s">
+        <v>943</v>
+      </c>
+      <c r="B233" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C233" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D233" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E233" s="59" t="s">
         <v>944</v>
-      </c>
-      <c r="B233" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C233" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D233" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E233" s="59" t="s">
-        <v>945</v>
       </c>
       <c r="F233" s="58"/>
       <c r="G233" s="59" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H233" s="59" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -17740,26 +17737,26 @@
     </row>
     <row r="234">
       <c r="A234" s="42" t="s">
+        <v>945</v>
+      </c>
+      <c r="B234" s="57" t="s">
         <v>946</v>
       </c>
-      <c r="B234" s="57" t="s">
+      <c r="C234" s="59" t="s">
         <v>947</v>
       </c>
-      <c r="C234" s="59" t="s">
+      <c r="D234" s="59" t="s">
         <v>948</v>
       </c>
-      <c r="D234" s="59" t="s">
+      <c r="E234" s="59" t="s">
         <v>949</v>
-      </c>
-      <c r="E234" s="59" t="s">
-        <v>950</v>
       </c>
       <c r="F234" s="58"/>
       <c r="G234" s="38" t="s">
+        <v>950</v>
+      </c>
+      <c r="H234" s="59" t="s">
         <v>951</v>
-      </c>
-      <c r="H234" s="59" t="s">
-        <v>952</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
@@ -17767,22 +17764,22 @@
     </row>
     <row r="235">
       <c r="A235" s="42" t="s">
+        <v>952</v>
+      </c>
+      <c r="B235" s="57" t="s">
         <v>953</v>
-      </c>
-      <c r="B235" s="57" t="s">
-        <v>954</v>
       </c>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F235" s="58"/>
       <c r="G235" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H235" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -17790,55 +17787,55 @@
     </row>
     <row r="236">
       <c r="A236" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="B236" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C236" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D236" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="59" t="s">
         <v>956</v>
-      </c>
-      <c r="B236" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C236" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D236" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E236" s="59" t="s">
-        <v>957</v>
       </c>
       <c r="F236" s="58"/>
       <c r="G236" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H236" s="38" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I236" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
       <c r="A237" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="B237" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C237" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D237" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E237" s="59" t="s">
         <v>959</v>
-      </c>
-      <c r="B237" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C237" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D237" s="59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E237" s="59" t="s">
-        <v>960</v>
       </c>
       <c r="F237" s="58"/>
       <c r="G237" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H237" s="38" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -17846,26 +17843,26 @@
     </row>
     <row r="238">
       <c r="A238" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="B238" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C238" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D238" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E238" s="59" t="s">
         <v>962</v>
-      </c>
-      <c r="B238" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="C238" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D238" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="E238" s="59" t="s">
-        <v>963</v>
       </c>
       <c r="F238" s="58"/>
       <c r="G238" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H238" s="38" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
@@ -17873,26 +17870,26 @@
     </row>
     <row r="239">
       <c r="A239" s="49" t="s">
+        <v>964</v>
+      </c>
+      <c r="B239" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C239" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D239" s="59" t="s">
+        <v>896</v>
+      </c>
+      <c r="E239" s="59" t="s">
         <v>965</v>
-      </c>
-      <c r="B239" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C239" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D239" s="59" t="s">
-        <v>897</v>
-      </c>
-      <c r="E239" s="59" t="s">
-        <v>966</v>
       </c>
       <c r="F239" s="58"/>
       <c r="G239" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H239" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
@@ -17900,26 +17897,26 @@
     </row>
     <row r="240">
       <c r="A240" s="49" t="s">
+        <v>967</v>
+      </c>
+      <c r="B240" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C240" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D240" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E240" s="59" t="s">
         <v>968</v>
-      </c>
-      <c r="B240" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C240" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="D240" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E240" s="59" t="s">
-        <v>969</v>
       </c>
       <c r="F240" s="58"/>
       <c r="G240" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H240" s="59" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
@@ -17927,26 +17924,26 @@
     </row>
     <row r="241">
       <c r="A241" s="49" t="s">
+        <v>970</v>
+      </c>
+      <c r="B241" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C241" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D241" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E241" s="59" t="s">
         <v>971</v>
-      </c>
-      <c r="B241" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C241" s="59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D241" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E241" s="59" t="s">
-        <v>972</v>
       </c>
       <c r="F241" s="58"/>
       <c r="G241" s="59" t="s">
+        <v>904</v>
+      </c>
+      <c r="H241" s="59" t="s">
         <v>905</v>
-      </c>
-      <c r="H241" s="59" t="s">
-        <v>906</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -17954,26 +17951,26 @@
     </row>
     <row r="242">
       <c r="A242" s="49" t="s">
+        <v>972</v>
+      </c>
+      <c r="B242" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C242" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="D242" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="E242" s="59" t="s">
         <v>973</v>
-      </c>
-      <c r="B242" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C242" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="D242" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="E242" s="59" t="s">
-        <v>974</v>
       </c>
       <c r="F242" s="58"/>
       <c r="G242" s="59" t="s">
+        <v>908</v>
+      </c>
+      <c r="H242" s="59" t="s">
         <v>909</v>
-      </c>
-      <c r="H242" s="59" t="s">
-        <v>910</v>
       </c>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
@@ -17981,26 +17978,26 @@
     </row>
     <row r="243">
       <c r="A243" s="49" t="s">
+        <v>974</v>
+      </c>
+      <c r="B243" s="62" t="s">
+        <v>911</v>
+      </c>
+      <c r="C243" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="D243" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E243" s="59" t="s">
         <v>975</v>
-      </c>
-      <c r="B243" s="62" t="s">
-        <v>912</v>
-      </c>
-      <c r="C243" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D243" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="E243" s="59" t="s">
-        <v>976</v>
       </c>
       <c r="F243" s="58"/>
       <c r="G243" s="59" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H243" s="59" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -18008,26 +18005,26 @@
     </row>
     <row r="244">
       <c r="A244" s="49" t="s">
+        <v>977</v>
+      </c>
+      <c r="B244" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C244" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D244" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E244" s="59" t="s">
         <v>978</v>
-      </c>
-      <c r="B244" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C244" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D244" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="E244" s="59" t="s">
-        <v>979</v>
       </c>
       <c r="F244" s="58"/>
       <c r="G244" s="59" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H244" s="59" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -18035,26 +18032,26 @@
     </row>
     <row r="245">
       <c r="A245" s="40" t="s">
+        <v>979</v>
+      </c>
+      <c r="B245" s="143" t="s">
         <v>980</v>
       </c>
-      <c r="B245" s="143" t="s">
+      <c r="C245" s="144" t="s">
         <v>981</v>
       </c>
-      <c r="C245" s="144" t="s">
+      <c r="D245" s="144" t="s">
         <v>982</v>
       </c>
-      <c r="D245" s="144" t="s">
+      <c r="E245" s="145" t="s">
         <v>983</v>
-      </c>
-      <c r="E245" s="145" t="s">
-        <v>984</v>
       </c>
       <c r="F245" s="58"/>
       <c r="G245" s="38" t="s">
+        <v>984</v>
+      </c>
+      <c r="H245" s="111" t="s">
         <v>985</v>
-      </c>
-      <c r="H245" s="111" t="s">
-        <v>986</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -18139,19 +18136,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="146" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="C1" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="147" t="s">
+      <c r="D1" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="E1" s="147" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="147" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="147" t="s">
         <v>2</v>
@@ -18159,78 +18156,78 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>384</v>
-      </c>
       <c r="F2" s="35" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>417</v>
-      </c>
       <c r="C3" s="59" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="35" t="s">
+        <v>988</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>989</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>417</v>
-      </c>
       <c r="C4" s="59" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="35" t="s">
+        <v>990</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>991</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>382</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>526</v>
-      </c>
       <c r="F5" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G5" s="148"/>
       <c r="H5" s="148"/>
@@ -18255,19 +18252,19 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>994</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="59" t="s">
         <v>995</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="D6" s="59" t="s">
         <v>996</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="E6" s="35" t="s">
         <v>997</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>998</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="148"/>
@@ -18293,148 +18290,148 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>999</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="35" t="s">
         <v>1002</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="35" t="s">
         <v>1003</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>1006</v>
-      </c>
       <c r="C8" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="38" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>1007</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="76" t="s">
         <v>1009</v>
       </c>
-      <c r="B9" s="76" t="s">
-        <v>1010</v>
-      </c>
       <c r="C9" s="76" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D9" s="76"/>
       <c r="E9" s="76" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>1012</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="C10" s="149" t="s">
         <v>1013</v>
-      </c>
-      <c r="C10" s="149" t="s">
-        <v>1014</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="38" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>1015</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B11" s="38" t="s">
         <v>1017</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="C11" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="38" t="s">
         <v>1020</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="F11" s="38" t="s">
         <v>1021</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="77" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B12" s="76" t="s">
         <v>1023</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="C12" s="77" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" s="76" t="s">
         <v>1024</v>
       </c>
-      <c r="C12" s="77" t="s">
-        <v>597</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="E12" s="76" t="s">
+      <c r="F12" s="150" t="s">
         <v>1025</v>
-      </c>
-      <c r="F12" s="150" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B13" s="38" t="s">
         <v>1027</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>1028</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="38" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F13" s="140" t="s">
         <v>1029</v>
-      </c>
-      <c r="F13" s="140" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="73" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B14" s="124"/>
       <c r="C14" s="124"/>
       <c r="D14" s="59" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>1032</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="F14" s="140" t="s">
         <v>1033</v>
-      </c>
-      <c r="F14" s="140" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="15">
@@ -22416,36 +22413,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="151" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B2" s="152" t="s">
         <v>1035</v>
-      </c>
-      <c r="B2" s="152" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="153" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B3" s="152" t="s">
         <v>1037</v>
-      </c>
-      <c r="B3" s="152" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="154" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="155" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B6" s="152" t="s">
         <v>1040</v>
-      </c>
-      <c r="B6" s="152" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="152" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="8">
@@ -22456,41 +22453,41 @@
     </row>
     <row r="10">
       <c r="A10" s="155" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="155" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B11" s="156" t="s">
         <v>1044</v>
-      </c>
-      <c r="B11" s="156" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="157" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="158"/>
       <c r="B13" s="159" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="160" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="161" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="162" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="17">
@@ -22499,24 +22496,24 @@
     </row>
     <row r="18">
       <c r="A18" s="155" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B18" s="163" t="s">
         <v>1051</v>
-      </c>
-      <c r="B18" s="163" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B19" s="164"/>
     </row>
     <row r="21">
       <c r="A21" s="155" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B21" s="165" t="s">
         <v>1054</v>
-      </c>
-      <c r="B21" s="165" t="s">
-        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -22542,47 +22539,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="155" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="166" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="152" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="166" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="152" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="152" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="152" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="166" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="152" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>
@@ -22608,48 +22605,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B1" s="167" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="168" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>1066</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
   </sheetData>
@@ -22693,10 +22690,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="169" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1" s="169" t="s">
         <v>1074</v>
-      </c>
-      <c r="C1" s="169" t="s">
-        <v>1075</v>
       </c>
       <c r="E1" s="170" t="s">
         <v>2</v>
@@ -22704,28 +22701,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B3" s="35" t="s">
         <v>1080</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="C3" s="4" t="s">
         <v>1081</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1082</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22735,13 +22732,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1081</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1082</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22751,84 +22748,84 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>1084</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>1085</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="E5" s="7" t="s">
         <v>1086</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>1090</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1092</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>1094</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1096</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="19" t="s">
         <v>1098</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="171" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B9" s="172" t="s">
         <v>1100</v>
       </c>
-      <c r="B9" s="172" t="s">
+      <c r="C9" s="172" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D9" s="172" t="s">
         <v>1101</v>
-      </c>
-      <c r="C9" s="172" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D9" s="172" t="s">
-        <v>1102</v>
       </c>
       <c r="E9" s="172"/>
       <c r="F9" s="172"/>
@@ -22855,16 +22852,16 @@
     </row>
     <row r="10">
       <c r="A10" s="171" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B10" s="172" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D10" s="172" t="s">
         <v>1103</v>
-      </c>
-      <c r="B10" s="172" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C10" s="172" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D10" s="172" t="s">
-        <v>1104</v>
       </c>
       <c r="E10" s="173"/>
       <c r="F10" s="173"/>
@@ -22891,16 +22888,16 @@
     </row>
     <row r="11">
       <c r="A11" s="171" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B11" s="172" t="s">
         <v>1105</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="C11" s="172" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D11" s="172" t="s">
         <v>1106</v>
-      </c>
-      <c r="C11" s="172" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D11" s="172" t="s">
-        <v>1107</v>
       </c>
       <c r="E11" s="173"/>
       <c r="F11" s="173"/>
@@ -22927,16 +22924,16 @@
     </row>
     <row r="12">
       <c r="A12" s="171" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B12" s="172" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C12" s="172" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D12" s="172" t="s">
         <v>1108</v>
-      </c>
-      <c r="B12" s="172" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C12" s="172" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D12" s="172" t="s">
-        <v>1109</v>
       </c>
       <c r="E12" s="173"/>
       <c r="F12" s="173"/>
@@ -22963,16 +22960,16 @@
     </row>
     <row r="13">
       <c r="A13" s="171" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B13" s="171" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C13" s="172" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D13" s="172" t="s">
         <v>1110</v>
-      </c>
-      <c r="B13" s="171" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C13" s="172" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D13" s="172" t="s">
-        <v>1111</v>
       </c>
       <c r="E13" s="173"/>
       <c r="F13" s="173"/>
@@ -22999,16 +22996,16 @@
     </row>
     <row r="14">
       <c r="A14" s="171" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B14" s="171" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C14" s="172" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D14" s="172" t="s">
         <v>1112</v>
-      </c>
-      <c r="B14" s="171" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C14" s="172" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D14" s="172" t="s">
-        <v>1113</v>
       </c>
       <c r="E14" s="173"/>
       <c r="F14" s="173"/>
@@ -23060,51 +23057,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="174" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="155" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B2" s="155" t="s">
         <v>1076</v>
       </c>
-      <c r="B2" s="155" t="s">
+      <c r="C2" s="155" t="s">
         <v>1077</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="D2" s="155" t="s">
         <v>1078</v>
-      </c>
-      <c r="D2" s="155" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="152" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B3" s="152" t="s">
         <v>1114</v>
-      </c>
-      <c r="B3" s="152" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="152" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B4" s="152" t="s">
         <v>1116</v>
-      </c>
-      <c r="B4" s="152" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="152" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B5" s="152" t="s">
         <v>1118</v>
       </c>
-      <c r="B5" s="152" t="s">
+      <c r="C5" s="175" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D5" s="152" t="s">
         <v>1119</v>
-      </c>
-      <c r="C5" s="175" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D5" s="152" t="s">
-        <v>1120</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F04/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F04/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.0-alpha.1</t>
+    <t>2.2.0-rc.1</t>
   </si>
   <si>
     <r>
